--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C7690-E537-4BB3-AF7A-5393FA190AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,46 +22,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>резерв</t>
   </si>
   <si>
-    <t>ДУ</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
-    <t>Проц. Прог.</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>Ф-ра</t>
-  </si>
-  <si>
-    <t>Математика</t>
+    <r>
+      <t xml:space="preserve">Математика </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ДУ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проц. Прог. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Английский </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">История </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Эл. Ф-ра и спорт </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(р)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ТЦП </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?)</t>
+    </r>
+  </si>
+  <si>
+    <t>реферат</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ф-ра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (60%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Физика </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 мар</t>
+    </r>
+  </si>
+  <si>
+    <t>I  I    с  е  м  е  с  т  р</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +253,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Razer Header Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -87,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -130,27 +335,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,22 +402,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,6 +453,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +537,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -478,315 +781,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.5703125" style="1"/>
+    <col min="3" max="3" width="9.5703125" style="6"/>
+    <col min="4" max="4" width="9.5703125" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="6"/>
+    <col min="6" max="6" width="9.5703125" style="1"/>
+    <col min="7" max="7" width="9.5703125" style="6"/>
+    <col min="8" max="8" width="9.5703125" style="1"/>
+    <col min="9" max="9" width="9.5703125" style="6"/>
+    <col min="10" max="10" width="9.5703125" style="13"/>
+    <col min="11" max="11" width="9.5703125" style="6"/>
+    <col min="12" max="12" width="9.5703125" style="13"/>
+    <col min="13" max="13" width="9.5703125" style="6"/>
+    <col min="14" max="14" width="9.5703125" style="13"/>
+    <col min="15" max="15" width="9.5703125" style="6"/>
+    <col min="16" max="16" width="9.5703125" style="13"/>
+    <col min="17" max="17" width="9.5703125" style="6"/>
+    <col min="18" max="18" width="9.5703125" style="13"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43884</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43881</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14">
+        <v>43877</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
+        <v>43889</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43891</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="14">
+        <v>43905</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="14">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="14">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43889</v>
-      </c>
-      <c r="C3" s="7">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43877</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43881</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43884</v>
-      </c>
-      <c r="I3" s="7">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43931</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43891</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43951</v>
-      </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43905</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="7">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43919</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="J7" s="15">
         <v>43921</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J26" s="6"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J27" s="6"/>
+      <c r="J27" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -795,11 +1135,12 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -811,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Poly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C7690-E537-4BB3-AF7A-5393FA190AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD83A95-06A3-42EF-9456-8DB22947D6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>резерв</t>
   </si>
@@ -138,6 +138,107 @@
     </r>
   </si>
   <si>
+    <t>реферат</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ф-ра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (60%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Физика </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 мар</t>
+    </r>
+  </si>
+  <si>
+    <t>I  I    с  е  м  е  с  т  р</t>
+  </si>
+  <si>
+    <t>24 мая</t>
+  </si>
+  <si>
+    <t>27 мая</t>
+  </si>
+  <si>
+    <t>5 (53%)</t>
+  </si>
+  <si>
+    <t>4 мая</t>
+  </si>
+  <si>
+    <t>11 мая</t>
+  </si>
+  <si>
+    <t>18 мая</t>
+  </si>
+  <si>
+    <t>25 мая</t>
+  </si>
+  <si>
+    <t>итог</t>
+  </si>
+  <si>
+    <t>итог 2 (?)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">ТЦП </t>
     </r>
@@ -153,26 +254,6 @@
       </rPr>
       <t>(?)</t>
     </r>
-  </si>
-  <si>
-    <t>реферат</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ф-ра </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -184,49 +265,6 @@
       </rPr>
       <t xml:space="preserve"> (60%)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Физика </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 мар</t>
-    </r>
-  </si>
-  <si>
-    <t>I  I    с  е  м  е  с  т  р</t>
   </si>
 </sst>
 </file>
@@ -278,7 +316,7 @@
       <name val="Razer Header Regular"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,46 +446,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,34 +838,34 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" style="1"/>
-    <col min="3" max="3" width="9.5703125" style="6"/>
-    <col min="4" max="4" width="9.5703125" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="6"/>
-    <col min="6" max="6" width="9.5703125" style="1"/>
-    <col min="7" max="7" width="9.5703125" style="6"/>
-    <col min="8" max="8" width="9.5703125" style="1"/>
-    <col min="9" max="9" width="9.5703125" style="6"/>
-    <col min="10" max="10" width="9.5703125" style="13"/>
-    <col min="11" max="11" width="9.5703125" style="6"/>
-    <col min="12" max="12" width="9.5703125" style="13"/>
-    <col min="13" max="13" width="9.5703125" style="6"/>
-    <col min="14" max="14" width="9.5703125" style="13"/>
-    <col min="15" max="15" width="9.5703125" style="6"/>
-    <col min="16" max="16" width="9.5703125" style="13"/>
-    <col min="17" max="17" width="9.5703125" style="6"/>
-    <col min="18" max="18" width="9.5703125" style="13"/>
+    <col min="1" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10" style="10" customWidth="1"/>
+    <col min="17" max="17" width="10" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10" style="10" customWidth="1"/>
     <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -833,54 +886,54 @@
       <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="19"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>43884</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>43881</v>
       </c>
       <c r="E3" s="6">
@@ -889,23 +942,35 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>43877</v>
+      <c r="H3" s="10"/>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="17">
+        <v>43905</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <v>43889</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>43878</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
+        <v>43891</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -923,14 +988,26 @@
       <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="14">
-        <v>43891</v>
+      <c r="J4" s="11">
+        <v>43926</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <v>43931</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11">
+        <v>43885</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>43898</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -947,14 +1024,26 @@
       <c r="I5" s="6">
         <v>7</v>
       </c>
-      <c r="J5" s="14">
-        <v>43905</v>
+      <c r="J5" s="11">
+        <v>43947</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>43951</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="11">
+        <v>43892</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="11">
+        <v>43911</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -971,14 +1060,26 @@
       <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11">
+        <v>43899</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="11">
         <v>43919</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -988,7 +1089,19 @@
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6</v>
+      </c>
+      <c r="N7" s="11">
+        <v>43906</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="11">
         <v>43921</v>
       </c>
     </row>
@@ -997,129 +1110,217 @@
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="M8" s="6">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11">
+        <v>43913</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="11">
+        <v>43940</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5"/>
       <c r="H9" s="2"/>
+      <c r="M9" s="6">
+        <v>8</v>
+      </c>
+      <c r="N9" s="11">
+        <v>43920</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="11">
+        <v>43951</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="5"/>
       <c r="H10" s="2"/>
+      <c r="M10" s="6">
+        <v>9</v>
+      </c>
+      <c r="N10" s="11">
+        <v>43927</v>
+      </c>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="M11" s="6">
+        <v>10</v>
+      </c>
+      <c r="N11" s="11">
+        <v>43934</v>
+      </c>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="M12" s="6">
+        <v>11</v>
+      </c>
+      <c r="N12" s="11">
+        <v>43941</v>
+      </c>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="13"/>
+      <c r="M13" s="6">
+        <v>12</v>
+      </c>
+      <c r="N13" s="11">
+        <v>43948</v>
+      </c>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="16"/>
+      <c r="J14" s="13"/>
+      <c r="M14" s="6">
+        <v>13</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="13"/>
+      <c r="M15" s="6">
+        <v>14</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+      <c r="M16" s="6">
+        <v>15</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="13"/>
+      <c r="M17" s="6">
+        <v>16</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+      <c r="M18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="11">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="13"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="13"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J27" s="16"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD83A95-06A3-42EF-9456-8DB22947D6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>резерв</t>
   </si>
@@ -266,15 +260,21 @@
       <t xml:space="preserve"> (60%)</t>
     </r>
   </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>6 (доп)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +316,7 @@
       <name val="Razer Header Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,9 +464,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,12 +476,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,26 +596,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,23 +631,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -834,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" customWidth="1"/>
@@ -863,7 +835,7 @@
     <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -885,7 +857,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -923,14 +895,14 @@
       </c>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>43884</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="24">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -943,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="17">
@@ -952,32 +924,41 @@
       <c r="K3" s="6">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="17">
         <v>43889</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <v>43878</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="16">
         <v>43891</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43884</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43881</v>
+      </c>
       <c r="E4" s="6">
         <v>6</v>
       </c>
@@ -988,19 +969,19 @@
       <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="17">
         <v>43926</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="17">
         <v>43931</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>3</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="16">
         <v>43885</v>
       </c>
       <c r="O4" s="6">
@@ -1010,10 +991,19 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43912</v>
+      </c>
       <c r="E5" s="6">
         <v>7</v>
       </c>
@@ -1024,19 +1014,19 @@
       <c r="I5" s="6">
         <v>7</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="17">
         <v>43947</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="17">
         <v>43951</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="16">
         <v>43892</v>
       </c>
       <c r="O5" s="6">
@@ -1046,10 +1036,19 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43898</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43941</v>
+      </c>
       <c r="E6" s="6">
         <v>8</v>
       </c>
@@ -1060,7 +1059,7 @@
       <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="6">
@@ -1076,8 +1075,13 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43898</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
@@ -1089,7 +1093,7 @@
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="6">
@@ -1105,8 +1109,13 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43912</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="H8" s="2"/>
@@ -1124,7 +1133,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5"/>
@@ -1142,7 +1151,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="5"/>
@@ -1155,7 +1164,7 @@
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
@@ -1168,12 +1177,12 @@
       </c>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="12"/>
       <c r="M12" s="6">
         <v>11</v>
       </c>
@@ -1182,12 +1191,12 @@
       </c>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="12"/>
       <c r="M13" s="6">
         <v>12</v>
       </c>
@@ -1196,12 +1205,12 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
       <c r="M14" s="6">
         <v>13</v>
       </c>
@@ -1210,12 +1219,12 @@
       </c>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="M15" s="6">
         <v>14</v>
       </c>
@@ -1224,12 +1233,12 @@
       </c>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="12"/>
       <c r="M16" s="6">
         <v>15</v>
       </c>
@@ -1238,12 +1247,12 @@
       </c>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="12"/>
       <c r="M17" s="6">
         <v>16</v>
       </c>
@@ -1252,12 +1261,12 @@
       </c>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="12"/>
       <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1265,62 +1274,62 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="12"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J27" s="13"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="J27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1341,24 +1350,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -7,21 +7,16 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="II семестр" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>резерв</t>
-  </si>
-  <si>
-    <t>1, 2</t>
   </si>
   <si>
     <t>Итог</t>
@@ -265,6 +260,27 @@
   </si>
   <si>
     <t>6 (доп)</t>
+  </si>
+  <si>
+    <t>1 (95%)</t>
+  </si>
+  <si>
+    <t>2 (68%)</t>
+  </si>
+  <si>
+    <t>1 (100%)</t>
+  </si>
+  <si>
+    <t>2 (100%)</t>
+  </si>
+  <si>
+    <t>1 (80%)</t>
+  </si>
+  <si>
+    <t>3 (100%)</t>
+  </si>
+  <si>
+    <t>4 (100%)</t>
   </si>
 </sst>
 </file>
@@ -485,6 +501,9 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,9 +517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,7 +826,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -836,64 +852,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8">
@@ -902,7 +918,7 @@
       <c r="B3" s="3">
         <v>43884</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -912,38 +928,38 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="17">
         <v>43905</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="16">
         <v>43889</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N3" s="16">
         <v>43878</v>
       </c>
-      <c r="O3" s="8">
-        <v>1</v>
+      <c r="O3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P3" s="16">
         <v>43891</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -953,7 +969,7 @@
       <c r="B4" s="3">
         <v>43884</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
       <c r="D4" s="3">
@@ -963,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6">
@@ -978,16 +994,16 @@
       <c r="L4" s="17">
         <v>43931</v>
       </c>
-      <c r="M4" s="8">
-        <v>3</v>
+      <c r="M4" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="N4" s="16">
-        <v>43885</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="11">
+        <v>43878</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -1008,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="6">
@@ -1023,11 +1039,11 @@
       <c r="L5" s="17">
         <v>43951</v>
       </c>
-      <c r="M5" s="8">
-        <v>4</v>
+      <c r="M5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="N5" s="16">
-        <v>43892</v>
+        <v>43885</v>
       </c>
       <c r="O5" s="6">
         <v>3</v>
@@ -1044,7 +1060,7 @@
         <v>43898</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>43941</v>
@@ -1053,20 +1069,20 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6">
         <v>8</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="11">
-        <v>43899</v>
+        <v>13</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="16">
+        <v>43892</v>
       </c>
       <c r="O6" s="6">
         <v>4</v>
@@ -1084,23 +1100,23 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="11">
-        <v>43906</v>
+        <v>43899</v>
       </c>
       <c r="O7" s="6">
         <v>5</v>
@@ -1111,7 +1127,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>43912</v>
@@ -1121,13 +1137,13 @@
       <c r="H8" s="2"/>
       <c r="J8" s="11"/>
       <c r="M8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8" s="11">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="11">
         <v>43940</v>
@@ -1139,13 +1155,13 @@
       <c r="F9" s="5"/>
       <c r="H9" s="2"/>
       <c r="M9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" s="11">
-        <v>43920</v>
+        <v>43913</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="11">
         <v>43951</v>
@@ -1157,10 +1173,10 @@
       <c r="F10" s="5"/>
       <c r="H10" s="2"/>
       <c r="M10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="11">
-        <v>43927</v>
+        <v>43920</v>
       </c>
       <c r="P10" s="11"/>
     </row>
@@ -1170,10 +1186,10 @@
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
       <c r="M11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="11">
-        <v>43934</v>
+        <v>43927</v>
       </c>
       <c r="P11" s="11"/>
     </row>
@@ -1184,10 +1200,10 @@
       <c r="H12" s="2"/>
       <c r="J12" s="12"/>
       <c r="M12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="11">
-        <v>43941</v>
+        <v>43934</v>
       </c>
       <c r="P12" s="11"/>
     </row>
@@ -1198,10 +1214,10 @@
       <c r="H13" s="2"/>
       <c r="J13" s="12"/>
       <c r="M13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" s="11">
-        <v>43948</v>
+        <v>43941</v>
       </c>
       <c r="P13" s="11"/>
     </row>
@@ -1212,10 +1228,10 @@
       <c r="H14" s="2"/>
       <c r="J14" s="12"/>
       <c r="M14" s="6">
-        <v>13</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="N14" s="11">
+        <v>43948</v>
       </c>
       <c r="P14" s="11"/>
     </row>
@@ -1226,10 +1242,10 @@
       <c r="H15" s="2"/>
       <c r="J15" s="12"/>
       <c r="M15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P15" s="11"/>
     </row>
@@ -1240,10 +1256,10 @@
       <c r="H16" s="2"/>
       <c r="J16" s="12"/>
       <c r="M16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P16" s="11"/>
     </row>
@@ -1254,10 +1270,10 @@
       <c r="H17" s="2"/>
       <c r="J17" s="12"/>
       <c r="M17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P17" s="11"/>
     </row>
@@ -1267,11 +1283,11 @@
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18" s="12"/>
-      <c r="M18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="11">
-        <v>44009</v>
+      <c r="M18" s="6">
+        <v>16</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -1280,7 +1296,12 @@
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="J19" s="12"/>
-      <c r="N19" s="11"/>
+      <c r="M19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="11">
+        <v>44009</v>
+      </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="2"/>
@@ -1347,28 +1368,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2B6F3-D18A-45F3-8EAE-A6919C951269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -286,11 +292,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,9 +618,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,6 +670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -822,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" customWidth="1"/>
@@ -851,7 +891,7 @@
     <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
@@ -873,7 +913,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -911,7 +951,7 @@
       </c>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -962,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1007,11 +1047,11 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="6">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>43891</v>
       </c>
       <c r="C5" s="6">
@@ -1052,7 +1092,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1091,7 +1131,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1125,7 +1165,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1189,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5"/>
@@ -1167,7 +1207,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="5"/>
@@ -1180,7 +1220,7 @@
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
@@ -1193,7 +1233,7 @@
       </c>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
@@ -1207,7 +1247,7 @@
       </c>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
@@ -1221,7 +1261,7 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
@@ -1235,7 +1275,7 @@
       </c>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
@@ -1249,7 +1289,7 @@
       </c>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
@@ -1263,7 +1303,7 @@
       </c>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
@@ -1277,7 +1317,7 @@
       </c>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
@@ -1290,7 +1330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
@@ -1303,7 +1343,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -1311,45 +1351,45 @@
       <c r="J20" s="12"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J27" s="12"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2B6F3-D18A-45F3-8EAE-A6919C951269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8484CD-AA8A-4A4B-8C7D-B6B6B1595C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
       <name val="Razer Header Regular"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +529,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +878,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,10 +1060,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="26">
         <v>43891</v>
       </c>
       <c r="C5" s="6">
@@ -1132,10 +1144,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>43898</v>
       </c>
       <c r="D7" s="2"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8484CD-AA8A-4A4B-8C7D-B6B6B1595C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>резерв</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Математика </t>
+      <t xml:space="preserve">ДУ </t>
     </r>
     <r>
       <rPr>
@@ -49,7 +40,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ДУ </t>
+      <t xml:space="preserve">Проц. Прог. </t>
     </r>
     <r>
       <rPr>
@@ -66,7 +57,116 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Проц. Прог. </t>
+      <t xml:space="preserve">Английский </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">История </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <t>реферат</t>
+  </si>
+  <si>
+    <t>I  I    с  е  м  е  с  т  р</t>
+  </si>
+  <si>
+    <t>24 мая</t>
+  </si>
+  <si>
+    <t>27 мая</t>
+  </si>
+  <si>
+    <t>5 (53%)</t>
+  </si>
+  <si>
+    <t>4 мая</t>
+  </si>
+  <si>
+    <t>11 мая</t>
+  </si>
+  <si>
+    <t>18 мая</t>
+  </si>
+  <si>
+    <t>25 мая</t>
+  </si>
+  <si>
+    <t>итог</t>
+  </si>
+  <si>
+    <t>итог 2 (?)</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>6 (доп)</t>
+  </si>
+  <si>
+    <t>1 (95%)</t>
+  </si>
+  <si>
+    <t>2 (68%)</t>
+  </si>
+  <si>
+    <t>1 (100%)</t>
+  </si>
+  <si>
+    <t>2 (100%)</t>
+  </si>
+  <si>
+    <t>1 (80%)</t>
+  </si>
+  <si>
+    <t>3 (100%)</t>
+  </si>
+  <si>
+    <t>4 (100%)</t>
+  </si>
+  <si>
+    <t>3 мая</t>
+  </si>
+  <si>
+    <t>10 мая</t>
+  </si>
+  <si>
+    <t>17 мая</t>
+  </si>
+  <si>
+    <t>31 мая</t>
+  </si>
+  <si>
+    <t>лаба (?)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Физика II </t>
     </r>
     <r>
       <rPr>
@@ -83,7 +183,50 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Английский </t>
+      <t xml:space="preserve">Математика II </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+  </si>
+  <si>
+    <t>(?)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Эл. Ф-ра и спорт</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ТЦП </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ф-ра </t>
     </r>
     <r>
       <rPr>
@@ -98,205 +241,15 @@
       <t>(з)</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">История </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Эл. Ф-ра и спорт </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(р)</t>
-    </r>
-  </si>
-  <si>
-    <t>реферат</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ф-ра </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (60%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Физика </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 мар</t>
-    </r>
-  </si>
-  <si>
-    <t>I  I    с  е  м  е  с  т  р</t>
-  </si>
-  <si>
-    <t>24 мая</t>
-  </si>
-  <si>
-    <t>27 мая</t>
-  </si>
-  <si>
-    <t>5 (53%)</t>
-  </si>
-  <si>
-    <t>4 мая</t>
-  </si>
-  <si>
-    <t>11 мая</t>
-  </si>
-  <si>
-    <t>18 мая</t>
-  </si>
-  <si>
-    <t>25 мая</t>
-  </si>
-  <si>
-    <t>итог</t>
-  </si>
-  <si>
-    <t>итог 2 (?)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ТЦП </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (60%)</t>
-    </r>
-  </si>
-  <si>
-    <t>4, 5</t>
-  </si>
-  <si>
-    <t>6 (доп)</t>
-  </si>
-  <si>
-    <t>1 (95%)</t>
-  </si>
-  <si>
-    <t>2 (68%)</t>
-  </si>
-  <si>
-    <t>1 (100%)</t>
-  </si>
-  <si>
-    <t>2 (100%)</t>
-  </si>
-  <si>
-    <t>1 (80%)</t>
-  </si>
-  <si>
-    <t>3 (100%)</t>
-  </si>
-  <si>
-    <t>4 (100%)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,15 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -457,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,25 +460,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,26 +577,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,23 +612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -874,14 +787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" customWidth="1"/>
@@ -903,67 +816,67 @@
     <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L2" s="24"/>
+      <c r="M2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -980,41 +893,46 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
+        <v>43905</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J3" s="17">
         <v>43905</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="16">
         <v>43889</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N3" s="16">
         <v>43878</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P3" s="16">
         <v>43891</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1031,9 +949,14 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="22">
+        <v>43912</v>
+      </c>
       <c r="I4" s="6">
         <v>6</v>
       </c>
@@ -1047,23 +970,23 @@
         <v>43931</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N4" s="16">
         <v>43878</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P4" s="16">
         <v>43898</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="5" spans="1:18">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="21">
         <v>43891</v>
       </c>
       <c r="C5" s="6">
@@ -1076,9 +999,14 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="22">
+        <v>43919</v>
+      </c>
       <c r="I5" s="6">
         <v>7</v>
       </c>
@@ -1092,7 +1020,7 @@
         <v>43951</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N5" s="16">
         <v>43885</v>
@@ -1104,7 +1032,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1112,7 +1040,7 @@
         <v>43898</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>43941</v>
@@ -1121,17 +1049,28 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>43926</v>
+      </c>
       <c r="I6" s="6">
         <v>8</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N6" s="16">
         <v>43892</v>
@@ -1143,26 +1082,36 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>43898</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>43933</v>
+      </c>
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M7" s="6">
         <v>5</v>
@@ -1177,16 +1126,21 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>43912</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" s="22">
+        <v>43940</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="M8" s="6">
         <v>6</v>
@@ -1195,17 +1149,27 @@
         <v>43906</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P8" s="11">
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="22">
+        <v>43947</v>
+      </c>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -1213,17 +1177,22 @@
         <v>43913</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P9" s="11">
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -1232,11 +1201,16 @@
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="6">
+        <v>9</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -1245,11 +1219,16 @@
       </c>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="M12" s="6">
         <v>10</v>
@@ -1259,11 +1238,16 @@
       </c>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="6">
+        <v>11</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="M13" s="6">
         <v>11</v>
@@ -1273,11 +1257,16 @@
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="M14" s="6">
         <v>12</v>
@@ -1287,21 +1276,26 @@
       </c>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
@@ -1311,11 +1305,11 @@
         <v>14</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
@@ -1325,11 +1319,11 @@
         <v>15</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
@@ -1339,23 +1333,23 @@
         <v>16</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="J19" s="12"/>
       <c r="M19" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N19" s="11">
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -1363,45 +1357,45 @@
       <c r="J20" s="12"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="J27" s="12"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>резерв</t>
   </si>
@@ -241,6 +241,30 @@
       <t>(з)</t>
     </r>
   </si>
+  <si>
+    <t>10 (доп)</t>
+  </si>
+  <si>
+    <t>10 - 16 фев</t>
+  </si>
+  <si>
+    <t>17 - 23 фев</t>
+  </si>
+  <si>
+    <t>24 фев - 1 мар</t>
+  </si>
+  <si>
+    <t>2 - 8 мар</t>
+  </si>
+  <si>
+    <t>9 - 15 мар</t>
+  </si>
+  <si>
+    <t>13 (доп)</t>
+  </si>
+  <si>
+    <t>5 (100%)</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +304,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Razer Header Regular"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -314,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -397,11 +430,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,13 +515,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,7 +882,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -817,72 +908,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="23" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="24"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43884</v>
-      </c>
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28"/>
       <c r="C3" s="19">
         <v>1</v>
       </c>
@@ -898,7 +987,7 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>43905</v>
       </c>
       <c r="I3" s="15" t="s">
@@ -934,9 +1023,9 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
         <v>43884</v>
       </c>
       <c r="C4" s="19">
@@ -954,7 +1043,7 @@
       <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>43912</v>
       </c>
       <c r="I4" s="6">
@@ -983,11 +1072,11 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="20">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21">
-        <v>43891</v>
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>43884</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -1004,7 +1093,7 @@
       <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>43919</v>
       </c>
       <c r="I5" s="6">
@@ -1033,12 +1122,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43898</v>
-      </c>
+      <c r="A6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1141,7 @@
       <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>43926</v>
       </c>
       <c r="I6" s="6">
@@ -1083,11 +1170,11 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43898</v>
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43891</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
@@ -1104,7 +1191,7 @@
       <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>43933</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1113,10 +1200,10 @@
       <c r="J7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="6">
-        <v>5</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="16">
         <v>43899</v>
       </c>
       <c r="O7" s="6">
@@ -1127,18 +1214,16 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43912</v>
-      </c>
+      <c r="A8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>43940</v>
       </c>
       <c r="J8" s="11"/>
@@ -1156,18 +1241,18 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16">
+        <v>43898</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>43947</v>
       </c>
       <c r="M9" s="6">
@@ -1184,13 +1269,18 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="2"/>
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16">
+        <v>43898</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6">
         <v>8</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="6">
@@ -1202,13 +1292,18 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="2"/>
+      <c r="A11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="26">
+        <v>43912</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
         <v>9</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="6">
@@ -1220,13 +1315,16 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="2"/>
+      <c r="A12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="34"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="12"/>
@@ -1239,13 +1337,18 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="2"/>
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43912</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6">
         <v>11</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J13" s="12"/>
@@ -1258,13 +1361,18 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="2"/>
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>43912</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="12"/>
@@ -1277,13 +1385,18 @@
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="2"/>
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43912</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="12"/>
@@ -1296,7 +1409,12 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="2"/>
+      <c r="A16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="26">
+        <v>43916</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
@@ -1309,8 +1427,11 @@
       </c>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
@@ -1323,8 +1444,13 @@
       </c>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11">
+        <v>43919</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
@@ -1336,8 +1462,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11">
+        <v>43919</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
@@ -1349,57 +1480,67 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="26">
+        <v>43919</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="J20" s="12"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="1:16">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="1:16">
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="1:16">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="1:16">
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="2"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="1:16">
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="1:16">
       <c r="J27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -1410,6 +1551,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>резерв</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>5 (100%)</t>
+  </si>
+  <si>
+    <t>6 (100%)</t>
+  </si>
+  <si>
+    <t>3 (90%)</t>
   </si>
 </sst>
 </file>
@@ -536,6 +542,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,21 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +888,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -908,70 +914,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19">
         <v>1</v>
       </c>
@@ -1114,18 +1120,18 @@
       <c r="N5" s="16">
         <v>43885</v>
       </c>
-      <c r="O5" s="6">
-        <v>3</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="O5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="16">
         <v>43911</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1214,10 +1220,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="37"/>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
@@ -1227,10 +1233,10 @@
         <v>43940</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="M8" s="6">
-        <v>6</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="16">
         <v>43906</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -1315,10 +1321,10 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="39"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
@@ -1428,10 +1434,10 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="39"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
@@ -1541,6 +1547,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -1551,11 +1562,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>резерв</t>
   </si>
@@ -102,9 +102,6 @@
     <t>27 мая</t>
   </si>
   <si>
-    <t>5 (53%)</t>
-  </si>
-  <si>
     <t>4 мая</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>3 (90%)</t>
+  </si>
+  <si>
+    <t>7 (100%)</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,16 +500,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,15 +524,39 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,30 +570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +879,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -914,71 +905,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="28"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="19">
+      <c r="A3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -990,34 +981,34 @@
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="15">
         <v>43905</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="I3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="15">
         <v>43905</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="16">
+        <v>18</v>
+      </c>
+      <c r="L3" s="15">
         <v>43889</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="16">
+        <v>22</v>
+      </c>
+      <c r="N3" s="15">
         <v>43878</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="16">
+        <v>20</v>
+      </c>
+      <c r="P3" s="15">
         <v>43891</v>
       </c>
       <c r="Q3" s="14" t="s">
@@ -1031,10 +1022,10 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>43884</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="3">
@@ -1049,39 +1040,39 @@
       <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>43912</v>
       </c>
       <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>43926</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>43931</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="16">
+        <v>21</v>
+      </c>
+      <c r="N4" s="15">
         <v>43878</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="16">
+        <v>19</v>
+      </c>
+      <c r="P4" s="15">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>43884</v>
       </c>
       <c r="C5" s="6">
@@ -1099,41 +1090,41 @@
       <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>43919</v>
       </c>
       <c r="I5" s="6">
         <v>7</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>43947</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>43951</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="16">
+        <v>23</v>
+      </c>
+      <c r="N5" s="15">
         <v>43885</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="16">
+        <v>46</v>
+      </c>
+      <c r="P5" s="15">
         <v>43911</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="35"/>
+      <c r="A6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>43941</v>
@@ -1147,25 +1138,25 @@
       <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>43926</v>
       </c>
       <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="16">
+        <v>24</v>
+      </c>
+      <c r="N6" s="15">
         <v>43892</v>
       </c>
       <c r="O6" s="6">
@@ -1176,20 +1167,20 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>43891</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -1197,19 +1188,19 @@
       <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>43933</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="16">
+        <v>44</v>
+      </c>
+      <c r="N7" s="15">
         <v>43899</v>
       </c>
       <c r="O7" s="6">
@@ -1220,27 +1211,27 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="37"/>
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31"/>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>43940</v>
       </c>
       <c r="J8" s="11"/>
       <c r="M8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="16">
+        <v>45</v>
+      </c>
+      <c r="N8" s="15">
         <v>43906</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P8" s="11">
         <v>43940</v>
@@ -1250,7 +1241,7 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>43898</v>
       </c>
       <c r="D9" s="2"/>
@@ -1258,17 +1249,17 @@
       <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>43947</v>
       </c>
-      <c r="M9" s="6">
-        <v>7</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="15">
         <v>43913</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P9" s="11">
         <v>43951</v>
@@ -1278,7 +1269,7 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>43898</v>
       </c>
       <c r="D10" s="2"/>
@@ -1286,8 +1277,8 @@
       <c r="G10" s="6">
         <v>8</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>26</v>
+      <c r="H10" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="M10" s="6">
         <v>8</v>
@@ -1298,10 +1289,10 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="25">
         <v>43912</v>
       </c>
       <c r="D11" s="2"/>
@@ -1309,8 +1300,8 @@
       <c r="G11" s="6">
         <v>9</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>27</v>
+      <c r="H11" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="M11" s="6">
         <v>9</v>
@@ -1321,17 +1312,17 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="39"/>
+      <c r="A12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="33"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>28</v>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="J12" s="12"/>
       <c r="M12" s="6">
@@ -1354,7 +1345,7 @@
       <c r="G13" s="6">
         <v>11</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J13" s="12"/>
@@ -1376,10 +1367,10 @@
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="20" t="s">
         <v>29</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="J14" s="12"/>
       <c r="M14" s="6">
@@ -1400,25 +1391,25 @@
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="J15" s="12"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="25">
         <v>43916</v>
       </c>
       <c r="D16" s="2"/>
@@ -1429,15 +1420,15 @@
         <v>14</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="39"/>
+      <c r="A17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="33"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
@@ -1446,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P17" s="11"/>
     </row>
@@ -1465,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1480,17 +1471,17 @@
       <c r="H19" s="2"/>
       <c r="J19" s="12"/>
       <c r="M19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N19" s="11">
         <v>44009</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="26">
+      <c r="A20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="25">
         <v>43919</v>
       </c>
       <c r="D20" s="2"/>
@@ -1501,10 +1492,10 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
@@ -1547,11 +1538,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -1562,6 +1548,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>резерв</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>7 (100%)</t>
+  </si>
+  <si>
+    <t>7 (тест)</t>
   </si>
 </sst>
 </file>
@@ -533,6 +536,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,21 +573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +882,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -905,70 +908,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="34" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="35"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1037,10 +1040,10 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>43912</v>
       </c>
       <c r="I4" s="6">
@@ -1119,10 +1122,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1211,10 +1214,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="36"/>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
@@ -1312,10 +1315,10 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="38"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
@@ -1334,10 +1337,10 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="15">
         <v>43912</v>
       </c>
       <c r="D13" s="2"/>
@@ -1358,10 +1361,10 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="6">
+      <c r="A14" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="15">
         <v>43912</v>
       </c>
       <c r="D14" s="2"/>
@@ -1425,10 +1428,10 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="38"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
@@ -1538,6 +1541,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -1548,11 +1556,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,6 +536,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,28 +563,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +879,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -908,70 +905,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="26" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="27"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1078,10 +1075,10 @@
       <c r="B5" s="22">
         <v>43884</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="35">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="37">
         <v>43912</v>
       </c>
       <c r="E5" s="6">
@@ -1122,10 +1119,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1214,10 +1211,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="27"/>
       <c r="D8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
@@ -1292,10 +1289,10 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>43912</v>
       </c>
       <c r="D11" s="2"/>
@@ -1315,10 +1312,10 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="29"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
@@ -1385,10 +1382,10 @@
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="6">
+      <c r="A15" s="35">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="36">
         <v>43912</v>
       </c>
       <c r="D15" s="2"/>
@@ -1428,10 +1425,10 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="29"/>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
@@ -1541,11 +1538,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -1556,6 +1548,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5457F3B-45D4-4C62-8466-33E15B68D2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B744129-5132-418C-A2E4-301BE352AB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>резерв</t>
   </si>
@@ -70,9 +70,6 @@
     <t>4, 5</t>
   </si>
   <si>
-    <t>6 (доп)</t>
-  </si>
-  <si>
     <t>1 (95%)</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Эл. Ф-ра и спорт</t>
   </si>
   <si>
-    <t>10 (доп)</t>
-  </si>
-  <si>
     <t>10 - 16 фев</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>9 - 15 мар</t>
   </si>
   <si>
-    <t>13 (доп)</t>
-  </si>
-  <si>
     <t>5 (100%)</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
   </si>
   <si>
     <t>7 (100%)</t>
-  </si>
-  <si>
-    <t>7 (тест)</t>
   </si>
   <si>
     <t>8 (100%)</t>
@@ -305,9 +293,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>11 (53.92%)</t>
-  </si>
-  <si>
     <t>9 (100%)</t>
   </si>
   <si>
@@ -317,13 +302,76 @@
     <t>30 мар - 5 апр</t>
   </si>
   <si>
-    <t>18 (тест)</t>
-  </si>
-  <si>
     <t>6 - 12 апр</t>
   </si>
   <si>
-    <t>19 (тест)</t>
+    <t>1) Калейдоскоп</t>
+  </si>
+  <si>
+    <t>2) Объявление массивов</t>
+  </si>
+  <si>
+    <t>3) Обработка элементов массива (тест)</t>
+  </si>
+  <si>
+    <t>4) Лучший преподаватель</t>
+  </si>
+  <si>
+    <t>5) Сумма диагоналей (тест)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6) N-буквенные слова (доп)</t>
+  </si>
+  <si>
+    <t>7) Массив-объект класса Array (тест)</t>
+  </si>
+  <si>
+    <t>8) Поиск в двухмерном массиве</t>
+  </si>
+  <si>
+    <t>9) Сортировка ступенчатого массива</t>
+  </si>
+  <si>
+    <t>10) Микрокроссворд (доп)</t>
+  </si>
+  <si>
+    <t>11) Массивы (тест)</t>
+  </si>
+  <si>
+    <t>12) Объявление структур</t>
+  </si>
+  <si>
+    <t>13) N наибольших (доп)</t>
+  </si>
+  <si>
+    <t>14) Охватывающий прямоугольник</t>
+  </si>
+  <si>
+    <t>15) Подсчет стоимости квартир</t>
+  </si>
+  <si>
+    <t>16) Многоугольники</t>
+  </si>
+  <si>
+    <t>17) Ищем похожих</t>
+  </si>
+  <si>
+    <t>18) Структуры (тест)</t>
+  </si>
+  <si>
+    <t>19) Проверочный по спискам (тест)</t>
+  </si>
+  <si>
+    <t>20) Сортировка блинов</t>
+  </si>
+  <si>
+    <t>Не сделано</t>
+  </si>
+  <si>
+    <t>Сделано, сдано</t>
+  </si>
+  <si>
+    <t>Сделано, не сдано</t>
   </si>
 </sst>
 </file>
@@ -333,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +439,31 @@
       <color theme="0"/>
       <name val="Razer Header Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +492,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,10 +606,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,13 +624,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,45 +720,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,110 +1123,112 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10" style="13" customWidth="1"/>
-    <col min="11" max="11" width="10" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10" style="13" customWidth="1"/>
-    <col min="15" max="15" width="10" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10" style="11" customWidth="1"/>
-    <col min="18" max="18" width="10" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1" hidden="1"/>
+    <col min="1" max="1" width="35.109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10" style="11" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="57" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="44" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="41" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="42"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="14">
+      <c r="B3" s="46"/>
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>43881</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
@@ -1137,53 +1238,56 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4">
         <v>43889</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="4">
         <v>43878</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
+      <c r="S3" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>43881</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3">
@@ -1193,47 +1297,50 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
       </c>
-      <c r="K4" s="11">
-        <v>2</v>
-      </c>
-      <c r="L4" s="19">
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4">
         <v>43931</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" s="4">
         <v>43878</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="S4" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5">
         <v>43884</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>43911</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>7</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="3">
@@ -1242,46 +1349,49 @@
       <c r="H5" s="4">
         <v>43919</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>7</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>43947</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="17">
         <v>43951</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="4">
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="11" t="s">
+      <c r="S5" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>43940</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3">
@@ -1290,470 +1400,474 @@
       <c r="H6" s="4">
         <v>43926</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>8</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>26</v>
+      <c r="L6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N6" s="4">
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6">
         <v>43891</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>43933</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="11">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="9">
         <v>6</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>43940</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>4</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="11">
+      <c r="D9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
         <v>7</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="11">
+      <c r="D10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
         <v>8</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>21</v>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
       </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6">
         <v>43912</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11">
+      <c r="D11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9">
         <v>9</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>22</v>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="D12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9">
         <v>10</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="M12" s="11">
+      <c r="H12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="M12" s="9">
         <v>10</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>43934</v>
       </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11">
+      <c r="D13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9">
         <v>11</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="M13" s="11">
+      <c r="J13" s="15"/>
+      <c r="M13" s="9">
         <v>11</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>43941</v>
       </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>8</v>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="M14" s="11">
+      <c r="H14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="M14" s="9">
         <v>12</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>43948</v>
       </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>9</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8">
         <v>43912</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11" t="s">
+      <c r="D15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="M15" s="11">
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="M15" s="9">
         <v>13</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="6">
         <v>43916</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="M16" s="11">
+      <c r="D16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="15"/>
+      <c r="M16" s="9">
         <v>14</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="12"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="D17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="17"/>
-      <c r="M17" s="11">
+      <c r="A17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="15"/>
+      <c r="M17" s="9">
         <v>15</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>54</v>
+      <c r="A18" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="17"/>
-      <c r="M18" s="11">
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="15"/>
+      <c r="M18" s="9">
         <v>16</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>12</v>
+      <c r="A19" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="17"/>
-      <c r="M19" s="11" t="s">
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="15"/>
+      <c r="M19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <v>44009</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="6">
         <v>43919</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="17"/>
-      <c r="N20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="15"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="53">
+        <v>43926</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6">
+        <v>43926</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
-        <v>14</v>
-      </c>
-      <c r="B22" s="47">
-        <v>43926</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8">
-        <v>43926</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="17"/>
+      <c r="B24" s="46"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="10">
         <v>43933</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="17"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>17</v>
-      </c>
-      <c r="B27" s="50">
+      <c r="A27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="37">
         <v>43934</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="50">
+      <c r="A28" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="37">
         <v>43934</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="49"/>
+      <c r="A29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="50">
+      <c r="A30" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="37">
         <v>43941</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>20</v>
-      </c>
-      <c r="B31" s="50">
+      <c r="A31" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="37">
         <v>43941</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="49"/>
+      <c r="A32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
@@ -1770,10 +1884,6 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1791,445 +1901,445 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10" style="13" customWidth="1"/>
-    <col min="11" max="11" width="10" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10" style="13" customWidth="1"/>
-    <col min="15" max="15" width="10" style="11" customWidth="1"/>
-    <col min="16" max="16" width="10" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10" style="11" customWidth="1"/>
-    <col min="18" max="18" width="10" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10" style="11" customWidth="1"/>
     <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="28"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="28"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="28"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="28"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="28"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="17"/>
-      <c r="N19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="15"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="17"/>
-      <c r="N20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="15"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J26" s="17"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J27" s="17"/>
+      <c r="J27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B744129-5132-418C-A2E4-301BE352AB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
     <sheet name="Шаблон" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -377,11 +371,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +451,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -610,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,7 +722,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,43 +779,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,26 +876,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,23 +911,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1121,17 +1086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1149,76 +1114,76 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="57" customWidth="1"/>
-    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
+    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="43" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43" t="s">
+      <c r="P2" s="55"/>
+      <c r="Q2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="R2" s="55"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1267,12 +1232,12 @@
       <c r="R3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="4">
@@ -1320,12 +1285,12 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="5">
@@ -1373,15 +1338,15 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1425,8 +1390,8 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="6">
@@ -1444,10 +1409,10 @@
       <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="4">
         <v>43933</v>
       </c>
       <c r="I7" s="18" t="s">
@@ -1469,11 +1434,11 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1501,8 +1466,8 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="4">
@@ -1529,8 +1494,8 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="4">
@@ -1552,8 +1517,8 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="6">
@@ -1575,11 +1540,11 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -1597,8 +1562,8 @@
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="4">
@@ -1621,8 +1586,8 @@
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="4">
@@ -1645,8 +1610,8 @@
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="40" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="8">
@@ -1669,8 +1634,8 @@
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="39" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="6">
@@ -1688,11 +1653,11 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="48"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
@@ -1705,8 +1670,8 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="4">
@@ -1723,8 +1688,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="4">
@@ -1741,8 +1706,8 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="6">
@@ -1754,21 +1719,21 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="48"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="42">
         <v>43926</v>
       </c>
       <c r="D22" s="10"/>
@@ -1776,8 +1741,8 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="6">
@@ -1788,21 +1753,21 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="42">
         <v>43933</v>
       </c>
       <c r="D25" s="10"/>
@@ -1810,65 +1775,60 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="50"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="4">
         <v>43934</v>
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="10">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="39"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="B29" s="50"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="10">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="10">
         <v>43941</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:R1"/>
@@ -1884,6 +1844,11 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1891,7 +1856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -1899,7 +1864,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -1919,52 +1884,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.45">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.45">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -1984,7 +1949,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.45">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -2004,7 +1969,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.45">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -2024,7 +1989,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2044,7 +2009,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.45">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2064,7 +2029,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2084,7 +2049,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2104,7 +2069,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2124,7 +2089,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.45">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2144,7 +2109,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.45">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2164,7 +2129,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2184,7 +2149,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2204,7 +2169,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.45">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2224,7 +2189,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.45">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2244,7 +2209,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.45">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2264,7 +2229,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2284,7 +2249,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2292,7 +2257,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2300,45 +2265,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.45">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.45">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.45">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.45">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E04D1D-9D73-4669-9ED1-D11CA5CA027E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
     <sheet name="Шаблон" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>резерв</t>
   </si>
@@ -367,15 +365,18 @@
   <si>
     <t>Сделано, не сдано</t>
   </si>
+  <si>
+    <t>10 (100%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,34 +753,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,9 +877,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,6 +929,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1086,17 +1121,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="41" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1114,76 +1149,76 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
-    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="46" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="54" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="54" t="s">
+      <c r="N2" s="54"/>
+      <c r="O2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="54" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="55"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="47" t="s">
+      <c r="R2" s="54"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1236,7 +1271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>55</v>
       </c>
@@ -1342,11 +1377,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1425,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>56</v>
       </c>
@@ -1434,11 +1469,11 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>57</v>
       </c>
@@ -1494,7 +1529,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>58</v>
       </c>
@@ -1517,7 +1552,7 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>59</v>
       </c>
@@ -1540,11 +1575,11 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="56"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -1554,15 +1589,15 @@
         <v>22</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="M12" s="9">
-        <v>10</v>
-      </c>
-      <c r="N12" s="10">
+      <c r="M12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1621,7 @@
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>61</v>
       </c>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>62</v>
       </c>
@@ -1634,7 +1669,7 @@
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>63</v>
       </c>
@@ -1653,11 +1688,11 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="56"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
@@ -1670,7 +1705,7 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>64</v>
       </c>
@@ -1688,7 +1723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>65</v>
       </c>
@@ -1706,7 +1741,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>66</v>
       </c>
@@ -1719,18 +1754,18 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="56"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="42">
@@ -1741,7 +1776,7 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>68</v>
       </c>
@@ -1753,18 +1788,18 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="56"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="42">
@@ -1775,14 +1810,14 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="49"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>70</v>
       </c>
@@ -1791,21 +1826,21 @@
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>72</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>73</v>
       </c>
@@ -1821,14 +1856,18 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:R1"/>
@@ -1845,10 +1884,6 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1856,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -1864,7 +1899,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -1884,52 +1919,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5703125" style="1"/>
+    <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-    </row>
-    <row r="2" spans="1:18" ht="14.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.45">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -1949,7 +1984,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" ht="14.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -1969,7 +2004,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18" ht="14.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -1989,7 +2024,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2009,7 +2044,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18" ht="14.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2029,7 +2064,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2049,7 +2084,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" ht="14.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2069,7 +2104,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18" ht="14.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2089,7 +2124,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18" ht="14.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2109,7 +2144,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18" ht="14.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2129,7 +2164,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18" ht="14.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2149,7 +2184,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18" ht="14.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2169,7 +2204,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18" ht="14.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2189,7 +2224,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" ht="14.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2209,7 +2244,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" ht="14.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2229,7 +2264,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" ht="14.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2249,7 +2284,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" ht="14.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2257,7 +2292,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="14.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2265,45 +2300,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="14.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="14.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="14.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="14.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="14.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18" ht="14.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18" ht="14.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E04D1D-9D73-4669-9ED1-D11CA5CA027E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D15D5-4AB7-47C9-BB43-4FE9D280724D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>резерв</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>10 (100%)</t>
+  </si>
+  <si>
+    <t>11 (100%)</t>
+  </si>
+  <si>
+    <t>12 (100%)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,6 +768,12 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,10 +795,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1144,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,70 +1173,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="53" t="s">
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="54"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1331,10 +1349,10 @@
       <c r="B5" s="5">
         <v>43884</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>43911</v>
       </c>
       <c r="E5" s="9">
@@ -1378,14 +1396,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>43940</v>
       </c>
       <c r="E6" s="9">
@@ -1470,10 +1488,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1494,10 +1512,10 @@
       <c r="N8" s="4">
         <v>43906</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="8">
         <v>43940</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="49"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -1613,10 +1631,10 @@
         <v>4</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="M13" s="9">
-        <v>11</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="M13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="10"/>
@@ -1637,10 +1655,10 @@
         <v>23</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="M14" s="9">
-        <v>12</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="M14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="10"/>
@@ -1689,10 +1707,10 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="49"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
@@ -1755,10 +1773,10 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="49"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
@@ -1789,10 +1807,10 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="56"/>
+      <c r="B24" s="49"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
@@ -1811,10 +1829,10 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1835,40 +1853,35 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="51"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="58">
         <v>43941</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
@@ -1884,6 +1897,11 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1923,46 +1941,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D15D5-4AB7-47C9-BB43-4FE9D280724D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9487960-D935-4B17-886F-75EEB031DCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -768,37 +768,37 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,10 +1233,10 @@
       <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1396,10 +1396,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1499,10 +1499,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <v>6</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="4">
         <v>43940</v>
       </c>
       <c r="J8" s="10"/>
@@ -1594,10 +1594,10 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="58"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -1707,10 +1707,10 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
@@ -1773,10 +1773,10 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="58"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
@@ -1807,10 +1807,10 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="58"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
@@ -1867,10 +1867,10 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="49">
         <v>43941</v>
       </c>
     </row>
@@ -1882,6 +1882,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
@@ -1898,10 +1902,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9487960-D935-4B17-886F-75EEB031DCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>резерв</t>
   </si>
@@ -374,15 +368,18 @@
   <si>
     <t>12 (100%)</t>
   </si>
+  <si>
+    <t>7 (95%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,31 +771,31 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,26 +892,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,23 +927,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1139,17 +1102,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1167,12 +1130,12 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="46" customWidth="1"/>
-    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
+    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75">
       <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1157,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="53" t="s">
         <v>38</v>
       </c>
@@ -1232,11 +1195,11 @@
       </c>
       <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1289,7 +1252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -1342,7 +1305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="38" t="s">
         <v>55</v>
       </c>
@@ -1367,10 +1330,10 @@
       <c r="H5" s="4">
         <v>43919</v>
       </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="9">
@@ -1395,11 +1358,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1406,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="39" t="s">
         <v>56</v>
       </c>
@@ -1487,11 +1450,11 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1519,7 +1482,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="37" t="s">
         <v>57</v>
       </c>
@@ -1528,10 +1491,10 @@
       </c>
       <c r="D9" s="10"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="9">
+      <c r="G9" s="3">
         <v>7</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="4">
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1547,7 +1510,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="37" t="s">
         <v>58</v>
       </c>
@@ -1570,7 +1533,7 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="39" t="s">
         <v>59</v>
       </c>
@@ -1593,11 +1556,11 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="51"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9">
@@ -1615,7 +1578,7 @@
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="37" t="s">
         <v>60</v>
       </c>
@@ -1639,7 +1602,7 @@
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="37" t="s">
         <v>61</v>
       </c>
@@ -1663,7 +1626,7 @@
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="40" t="s">
         <v>62</v>
       </c>
@@ -1687,7 +1650,7 @@
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="39" t="s">
         <v>63</v>
       </c>
@@ -1706,11 +1669,11 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="51"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
@@ -1723,7 +1686,7 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="37" t="s">
         <v>64</v>
       </c>
@@ -1741,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="37" t="s">
         <v>65</v>
       </c>
@@ -1759,7 +1722,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="39" t="s">
         <v>66</v>
       </c>
@@ -1772,17 +1735,17 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="51"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="47" t="s">
         <v>67</v>
       </c>
@@ -1794,7 +1757,7 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="39" t="s">
         <v>68</v>
       </c>
@@ -1806,17 +1769,17 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="47" t="s">
         <v>69</v>
       </c>
@@ -1828,14 +1791,14 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="58"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="37" t="s">
         <v>70</v>
       </c>
@@ -1844,7 +1807,7 @@
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="37" t="s">
         <v>71</v>
       </c>
@@ -1852,13 +1815,13 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="51"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="37" t="s">
         <v>72</v>
       </c>
@@ -1866,7 +1829,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="48" t="s">
         <v>73</v>
       </c>
@@ -1874,11 +1837,11 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1887,6 +1850,11 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -1894,14 +1862,9 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1909,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -1917,7 +1880,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -1937,10 +1900,10 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1925,7 @@
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="53"/>
       <c r="B2" s="54"/>
       <c r="C2" s="53"/>
@@ -1982,7 +1945,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -2002,7 +1965,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -2022,7 +1985,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -2042,7 +2005,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2062,7 +2025,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2082,7 +2045,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2102,7 +2065,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2122,7 +2085,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2142,7 +2105,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2162,7 +2125,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2182,7 +2145,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2202,7 +2165,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2222,7 +2185,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2242,7 +2205,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2262,7 +2225,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2282,7 +2245,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2302,7 +2265,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2310,7 +2273,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2318,45 +2281,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC22DA-BB98-493A-9489-670B96964923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>резерв</t>
   </si>
@@ -48,9 +54,6 @@
   </si>
   <si>
     <t>итог</t>
-  </si>
-  <si>
-    <t>итог 2 (?)</t>
   </si>
   <si>
     <t>4, 5</t>
@@ -371,15 +374,21 @@
   <si>
     <t>7 (95%)</t>
   </si>
+  <si>
+    <t>3 (95%)</t>
+  </si>
+  <si>
+    <t>итог 2 (98%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +786,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,12 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,9 +901,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,6 +953,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1102,17 +1145,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="41" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1130,74 +1173,74 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
-    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="46" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55" t="s">
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="50" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="12">
@@ -1219,25 +1262,25 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="4">
         <v>43889</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="4">
         <v>43878</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="4">
         <v>43891</v>
@@ -1249,12 +1292,12 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1278,36 +1321,36 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="4">
         <v>43931</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="4">
         <v>43878</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" s="4">
         <v>43898</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1331,40 +1374,40 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
-      <c r="K5" s="9">
-        <v>3</v>
-      </c>
-      <c r="L5" s="17">
+      <c r="K5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="4">
         <v>43951</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="4">
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4">
         <v>43940</v>
@@ -1391,24 +1434,24 @@
         <v>10</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="4">
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1417,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>10</v>
@@ -1438,28 +1481,28 @@
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="3">
@@ -1470,7 +1513,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
@@ -1482,9 +1525,9 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
@@ -1498,21 +1541,21 @@
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="10">
+      <c r="O9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="4">
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
@@ -1523,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
@@ -1546,19 +1589,19 @@
         <v>9</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="51"/>
       <c r="D12" s="10"/>
@@ -1567,20 +1610,20 @@
         <v>10</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="15"/>
       <c r="M12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
@@ -1595,16 +1638,16 @@
       </c>
       <c r="J13" s="15"/>
       <c r="M13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
@@ -1612,23 +1655,23 @@
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="15"/>
       <c r="M14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
@@ -1639,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="15"/>
       <c r="M15" s="9">
@@ -1650,9 +1693,9 @@
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
@@ -1669,9 +1712,9 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="51"/>
       <c r="D17" s="10"/>
@@ -1686,9 +1729,9 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
@@ -1704,9 +1747,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
@@ -1722,9 +1765,9 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
@@ -1735,9 +1778,9 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="51"/>
       <c r="D21" s="10"/>
@@ -1745,9 +1788,9 @@
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="42">
         <v>43926</v>
@@ -1757,9 +1800,9 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
@@ -1769,9 +1812,9 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="51"/>
       <c r="D24" s="10"/>
@@ -1779,9 +1822,9 @@
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="42">
         <v>43933</v>
@@ -1791,67 +1834,60 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="58"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="53"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="58"/>
-    </row>
-    <row r="30" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="53"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="49">
         <v>43941</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="58"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
@@ -1865,6 +1901,13 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1872,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -1880,7 +1923,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -1900,52 +1943,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5703125" style="1"/>
+    <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -1965,7 +2008,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -1985,7 +2028,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -2005,7 +2048,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2025,7 +2068,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2045,7 +2088,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2065,7 +2108,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2085,7 +2128,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2105,7 +2148,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2125,7 +2168,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2145,7 +2188,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2165,7 +2208,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2185,7 +2228,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2205,7 +2248,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2225,7 +2268,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2245,7 +2288,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2265,7 +2308,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2273,7 +2316,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2281,45 +2324,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC22DA-BB98-493A-9489-670B96964923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA0486-27B1-4BFA-BE4E-1B19FEE83CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>лаба (?)</t>
-  </si>
-  <si>
-    <t>(?)</t>
   </si>
   <si>
     <t>Эл. Ф-ра и спорт</t>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>итог 2 (98%)</t>
+  </si>
+  <si>
+    <t>13 (100%)</t>
   </si>
 </sst>
 </file>
@@ -786,25 +786,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M15" sqref="M13:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,68 +1179,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="58"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="12">
@@ -1262,7 +1262,7 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
@@ -1292,12 +1292,12 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1321,7 +1321,7 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
@@ -1345,12 +1345,12 @@
         <v>43898</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1374,13 +1374,13 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="4">
         <v>43951</v>
@@ -1392,18 +1392,18 @@
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
@@ -1433,8 +1433,8 @@
       <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>24</v>
+      <c r="L6" s="17">
+        <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>18</v>
@@ -1443,7 +1443,7 @@
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>10</v>
@@ -1481,13 +1481,13 @@
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
@@ -1495,14 +1495,14 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="3">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
@@ -1541,13 +1541,13 @@
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="4">
         <v>43951</v>
@@ -1555,21 +1555,21 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
       </c>
       <c r="D10" s="10"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="9">
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
@@ -1592,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="51"/>
       <c r="D12" s="10"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J12" s="15"/>
       <c r="M12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="J13" s="15"/>
       <c r="M13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="J14" s="15"/>
       <c r="M14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
@@ -1685,17 +1685,17 @@
         <v>22</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="M15" s="9">
-        <v>13</v>
-      </c>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="51"/>
       <c r="D17" s="10"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="51"/>
       <c r="D21" s="10"/>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="42">
         <v>43926</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="51"/>
       <c r="D24" s="10"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="42">
         <v>43933</v>
@@ -1835,15 +1835,15 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="53"/>
+      <c r="A26" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="58"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
@@ -1852,21 +1852,21 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="53"/>
+      <c r="A29" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="58"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
@@ -1874,20 +1874,27 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="49">
         <v>43941</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="53"/>
+      <c r="A32" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
@@ -1901,13 +1908,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1947,46 +1947,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA0486-27B1-4BFA-BE4E-1B19FEE83CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>резерв</t>
   </si>
@@ -273,12 +267,6 @@
     <t>16 - 22 мар</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>9 (100%)</t>
   </si>
   <si>
@@ -379,16 +367,52 @@
   </si>
   <si>
     <t>13 (100%)</t>
+  </si>
+  <si>
+    <t>13 - 19 апр</t>
+  </si>
+  <si>
+    <t>21) Разбор арифметических выражений</t>
+  </si>
+  <si>
+    <t>22) Ханойская башня</t>
+  </si>
+  <si>
+    <t>20 - 26 апр</t>
+  </si>
+  <si>
+    <t>8 мая</t>
+  </si>
+  <si>
+    <t>23) Игра 2048 (доп)</t>
+  </si>
+  <si>
+    <t>27 апр - 3 мая</t>
+  </si>
+  <si>
+    <t>24) Индексированный поиск файлов</t>
+  </si>
+  <si>
+    <t>4 - 10 мая</t>
+  </si>
+  <si>
+    <t>25) Работа со строками</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>26 мая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +496,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -631,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,6 +818,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,10 +839,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,26 +939,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1145,17 +1149,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M13:N15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1173,72 +1177,72 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="46" customWidth="1"/>
-    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
+    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55" t="s">
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="50" t="s">
         <v>25</v>
       </c>
@@ -1292,12 +1296,12 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1345,12 +1349,12 @@
         <v>43898</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1374,13 +1378,13 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" s="4">
         <v>43951</v>
@@ -1398,10 +1402,10 @@
         <v>43911</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="50" t="s">
         <v>26</v>
       </c>
@@ -1449,9 +1453,9 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1460,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>10</v>
@@ -1493,16 +1497,16 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="9" t="s">
-        <v>46</v>
+      <c r="C8" s="9">
+        <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="3">
@@ -1525,14 +1529,19 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="3">
         <v>7</v>
@@ -1547,15 +1556,15 @@
         <v>43913</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P9" s="4">
         <v>43951</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
@@ -1576,9 +1585,9 @@
       </c>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
@@ -1592,14 +1601,14 @@
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="50" t="s">
         <v>28</v>
       </c>
@@ -1614,16 +1623,16 @@
       </c>
       <c r="J12" s="15"/>
       <c r="M12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
@@ -1638,16 +1647,16 @@
       </c>
       <c r="J13" s="15"/>
       <c r="M13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
@@ -1662,16 +1671,16 @@
       </c>
       <c r="J14" s="15"/>
       <c r="M14" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
@@ -1686,16 +1695,16 @@
       </c>
       <c r="J15" s="15"/>
       <c r="M15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
@@ -1712,7 +1721,7 @@
       </c>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="50" t="s">
         <v>29</v>
       </c>
@@ -1729,9 +1738,9 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
@@ -1747,9 +1756,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
@@ -1765,9 +1774,9 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
@@ -1778,7 +1787,7 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
@@ -1788,9 +1797,9 @@
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="42">
         <v>43926</v>
@@ -1800,9 +1809,9 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
@@ -1812,9 +1821,9 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="51"/>
       <c r="D24" s="10"/>
@@ -1822,9 +1831,9 @@
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="42">
         <v>43933</v>
@@ -1834,67 +1843,131 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="58"/>
+    <row r="26" spans="1:16">
+      <c r="A26" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="53"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="58"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
+      <c r="A29" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="53"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="49">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="58"/>
+        <v>69</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="53"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="53"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="16">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="53"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="16">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="60"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="24">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
@@ -1908,6 +1981,13 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1915,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -1923,7 +2003,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -1943,52 +2023,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.45">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.45">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -2008,7 +2088,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.45">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -2028,7 +2108,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.45">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -2048,7 +2128,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2068,7 +2148,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.45">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2088,7 +2168,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2108,7 +2188,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2128,7 +2208,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.45">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2148,7 +2228,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.45">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2168,7 +2248,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.45">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2188,7 +2268,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.45">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2208,7 +2288,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.45">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2228,7 +2308,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.45">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2248,7 +2328,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.45">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2268,7 +2348,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.45">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2288,7 +2368,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2308,7 +2388,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2316,7 +2396,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2324,45 +2404,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.45">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.45">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.45">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.45">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>резерв</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>26 мая</t>
+  </si>
+  <si>
+    <t>итог (97%)</t>
+  </si>
+  <si>
+    <t>14 (100%)</t>
+  </si>
+  <si>
+    <t>15 (100%)</t>
+  </si>
+  <si>
+    <t>16 (100%)</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -663,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,43 +812,37 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,8 +1153,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1183,70 +1183,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1406,10 +1406,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1428,16 +1428,16 @@
       <c r="H6" s="4">
         <v>43926</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>8</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="4">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1498,10 +1498,10 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
@@ -1594,10 +1594,10 @@
       </c>
       <c r="D11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="9">
+      <c r="G11" s="3">
         <v>9</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1609,16 +1609,16 @@
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="58"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="9">
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="15"/>
@@ -1713,27 +1713,27 @@
       <c r="F16" s="10"/>
       <c r="H16" s="10"/>
       <c r="J16" s="15"/>
-      <c r="M16" s="9">
-        <v>14</v>
-      </c>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="58"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
       <c r="J17" s="15"/>
-      <c r="M17" s="9">
-        <v>15</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="M17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="10"/>
@@ -1749,10 +1749,10 @@
       <c r="F18" s="10"/>
       <c r="H18" s="10"/>
       <c r="J18" s="15"/>
-      <c r="M18" s="9">
-        <v>16</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="M18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1788,10 +1788,10 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="58"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
@@ -1822,10 +1822,10 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
@@ -1844,10 +1844,10 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:16">
@@ -1868,10 +1868,10 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="37" t="s">
@@ -1882,24 +1882,24 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1912,52 +1912,52 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="16">
-        <v>43983</v>
+      <c r="B38" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="16">
-        <v>43984</v>
+      <c r="B40" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="56"/>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="16"/>
@@ -1971,6 +1971,13 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -1981,13 +1988,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2027,48 +2027,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-    </row>
-    <row r="2" spans="1:18" ht="14.45">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.45">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -2088,7 +2088,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:18" ht="14.45">
+    <row r="4" spans="1:18">
       <c r="A4" s="22"/>
       <c r="B4" s="16"/>
       <c r="C4" s="33"/>
@@ -2108,7 +2108,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="1:18" ht="14.45">
+    <row r="5" spans="1:18">
       <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="34"/>
@@ -2128,7 +2128,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45">
+    <row r="6" spans="1:18">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2148,7 +2148,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:18" ht="14.45">
+    <row r="7" spans="1:18">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="34"/>
@@ -2168,7 +2168,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45">
+    <row r="8" spans="1:18">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="34"/>
@@ -2188,7 +2188,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" ht="14.45">
+    <row r="9" spans="1:18">
       <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="34"/>
@@ -2208,7 +2208,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:18" ht="14.45">
+    <row r="10" spans="1:18">
       <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="34"/>
@@ -2228,7 +2228,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:18" ht="14.45">
+    <row r="11" spans="1:18">
       <c r="A11" s="22"/>
       <c r="B11" s="16"/>
       <c r="C11" s="34"/>
@@ -2248,7 +2248,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:18" ht="14.45">
+    <row r="12" spans="1:18">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
       <c r="C12" s="34"/>
@@ -2268,7 +2268,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:18" ht="14.45">
+    <row r="13" spans="1:18">
       <c r="A13" s="22"/>
       <c r="B13" s="16"/>
       <c r="C13" s="34"/>
@@ -2288,7 +2288,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:18" ht="14.45">
+    <row r="14" spans="1:18">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="34"/>
@@ -2308,7 +2308,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18" ht="14.45">
+    <row r="15" spans="1:18">
       <c r="A15" s="22"/>
       <c r="B15" s="16"/>
       <c r="C15" s="34"/>
@@ -2328,7 +2328,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" ht="14.45">
+    <row r="16" spans="1:18">
       <c r="A16" s="22"/>
       <c r="B16" s="16"/>
       <c r="C16" s="34"/>
@@ -2348,7 +2348,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" ht="14.45">
+    <row r="17" spans="1:18">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="34"/>
@@ -2368,7 +2368,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" ht="14.45">
+    <row r="18" spans="1:18">
       <c r="A18" s="22"/>
       <c r="B18" s="16"/>
       <c r="C18" s="34"/>
@@ -2388,7 +2388,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" ht="14.45">
+    <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2396,7 +2396,7 @@
       <c r="J19" s="15"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="14.45">
+    <row r="20" spans="1:18">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2404,45 +2404,45 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="14.45">
+    <row r="21" spans="1:18">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="14.45">
+    <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="14.45">
+    <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="14.45">
+    <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="14.45">
+    <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:18" ht="14.45">
+    <row r="26" spans="1:18">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:18" ht="14.45">
+    <row r="27" spans="1:18">
       <c r="J27" s="15"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -23,9 +23,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>реферат</t>
-  </si>
-  <si>
     <t>I  I    с  е  м  е  с  т  р</t>
   </si>
   <si>
@@ -416,6 +413,34 @@
   <si>
     <t>16 (100%)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Реферат. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Тема: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Утомление при физической и умственной работе: компенсированное, некомпенсированное, острое, хроническое."</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +541,15 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -669,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,12 +762,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,6 +840,24 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,23 +873,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,13 +1196,13 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="39" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1175,78 +1218,78 @@
     <col min="14" max="14" width="10" style="11" customWidth="1"/>
     <col min="15" max="15" width="10" style="9" customWidth="1"/>
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10" style="9" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="46" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="44" customWidth="1"/>
     <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
     <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="51" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="51" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="51" t="s">
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="56"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="52"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1266,42 +1309,42 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="4">
         <v>43889</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4">
         <v>43878</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="45" t="s">
-        <v>70</v>
+      <c r="S3" s="43" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="37" t="s">
-        <v>50</v>
+      <c r="A4" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1325,36 +1368,38 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="4">
         <v>43931</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" s="4">
         <v>43878</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="S4" s="44" t="s">
-        <v>71</v>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="38" t="s">
-        <v>51</v>
+      <c r="A5" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1378,40 +1423,42 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="4">
         <v>43951</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" s="4">
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="S5" s="43" t="s">
-        <v>72</v>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="58"/>
+      <c r="A6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>43940</v>
@@ -1432,30 +1479,32 @@
         <v>8</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" s="4">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="4">
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
       </c>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="39" t="s">
-        <v>52</v>
+      <c r="A7" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1464,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>1</v>
@@ -1482,31 +1531,33 @@
         <v>0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
       </c>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="58"/>
+      <c r="A8" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="51"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="3">
@@ -1517,30 +1568,32 @@
       </c>
       <c r="J8" s="10"/>
       <c r="M8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="8">
         <v>43940</v>
       </c>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="37" t="s">
-        <v>53</v>
+      <c r="A9" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="3">
@@ -1550,21 +1603,23 @@
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="37" t="s">
-        <v>78</v>
+      <c r="O9" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="P9" s="4">
         <v>43951</v>
       </c>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="37" t="s">
-        <v>54</v>
+      <c r="A10" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
@@ -1575,19 +1630,21 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
       </c>
       <c r="P10" s="10"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="39" t="s">
-        <v>55</v>
+      <c r="A11" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
@@ -1598,65 +1655,71 @@
         <v>9</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
       <c r="P11" s="10"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="58"/>
+      <c r="A12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="15"/>
       <c r="M12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="10"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="37" t="s">
-        <v>56</v>
+      <c r="A13" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="9">
+      <c r="G13" s="3">
         <v>11</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>4</v>
+      <c r="H13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="J13" s="15"/>
       <c r="M13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="10"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="37" t="s">
-        <v>57</v>
+      <c r="A14" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
@@ -1664,23 +1727,25 @@
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="15"/>
       <c r="M14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="10"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="40" t="s">
-        <v>58</v>
+      <c r="A15" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
@@ -1688,23 +1753,25 @@
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="15"/>
       <c r="M15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P15" s="10"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="39" t="s">
-        <v>59</v>
+      <c r="A16" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
@@ -1714,33 +1781,35 @@
       <c r="H16" s="10"/>
       <c r="J16" s="15"/>
       <c r="M16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="58"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="51"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
       <c r="H17" s="10"/>
       <c r="J17" s="15"/>
       <c r="M17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="37" t="s">
-        <v>60</v>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
@@ -1750,15 +1819,15 @@
       <c r="H18" s="10"/>
       <c r="J18" s="15"/>
       <c r="M18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="37" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
@@ -1768,15 +1837,15 @@
       <c r="H19" s="10"/>
       <c r="J19" s="15"/>
       <c r="M19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="10">
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="39" t="s">
-        <v>62</v>
+    <row r="20" spans="1:17">
+      <c r="A20" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
@@ -1787,21 +1856,21 @@
       <c r="J20" s="15"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="58"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="51"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="42">
+    <row r="22" spans="1:17">
+      <c r="A22" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="40">
         <v>43926</v>
       </c>
       <c r="D22" s="10"/>
@@ -1809,9 +1878,9 @@
       <c r="H22" s="10"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="39" t="s">
-        <v>64</v>
+    <row r="23" spans="1:17">
+      <c r="A23" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
@@ -1821,21 +1890,21 @@
       <c r="H23" s="10"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="58"/>
+    <row r="24" spans="1:17">
+      <c r="A24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="51"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="42">
+    <row r="25" spans="1:17">
+      <c r="A25" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="40">
         <v>43933</v>
       </c>
       <c r="D25" s="10"/>
@@ -1843,127 +1912,139 @@
       <c r="H25" s="10"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="54"/>
+    <row r="26" spans="1:17">
+      <c r="A26" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="47"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="37" t="s">
-        <v>66</v>
+    <row r="27" spans="1:17">
+      <c r="A27" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="37" t="s">
-        <v>67</v>
+    <row r="28" spans="1:17">
+      <c r="A28" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="54"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="37" t="s">
-        <v>68</v>
+    <row r="29" spans="1:17">
+      <c r="A29" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="47"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="37" t="s">
-        <v>69</v>
+    <row r="31" spans="1:17">
+      <c r="A31" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="47"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="54"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="37" t="s">
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="37" t="s">
-        <v>82</v>
       </c>
       <c r="B34" s="4">
         <v>43947</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="47"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="54"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="40" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="53" t="s">
+      <c r="B37" s="47"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="54"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="41" t="s">
+      <c r="B38" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="53" t="s">
+      <c r="B39" s="47"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="54"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="41" t="s">
+      <c r="B40" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="49"/>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A39:B39"/>
@@ -1978,16 +2059,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2027,366 +2098,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="A1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="22"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="33"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="22"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="16"/>
-      <c r="O4" s="22"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="16"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="22"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="34"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="22"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="26"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="22"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="22"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="22"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="26"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="22"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="22"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="22"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="22"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="22"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="26"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="22"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="22"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="22"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="26"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="22"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="26"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="22"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="26"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="22"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="26"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="22"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="26"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="22"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="26"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="26"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="24"/>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" s="10"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>резерв</t>
   </si>
@@ -441,6 +441,12 @@
       <t>"Утомление при физической и умственной работе: компенсированное, некомпенсированное, острое, хроническое."</t>
     </r>
   </si>
+  <si>
+    <t>11 - 17 мая</t>
+  </si>
+  <si>
+    <t>26) Задача: Обработка строк (тест)</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,14 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,8 +590,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -698,12 +702,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,22 +770,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,53 +854,101 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,102 +1256,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10" style="11" customWidth="1"/>
-    <col min="15" max="15" width="10" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10" style="11" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10" style="56" customWidth="1"/>
+    <col min="6" max="6" width="10" style="58" customWidth="1"/>
+    <col min="7" max="7" width="10" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10" style="58" customWidth="1"/>
+    <col min="9" max="9" width="10" style="56" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="11" width="10" style="56" customWidth="1"/>
+    <col min="12" max="12" width="10" style="58" customWidth="1"/>
+    <col min="13" max="13" width="10" style="56" customWidth="1"/>
+    <col min="14" max="14" width="10" style="58" customWidth="1"/>
+    <col min="15" max="15" width="10" style="56" customWidth="1"/>
+    <col min="16" max="16" width="10" style="58" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="56" customWidth="1"/>
+    <col min="18" max="18" width="10" style="58" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="40" customWidth="1"/>
     <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
     <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55" t="s">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="56"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1332,18 +1395,18 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="4">
@@ -1391,14 +1454,14 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="42" t="s">
+      <c r="Q4" s="43"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="5">
@@ -1446,17 +1509,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="41" t="s">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1475,16 +1538,16 @@
       <c r="H6" s="4">
         <v>43926</v>
       </c>
-      <c r="I6" s="3">
-        <v>8</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="66">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1499,26 +1562,26 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="57"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="37" t="s">
+      <c r="Q6" s="43"/>
+      <c r="R6" s="45"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="72" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1527,10 +1590,10 @@
       <c r="H7" s="4">
         <v>43933</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="70" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1545,28 +1608,28 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="57"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="50" t="s">
+      <c r="Q7" s="43"/>
+      <c r="R7" s="45"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="3">
         <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>43940</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="57"/>
       <c r="M8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1579,11 +1642,11 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="57"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="35" t="s">
+      <c r="Q8" s="43"/>
+      <c r="R8" s="45"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="4">
@@ -1595,7 +1658,7 @@
       <c r="D9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="3">
         <v>7</v>
       </c>
@@ -1608,24 +1671,24 @@
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="66">
         <v>43951</v>
       </c>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="57"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="35" t="s">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="45"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A10" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="3">
         <v>8</v>
       </c>
@@ -1638,19 +1701,19 @@
       <c r="N10" s="4">
         <v>43920</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="45"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <v>9</v>
       </c>
@@ -1663,161 +1726,161 @@
       <c r="N11" s="4">
         <v>43927</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="45"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="54"/>
       <c r="D12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="61"/>
       <c r="M12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="3">
         <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="61"/>
       <c r="M13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="61"/>
       <c r="M14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="57"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="38" t="s">
+      <c r="P14" s="57"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A15" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="57"/>
+      <c r="G15" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="61"/>
       <c r="M15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="57"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="37" t="s">
+      <c r="P15" s="57"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A16" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="J16" s="15"/>
+      <c r="F16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="J16" s="61"/>
       <c r="M16" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="61"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="D17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="J17" s="61"/>
       <c r="M17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="61"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="J18" s="15"/>
+      <c r="F18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="J18" s="61"/>
       <c r="M18" s="3" t="s">
         <v>94</v>
       </c>
@@ -1825,111 +1888,111 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A19" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="15"/>
-      <c r="M19" s="9" t="s">
+      <c r="F19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="J19" s="61"/>
+      <c r="M19" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="67">
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A20" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="15"/>
-      <c r="N20" s="10"/>
+      <c r="F20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="J20" s="61"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="J21" s="15"/>
+      <c r="F21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="36">
         <v>43926</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="15"/>
+      <c r="F22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="15"/>
+      <c r="F23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="54"/>
       <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="15"/>
+      <c r="F24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="36">
         <v>43933</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="15"/>
+      <c r="F25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="J26" s="15"/>
+      <c r="B26" s="52"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="4">
@@ -1937,13 +2000,13 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="52"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="4">
@@ -1951,7 +2014,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1959,13 +2022,13 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1973,7 +2036,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="4">
@@ -1981,13 +2044,13 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="52"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="34" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -1995,56 +2058,58 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="52"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="52"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="49"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="D42" s="16"/>
+      <c r="B43" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="27">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A39:B39"/>
@@ -2059,6 +2124,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2098,373 +2174,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="20"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="24"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="20"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="24"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="24"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="24"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="24"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="20"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="24"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="24"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="20"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="24"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="24"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="24"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="24"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="24"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="24"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="24"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="24"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="14"/>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:18">
@@ -2472,7 +2548,7 @@
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="14"/>
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:18">
@@ -2480,41 +2556,41 @@
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="J26" s="15"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="J27" s="15"/>
+      <c r="J27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FD650A-7AC7-46A4-BFA2-25A8B0C6F9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -451,11 +457,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,100 +860,97 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,9 +1047,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,6 +1099,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1254,105 +1291,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10" style="56" customWidth="1"/>
-    <col min="6" max="6" width="10" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10" style="56" customWidth="1"/>
-    <col min="8" max="8" width="10" style="58" customWidth="1"/>
-    <col min="9" max="9" width="10" style="56" customWidth="1"/>
-    <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="11" width="10" style="56" customWidth="1"/>
-    <col min="12" max="12" width="10" style="58" customWidth="1"/>
-    <col min="13" max="13" width="10" style="56" customWidth="1"/>
-    <col min="14" max="14" width="10" style="58" customWidth="1"/>
-    <col min="15" max="15" width="10" style="56" customWidth="1"/>
-    <col min="16" max="16" width="10" style="58" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="56" customWidth="1"/>
-    <col min="18" max="18" width="10" style="58" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="40" customWidth="1"/>
-    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10" style="45" customWidth="1"/>
+    <col min="7" max="7" width="10" style="43" customWidth="1"/>
+    <col min="8" max="8" width="10" style="45" customWidth="1"/>
+    <col min="9" max="9" width="10" style="43" customWidth="1"/>
+    <col min="10" max="10" width="10" style="45" customWidth="1"/>
+    <col min="11" max="11" width="10" style="43" customWidth="1"/>
+    <col min="12" max="12" width="10" style="45" customWidth="1"/>
+    <col min="13" max="13" width="10" style="43" customWidth="1"/>
+    <col min="14" max="14" width="10" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10" style="43" customWidth="1"/>
+    <col min="16" max="16" width="10" style="45" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="43" customWidth="1"/>
+    <col min="18" max="18" width="10" style="45" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="40" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="49" t="s">
+      <c r="L2" s="71"/>
+      <c r="M2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="49" t="s">
+      <c r="N2" s="71"/>
+      <c r="O2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="49" t="s">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="50"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1395,17 +1432,17 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="65" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>49</v>
       </c>
@@ -1454,13 +1491,13 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="45"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>50</v>
       </c>
@@ -1509,17 +1546,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="45"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1544,10 +1581,10 @@
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="50">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1562,10 +1599,10 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="45"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="66"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>51</v>
       </c>
@@ -1578,10 +1615,10 @@
       <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="56" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1590,10 +1627,10 @@
       <c r="H7" s="4">
         <v>43933</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="54" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1608,28 +1645,28 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A8" s="53" t="s">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="66"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="3">
         <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>43940</v>
       </c>
-      <c r="J8" s="57"/>
+      <c r="J8" s="44"/>
       <c r="M8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1642,10 +1679,10 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="45"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="66"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1695,7 @@
       <c r="D9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="3">
         <v>7</v>
       </c>
@@ -1671,16 +1708,16 @@
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="66">
+      <c r="P9" s="50">
         <v>43951</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1">
+      <c r="Q9" s="63"/>
+      <c r="R9" s="66"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>53</v>
       </c>
@@ -1688,7 +1725,7 @@
         <v>43898</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="61"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="3">
         <v>8</v>
       </c>
@@ -1701,11 +1738,11 @@
       <c r="N10" s="4">
         <v>43920</v>
       </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="66"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1750,7 @@
         <v>43912</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="3">
         <v>9</v>
       </c>
@@ -1726,35 +1763,35 @@
       <c r="N11" s="4">
         <v>43927</v>
       </c>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="53" t="s">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="66"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="61"/>
       <c r="D12" s="10"/>
-      <c r="F12" s="57"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="61"/>
+      <c r="J12" s="47"/>
       <c r="M12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="66"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>55</v>
       </c>
@@ -1762,25 +1799,25 @@
         <v>43912</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="F13" s="57"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="3">
         <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="61"/>
+      <c r="J13" s="47"/>
       <c r="M13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="P13" s="44"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="66"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>56</v>
       </c>
@@ -1788,25 +1825,25 @@
         <v>43912</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="61"/>
+      <c r="J14" s="47"/>
       <c r="M14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="66"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>57</v>
       </c>
@@ -1814,25 +1851,25 @@
         <v>43912</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="59" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="61"/>
+      <c r="J15" s="47"/>
       <c r="M15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="67"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>58</v>
       </c>
@@ -1840,37 +1877,37 @@
         <v>43916</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="F16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="J16" s="61"/>
+      <c r="F16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="J16" s="47"/>
       <c r="M16" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="53" t="s">
+      <c r="P16" s="44"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="61"/>
       <c r="D17" s="10"/>
-      <c r="F17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="J17" s="61"/>
+      <c r="F17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="J17" s="47"/>
       <c r="M17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17" s="44"/>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>59</v>
       </c>
@@ -1878,9 +1915,9 @@
         <v>43919</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="J18" s="61"/>
+      <c r="F18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="J18" s="47"/>
       <c r="M18" s="3" t="s">
         <v>94</v>
       </c>
@@ -1888,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>60</v>
       </c>
@@ -1896,17 +1933,17 @@
         <v>43919</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="F19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="J19" s="61"/>
-      <c r="M19" s="59" t="s">
+      <c r="F19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="J19" s="47"/>
+      <c r="M19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="51">
         <v>44009</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1">
+    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>61</v>
       </c>
@@ -1914,22 +1951,22 @@
         <v>43919</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="F20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="J20" s="61"/>
-      <c r="N20" s="57"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="53" t="s">
+      <c r="F20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="N20" s="44"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="61"/>
       <c r="D21" s="10"/>
-      <c r="F21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="F21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>62</v>
       </c>
@@ -1937,11 +1974,11 @@
         <v>43926</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="F22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="J22" s="61"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="F22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>63</v>
       </c>
@@ -1949,21 +1986,21 @@
         <v>43926</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="F23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="J23" s="61"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="53" t="s">
+      <c r="F23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="61"/>
       <c r="D24" s="10"/>
-      <c r="F24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="J24" s="61"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="F24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>64</v>
       </c>
@@ -1971,27 +2008,27 @@
         <v>43933</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="F25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="J25" s="61"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="51" t="s">
+      <c r="F25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="J26" s="61"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="B26" s="58"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
-      <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>66</v>
       </c>
@@ -1999,13 +2036,13 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="52"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B29" s="58"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>67</v>
       </c>
@@ -2013,7 +2050,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>68</v>
       </c>
@@ -2021,13 +2058,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="51" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="52"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="58"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>80</v>
       </c>
@@ -2035,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>81</v>
       </c>
@@ -2043,13 +2080,13 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="51" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="52"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" s="58"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>84</v>
       </c>
@@ -2057,13 +2094,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="51" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="52"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="58"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>86</v>
       </c>
@@ -2071,13 +2108,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="51" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="52"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" s="58"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>88</v>
       </c>
@@ -2085,29 +2122,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="51" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="52"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="58"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="51" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -2124,17 +2172,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2142,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -2150,7 +2187,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2170,52 +2207,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5703125" style="1"/>
+    <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -2235,7 +2272,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="15"/>
       <c r="C4" s="27"/>
@@ -2255,7 +2292,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="20"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="15"/>
       <c r="C5" s="28"/>
@@ -2275,7 +2312,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="28"/>
@@ -2295,7 +2332,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="20"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="28"/>
@@ -2315,7 +2352,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="20"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="28"/>
@@ -2335,7 +2372,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="28"/>
@@ -2355,7 +2392,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="20"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="28"/>
@@ -2375,7 +2412,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="28"/>
@@ -2395,7 +2432,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28"/>
@@ -2415,7 +2452,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="15"/>
       <c r="C13" s="28"/>
@@ -2435,7 +2472,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="28"/>
@@ -2455,7 +2492,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="28"/>
@@ -2475,7 +2512,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="28"/>
@@ -2495,7 +2532,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="28"/>
@@ -2515,7 +2552,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="C18" s="28"/>
@@ -2535,7 +2572,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2543,7 +2580,7 @@
       <c r="J19" s="14"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2551,45 +2588,45 @@
       <c r="J20" s="14"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J27" s="14"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FD650A-7AC7-46A4-BFA2-25A8B0C6F9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>резерв</t>
   </si>
@@ -87,9 +81,6 @@
   </si>
   <si>
     <t>31 мая</t>
-  </si>
-  <si>
-    <t>лаба (?)</t>
   </si>
   <si>
     <t>Эл. Ф-ра и спорт</t>
@@ -453,15 +444,18 @@
   <si>
     <t>26) Задача: Обработка строк (тест)</t>
   </si>
+  <si>
+    <t>28 мая</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,6 +899,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,6 +951,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,26 +1050,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,23 +1085,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1291,17 +1260,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1317,89 +1286,89 @@
     <col min="14" max="14" width="10" style="45" customWidth="1"/>
     <col min="15" max="15" width="10" style="43" customWidth="1"/>
     <col min="16" max="16" width="10" style="45" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="43" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="43" customWidth="1"/>
     <col min="18" max="18" width="10" style="45" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="40" customWidth="1"/>
-    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="40" customWidth="1"/>
+    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="68" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="70" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="70" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="70" t="s">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="73"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="71"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>43881</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="75" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
@@ -1409,7 +1378,7 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
@@ -1432,19 +1401,19 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="65" t="s">
+      <c r="Q3" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="67" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1468,7 +1437,7 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
@@ -1491,15 +1460,15 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1523,13 +1492,13 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="4">
         <v>43951</v>
@@ -1541,22 +1510,22 @@
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="68"/>
       <c r="S5" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="61"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="63"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1576,13 +1545,13 @@
         <v>43926</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="50">
         <v>43966</v>
@@ -1594,17 +1563,17 @@
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="66"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1613,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>9</v>
@@ -1634,29 +1603,29 @@
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="66"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="9">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="68"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A8" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="47"/>
@@ -1668,7 +1637,7 @@
       </c>
       <c r="J8" s="44"/>
       <c r="M8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
@@ -1679,21 +1648,21 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="66"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="65"/>
+      <c r="R8" s="68"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="3">
@@ -1703,23 +1672,23 @@
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P9" s="50">
         <v>43951</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="65"/>
+      <c r="R9" s="68"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1">
       <c r="A10" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
@@ -1733,18 +1702,18 @@
         <v>18</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
       </c>
       <c r="P10" s="44"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="66"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="65"/>
+      <c r="R10" s="68"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
@@ -1758,20 +1727,20 @@
         <v>19</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
       <c r="P11" s="44"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="66"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="61"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="68"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="63"/>
       <c r="D12" s="10"/>
       <c r="F12" s="44"/>
       <c r="G12" s="3">
@@ -1782,18 +1751,18 @@
       </c>
       <c r="J12" s="47"/>
       <c r="M12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="44"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="65"/>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
@@ -1808,70 +1777,66 @@
       </c>
       <c r="J13" s="47"/>
       <c r="M13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="44"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="65"/>
+      <c r="R13" s="68"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="47"/>
       <c r="M14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="44"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="66"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="65"/>
+      <c r="R14" s="68"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>21</v>
-      </c>
+      <c r="F15" s="57"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="47"/>
       <c r="M15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P15" s="44"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="67"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="69"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickTop="1">
       <c r="A16" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
@@ -1881,7 +1846,7 @@
       <c r="H16" s="44"/>
       <c r="J16" s="47"/>
       <c r="M16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
@@ -1889,17 +1854,17 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="48"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="61"/>
+    <row r="17" spans="1:17">
+      <c r="A17" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="63"/>
       <c r="D17" s="10"/>
       <c r="F17" s="44"/>
       <c r="H17" s="44"/>
       <c r="J17" s="47"/>
       <c r="M17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
@@ -1907,9 +1872,9 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="48"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
@@ -1919,15 +1884,15 @@
       <c r="H18" s="44"/>
       <c r="J18" s="47"/>
       <c r="M18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="A19" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
@@ -1939,13 +1904,13 @@
       <c r="M19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="51">
-        <v>44009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickTop="1">
       <c r="A20" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
@@ -1956,19 +1921,19 @@
       <c r="J20" s="47"/>
       <c r="N20" s="44"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="61"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="63"/>
       <c r="D21" s="10"/>
       <c r="F21" s="44"/>
       <c r="H21" s="44"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="36">
         <v>43926</v>
@@ -1978,9 +1943,9 @@
       <c r="H22" s="44"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
@@ -1990,19 +1955,19 @@
       <c r="H23" s="44"/>
       <c r="J23" s="47"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="61"/>
+    <row r="24" spans="1:17">
+      <c r="A24" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="63"/>
       <c r="D24" s="10"/>
       <c r="F24" s="44"/>
       <c r="H24" s="44"/>
       <c r="J24" s="47"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="36">
         <v>43933</v>
@@ -2012,136 +1977,136 @@
       <c r="H25" s="44"/>
       <c r="J25" s="47"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="58"/>
+    <row r="26" spans="1:17">
+      <c r="A26" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="60"/>
       <c r="J26" s="47"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
       <c r="J27" s="47"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="58"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
+      <c r="A29" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="60"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="60"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="58"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4">
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="60"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="58"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
+      <c r="B37" s="60"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" s="58"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="60"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="58"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="60"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="B41" s="58"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="B42" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="58"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2179,7 +2144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -2187,7 +2152,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2207,52 +2172,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="71"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -2272,7 +2237,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="16"/>
       <c r="B4" s="15"/>
       <c r="C4" s="27"/>
@@ -2292,7 +2257,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="20"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="16"/>
       <c r="B5" s="15"/>
       <c r="C5" s="28"/>
@@ -2312,7 +2277,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="28"/>
@@ -2332,7 +2297,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="20"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="28"/>
@@ -2352,7 +2317,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="20"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="28"/>
@@ -2372,7 +2337,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="28"/>
@@ -2392,7 +2357,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="20"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="28"/>
@@ -2412,7 +2377,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="28"/>
@@ -2432,7 +2397,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28"/>
@@ -2452,7 +2417,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="20"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="16"/>
       <c r="B13" s="15"/>
       <c r="C13" s="28"/>
@@ -2472,7 +2437,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="20"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="28"/>
@@ -2492,7 +2457,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="20"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="28"/>
@@ -2512,7 +2477,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="28"/>
@@ -2532,7 +2497,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="28"/>
@@ -2552,7 +2517,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="C18" s="28"/>
@@ -2572,7 +2537,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2580,7 +2545,7 @@
       <c r="J19" s="14"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2588,45 +2553,45 @@
       <c r="J20" s="14"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="J27" s="14"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9CA4F-5199-4103-92B3-579C27FAD0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>резерв</t>
   </si>
@@ -447,15 +453,18 @@
   <si>
     <t>28 мая</t>
   </si>
+  <si>
+    <t>итог (80%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,9 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,9 +887,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,19 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,10 +941,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,9 +1053,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,6 +1105,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1260,17 +1297,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1286,79 +1323,79 @@
     <col min="14" max="14" width="10" style="45" customWidth="1"/>
     <col min="15" max="15" width="10" style="43" customWidth="1"/>
     <col min="16" max="16" width="10" style="45" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="43" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="43" customWidth="1"/>
     <col min="18" max="18" width="10" style="45" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="40" customWidth="1"/>
-    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="40" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="70" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="72" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="72" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="72" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="72" t="s">
+      <c r="P2" s="67"/>
+      <c r="Q2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="73"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1368,7 +1405,7 @@
       <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
@@ -1401,17 +1438,17 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="67" t="s">
+      <c r="R3" s="61" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>48</v>
       </c>
@@ -1460,13 +1497,13 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="68"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="62"/>
       <c r="S4" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>49</v>
       </c>
@@ -1515,17 +1552,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="68"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1550,10 +1587,10 @@
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="49">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1568,10 +1605,10 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="68"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>50</v>
       </c>
@@ -1584,10 +1621,10 @@
       <c r="D7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1596,10 +1633,10 @@
       <c r="H7" s="4">
         <v>43933</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="52" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1614,21 +1651,21 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="68"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A8" s="62" t="s">
+      <c r="Q7" s="59"/>
+      <c r="R7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="3">
         <v>6</v>
       </c>
@@ -1648,10 +1685,10 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="68"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>51</v>
       </c>
@@ -1664,7 +1701,7 @@
       <c r="D9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="3">
         <v>7</v>
       </c>
@@ -1677,16 +1714,16 @@
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="49">
         <v>43951</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="68"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>52</v>
       </c>
@@ -1694,7 +1731,7 @@
         <v>43898</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="3">
         <v>8</v>
       </c>
@@ -1708,10 +1745,10 @@
         <v>43920</v>
       </c>
       <c r="P10" s="44"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="68"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="62"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>53</v>
       </c>
@@ -1733,14 +1770,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="44"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="68"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="62" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="62"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="72"/>
       <c r="D12" s="10"/>
       <c r="F12" s="44"/>
       <c r="G12" s="3">
@@ -1749,7 +1786,7 @@
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="46"/>
       <c r="M12" s="3" t="s">
         <v>71</v>
       </c>
@@ -1757,10 +1794,10 @@
         <v>43934</v>
       </c>
       <c r="P12" s="44"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="Q12" s="59"/>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
@@ -1775,7 +1812,7 @@
       <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="46"/>
       <c r="M13" s="3" t="s">
         <v>72</v>
       </c>
@@ -1783,10 +1820,10 @@
         <v>43941</v>
       </c>
       <c r="P13" s="44"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q13" s="59"/>
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
@@ -1795,13 +1832,13 @@
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="46"/>
       <c r="M14" s="3" t="s">
         <v>73</v>
       </c>
@@ -1809,10 +1846,10 @@
         <v>43948</v>
       </c>
       <c r="P14" s="44"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q14" s="59"/>
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>56</v>
       </c>
@@ -1820,10 +1857,10 @@
         <v>43912</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="55"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="46"/>
       <c r="M15" s="3" t="s">
         <v>77</v>
       </c>
@@ -1831,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="P15" s="44"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="69"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1">
+      <c r="Q15" s="60"/>
+      <c r="R15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>57</v>
       </c>
@@ -1844,7 +1881,7 @@
       <c r="D16" s="10"/>
       <c r="F16" s="44"/>
       <c r="H16" s="44"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="46"/>
       <c r="M16" s="3" t="s">
         <v>91</v>
       </c>
@@ -1852,17 +1889,17 @@
         <v>6</v>
       </c>
       <c r="P16" s="44"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="62" t="s">
+      <c r="Q16" s="47"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="72"/>
       <c r="D17" s="10"/>
       <c r="F17" s="44"/>
       <c r="H17" s="44"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="46"/>
       <c r="M17" s="3" t="s">
         <v>92</v>
       </c>
@@ -1870,9 +1907,9 @@
         <v>7</v>
       </c>
       <c r="P17" s="44"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="Q17" s="47"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>58</v>
       </c>
@@ -1882,7 +1919,7 @@
       <c r="D18" s="10"/>
       <c r="F18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="J18" s="47"/>
+      <c r="J18" s="46"/>
       <c r="M18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1890,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>59</v>
       </c>
@@ -1900,15 +1937,15 @@
       <c r="D19" s="10"/>
       <c r="F19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="J19" s="47"/>
-      <c r="M19" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="51" t="s">
+      <c r="J19" s="46"/>
+      <c r="M19" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1">
+    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>60</v>
       </c>
@@ -1918,20 +1955,20 @@
       <c r="D20" s="10"/>
       <c r="F20" s="44"/>
       <c r="H20" s="44"/>
-      <c r="J20" s="47"/>
+      <c r="J20" s="46"/>
       <c r="N20" s="44"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="72"/>
       <c r="D21" s="10"/>
       <c r="F21" s="44"/>
       <c r="H21" s="44"/>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>61</v>
       </c>
@@ -1941,9 +1978,9 @@
       <c r="D22" s="10"/>
       <c r="F22" s="44"/>
       <c r="H22" s="44"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>62</v>
       </c>
@@ -1953,19 +1990,19 @@
       <c r="D23" s="10"/>
       <c r="F23" s="44"/>
       <c r="H23" s="44"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="62" t="s">
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="72"/>
       <c r="D24" s="10"/>
       <c r="F24" s="44"/>
       <c r="H24" s="44"/>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>63</v>
       </c>
@@ -1975,25 +2012,25 @@
       <c r="D25" s="10"/>
       <c r="F25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="59" t="s">
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="B26" s="69"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>65</v>
       </c>
@@ -2001,13 +2038,13 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="60"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B29" s="69"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>66</v>
       </c>
@@ -2015,7 +2052,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>67</v>
       </c>
@@ -2023,13 +2060,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="59" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="60"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="69"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>79</v>
       </c>
@@ -2037,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>80</v>
       </c>
@@ -2045,13 +2082,13 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="60"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" s="69"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>83</v>
       </c>
@@ -2059,13 +2096,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="60"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="69"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>85</v>
       </c>
@@ -2073,13 +2110,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="59" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="60"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" s="69"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>87</v>
       </c>
@@ -2087,13 +2124,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="60"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="69"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
@@ -2102,25 +2139,14 @@
       </c>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -2137,6 +2163,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2144,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -2152,7 +2189,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2172,52 +2209,52 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5703125" style="1"/>
+    <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -2237,7 +2274,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="15"/>
       <c r="C4" s="27"/>
@@ -2257,7 +2294,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="20"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="15"/>
       <c r="C5" s="28"/>
@@ -2277,7 +2314,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="20"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="28"/>
@@ -2297,7 +2334,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="20"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="28"/>
@@ -2317,7 +2354,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="20"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="28"/>
@@ -2337,7 +2374,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="28"/>
@@ -2357,7 +2394,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="20"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="28"/>
@@ -2377,7 +2414,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="28"/>
@@ -2397,7 +2434,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28"/>
@@ -2417,7 +2454,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="15"/>
       <c r="C13" s="28"/>
@@ -2437,7 +2474,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="28"/>
@@ -2457,7 +2494,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="28"/>
@@ -2477,7 +2514,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="28"/>
@@ -2497,7 +2534,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="20"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="28"/>
@@ -2517,7 +2554,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="C18" s="28"/>
@@ -2537,7 +2574,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -2545,7 +2582,7 @@
       <c r="J19" s="14"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -2553,45 +2590,45 @@
       <c r="J20" s="14"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J27" s="14"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9CA4F-5199-4103-92B3-579C27FAD0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>резерв</t>
   </si>
@@ -456,15 +450,30 @@
   <si>
     <t>итог (80%)</t>
   </si>
+  <si>
+    <t>5 (97%)</t>
+  </si>
+  <si>
+    <t>7 (97%)</t>
+  </si>
+  <si>
+    <t>8 (91%)</t>
+  </si>
+  <si>
+    <t>итог (90%)</t>
+  </si>
+  <si>
+    <t>Доступно 1 день</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,12 +902,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,6 +909,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,22 +956,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1029,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,26 +1062,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,23 +1097,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1297,115 +1272,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10" style="43" customWidth="1"/>
-    <col min="6" max="6" width="10" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10" style="43" customWidth="1"/>
-    <col min="8" max="8" width="10" style="45" customWidth="1"/>
-    <col min="9" max="9" width="10" style="43" customWidth="1"/>
-    <col min="10" max="10" width="10" style="45" customWidth="1"/>
-    <col min="11" max="11" width="10" style="43" customWidth="1"/>
-    <col min="12" max="12" width="10" style="45" customWidth="1"/>
-    <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="10" style="45" customWidth="1"/>
-    <col min="15" max="15" width="10" style="43" customWidth="1"/>
-    <col min="16" max="16" width="10" style="45" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="43" customWidth="1"/>
-    <col min="18" max="18" width="10" style="45" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="40" customWidth="1"/>
-    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10" style="44" customWidth="1"/>
+    <col min="9" max="9" width="10" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10" style="42" customWidth="1"/>
+    <col min="12" max="12" width="10" style="44" customWidth="1"/>
+    <col min="13" max="13" width="10" style="42" customWidth="1"/>
+    <col min="14" max="14" width="10" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10" style="42" customWidth="1"/>
+    <col min="16" max="16" width="10" style="44" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="42" customWidth="1"/>
+    <col min="18" max="18" width="10" style="44" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="39" customWidth="1"/>
+    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="66" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="66" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="66" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="67"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>43881</v>
       </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
@@ -1438,18 +1413,18 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="4">
@@ -1461,10 +1436,10 @@
       <c r="D4" s="4">
         <v>43881</v>
       </c>
-      <c r="E4" s="9">
-        <v>6</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3">
@@ -1497,14 +1472,14 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="38" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="5">
@@ -1516,10 +1491,10 @@
       <c r="D5" s="4">
         <v>43911</v>
       </c>
-      <c r="E5" s="9">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="3">
@@ -1552,27 +1527,27 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="37" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>43940</v>
       </c>
-      <c r="E6" s="9">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3">
@@ -1587,10 +1562,10 @@
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>43966</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1605,11 +1580,14 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="Q6" s="61"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="6">
@@ -1621,10 +1599,10 @@
       <c r="D7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="72" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1633,10 +1611,10 @@
       <c r="H7" s="4">
         <v>43933</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1651,28 +1629,28 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="Q7" s="61"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3">
         <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>43940</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="43"/>
       <c r="M8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1685,11 +1663,11 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="4">
@@ -1701,7 +1679,7 @@
       <c r="D9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="3">
         <v>7</v>
       </c>
@@ -1714,24 +1692,24 @@
       <c r="N9" s="4">
         <v>43913</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="Q9" s="61"/>
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A10" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="F10" s="46"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="3">
         <v>8</v>
       </c>
@@ -1744,19 +1722,19 @@
       <c r="N10" s="4">
         <v>43920</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="64"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="3">
         <v>9</v>
       </c>
@@ -1769,157 +1747,157 @@
       <c r="N11" s="4">
         <v>43927</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="59"/>
       <c r="D12" s="10"/>
-      <c r="F12" s="44"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="3">
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="45"/>
       <c r="M12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="62"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="P12" s="43"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="64"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="3">
         <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="45"/>
       <c r="M13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="62"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="P13" s="43"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A14" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="50" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="45"/>
       <c r="M14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="P14" s="43"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="8">
         <v>43912</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="F15" s="55"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="46"/>
+      <c r="F15" s="52"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="45"/>
       <c r="M15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="63"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="P15" s="43"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="65"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A16" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="F16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="J16" s="46"/>
+      <c r="F16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="J16" s="45"/>
       <c r="M16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="47"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="P16" s="43"/>
+      <c r="Q16" s="46"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="59"/>
       <c r="D17" s="10"/>
-      <c r="F17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="J17" s="46"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="J17" s="45"/>
       <c r="M17" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="47"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="P17" s="43"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="J18" s="46"/>
+      <c r="F18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="J18" s="45"/>
       <c r="M18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1927,226 +1905,237 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A19" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="F19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="J19" s="46"/>
-      <c r="M19" s="50" t="s">
+      <c r="F19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="J19" s="45"/>
+      <c r="M19" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="N19" s="48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:17" ht="15.75" thickTop="1">
+      <c r="A20" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="46"/>
-      <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="F20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="J20" s="45"/>
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="59"/>
       <c r="D21" s="10"/>
-      <c r="F21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="F21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>43926</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="F22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="F22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="6">
         <v>43926</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="F23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="F23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="59"/>
       <c r="D24" s="10"/>
-      <c r="F24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="F24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>43933</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="F25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="F25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="B26" s="56"/>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
       </c>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="69"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="B29" s="56"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="69"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="B32" s="56"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="4">
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="69"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="B35" s="56"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="69"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="B37" s="56"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="69"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+      <c r="B39" s="56"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="68" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="69"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+      <c r="B41" s="56"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -2163,17 +2152,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2181,7 +2159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -2189,7 +2167,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2209,427 +2187,427 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="20"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="13"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="13"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J27" s="14"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="J27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/325eac1b4a4a0652/Документы/Poly/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_8C6FED056BEEDB223D186C4B468EA63048FD4E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2443617-C4E3-4059-9E1F-2CAFCA152BCC}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2625" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>резерв</t>
   </si>
@@ -465,15 +471,25 @@
   <si>
     <t>Доступно 1 день</t>
   </si>
+  <si>
+    <t>18 - 24 мая</t>
+  </si>
+  <si>
+    <t>27) Строки (тест)</t>
+  </si>
+  <si>
+    <t>28) Browser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +582,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -747,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,19 +935,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,16 +974,31 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,9 +1095,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1272,17 +1339,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
@@ -1298,79 +1365,79 @@
     <col min="14" max="14" width="10" style="44" customWidth="1"/>
     <col min="15" max="15" width="10" style="42" customWidth="1"/>
     <col min="16" max="16" width="10" style="44" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="42" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="42" customWidth="1"/>
     <col min="18" max="18" width="10" style="44" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="39" customWidth="1"/>
-    <col min="20" max="16383" width="9.5703125" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="39" customWidth="1"/>
+    <col min="20" max="16383" width="9.5546875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="68" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="68" t="s">
+      <c r="N2" s="67"/>
+      <c r="O2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="68" t="s">
+      <c r="P2" s="67"/>
+      <c r="Q2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="69"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1413,10 +1480,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="61" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -1472,8 +1539,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="64"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="62"/>
       <c r="S4" s="37" t="s">
         <v>69</v>
       </c>
@@ -1527,17 +1594,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="64"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1580,13 +1647,13 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="73" t="s">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>50</v>
       </c>
@@ -1599,10 +1666,10 @@
       <c r="D7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="56" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -1629,14 +1696,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="64"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A8" s="58" t="s">
+      <c r="Q7" s="59"/>
+      <c r="R7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickTop="1">
+      <c r="A8" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -1663,10 +1730,10 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="64"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="30" t="s">
         <v>51</v>
       </c>
@@ -1698,10 +1765,10 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="62"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
         <v>52</v>
       </c>
@@ -1723,8 +1790,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="64"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -1748,14 +1815,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="64"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="72"/>
       <c r="D12" s="10"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -1772,8 +1839,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="64"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -1798,10 +1865,10 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="64"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q13" s="59"/>
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
         <v>55</v>
       </c>
@@ -1824,10 +1891,10 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q14" s="59"/>
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="33" t="s">
         <v>56</v>
       </c>
@@ -1846,10 +1913,10 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="65"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1">
+      <c r="Q15" s="60"/>
+      <c r="R15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
         <v>57</v>
       </c>
@@ -1870,10 +1937,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="72"/>
       <c r="D17" s="10"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -1905,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+    <row r="19" spans="1:17" ht="15" thickBot="1">
       <c r="A19" s="30" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +1990,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickTop="1">
+    <row r="20" spans="1:17" ht="15" thickTop="1">
       <c r="A20" s="32" t="s">
         <v>60</v>
       </c>
@@ -1937,10 +2004,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="72"/>
       <c r="D21" s="10"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -1971,10 +2038,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="72"/>
       <c r="D24" s="10"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -1993,10 +2060,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="69"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -2017,10 +2084,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="69"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -2039,10 +2106,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="56"/>
+      <c r="B32" s="69"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -2061,10 +2128,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -2075,10 +2142,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="69"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="33" t="s">
@@ -2089,10 +2156,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="69"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="33" t="s">
@@ -2103,10 +2170,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="69"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -2118,24 +2185,36 @@
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="69"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="74">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="74">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B46" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="28">
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -2152,6 +2231,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2159,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -2167,7 +2257,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2187,50 +2277,50 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5703125" style="1"/>
+    <col min="19" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:18" ht="15.6">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="24"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/325eac1b4a4a0652/Документы/Poly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_8C6FED056BEEDB223D186C4B468EA63048FD4E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2443617-C4E3-4059-9E1F-2CAFCA152BCC}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_8C6FED056BEEDB223D186C4B468EA63048FD4E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E27AFB37-AD6D-447C-9990-338B4CCDAED0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
     <sheet name="Шаблон" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>резерв</t>
   </si>
@@ -89,9 +99,6 @@
     <t>31 мая</t>
   </si>
   <si>
-    <t>Эл. Ф-ра и спорт</t>
-  </si>
-  <si>
     <t>10 - 16 фев</t>
   </si>
   <si>
@@ -123,108 +130,6 @@
   </si>
   <si>
     <t>4 (90%)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проц. Прог. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ДУ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Математика II </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Физика II </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Э)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Английский </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">История </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -241,23 +146,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ф-ра </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(з)</t>
     </r>
   </si>
   <si>
@@ -480,6 +368,138 @@
   <si>
     <t>28) Browser</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Математика II </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ДУ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Физика II </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Английский </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">История </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ф-ра </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Эл. Ф-ра и спорт </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проц. Прог. C# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Э)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -487,9 +507,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm"/>
+    <numFmt numFmtId="165" formatCode="d\ mmm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +615,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -639,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -766,12 +812,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,22 +999,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,31 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,16 +1416,16 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10" style="44" customWidth="1"/>
     <col min="5" max="5" width="10" style="42" customWidth="1"/>
     <col min="6" max="6" width="10" style="44" customWidth="1"/>
     <col min="7" max="7" width="10" style="42" customWidth="1"/>
@@ -1373,71 +1446,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="66" t="s">
+      <c r="A2" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="77"/>
+      <c r="G2" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="67"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1445,7 +1518,7 @@
         <v>43881</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>1</v>
@@ -1457,7 +1530,7 @@
         <v>43905</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4">
         <v>43905</v>
@@ -1480,19 +1553,19 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="61" t="s">
+      <c r="Q3" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="73" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>43884</v>
@@ -1504,7 +1577,7 @@
         <v>43881</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>1</v>
@@ -1516,7 +1589,7 @@
         <v>43912</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4">
         <v>43926</v>
@@ -1539,15 +1612,15 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="37" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5">
         <v>43884</v>
@@ -1559,7 +1632,7 @@
         <v>43911</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>1</v>
@@ -1571,13 +1644,13 @@
         <v>43919</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J5" s="4">
         <v>43947</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L5" s="4">
         <v>43951</v>
@@ -1589,22 +1662,22 @@
         <v>43885</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="72"/>
+      <c r="A6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="69"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1685,7 @@
         <v>43940</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>1</v>
@@ -1624,13 +1697,13 @@
         <v>43926</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L6" s="48">
         <v>43966</v>
@@ -1642,20 +1715,20 @@
         <v>43892</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="74"/>
       <c r="S6" s="57" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6">
         <v>43891</v>
@@ -1664,10 +1737,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>1</v>
@@ -1685,29 +1758,29 @@
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4">
         <v>43899</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickTop="1">
-      <c r="A8" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="3">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="74"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A8" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="49">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="45"/>
@@ -1719,7 +1792,7 @@
       </c>
       <c r="J8" s="43"/>
       <c r="M8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" s="4">
         <v>43906</v>
@@ -1730,22 +1803,17 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
+      <c r="Q8" s="71"/>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4">
         <v>43898</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="D9" s="45"/>
       <c r="F9" s="45"/>
       <c r="G9" s="3">
         <v>7</v>
@@ -1754,28 +1822,28 @@
         <v>43947</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="4">
         <v>43913</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="74"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
         <v>43898</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="45"/>
       <c r="G10" s="3">
         <v>8</v>
@@ -1784,23 +1852,23 @@
         <v>18</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="4">
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>43912</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="3">
         <v>9</v>
@@ -1809,21 +1877,21 @@
         <v>19</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N11" s="4">
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="74"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
         <v>10</v>
@@ -1833,23 +1901,23 @@
       </c>
       <c r="J12" s="45"/>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N12" s="4">
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="62"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="74"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>43912</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="3">
         <v>11</v>
@@ -1859,23 +1927,23 @@
       </c>
       <c r="J13" s="45"/>
       <c r="M13" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N13" s="4">
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="62"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="74"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>43912</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="43"/>
       <c r="G14" s="49" t="s">
         <v>9</v>
@@ -1885,50 +1953,50 @@
       </c>
       <c r="J14" s="45"/>
       <c r="M14" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N14" s="4">
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="62"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="74"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="60">
         <v>43912</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="43"/>
       <c r="F15" s="52"/>
       <c r="H15" s="43"/>
       <c r="I15" s="53"/>
       <c r="J15" s="45"/>
       <c r="M15" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="63"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="75"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6">
         <v>43916</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="43"/>
       <c r="F16" s="43"/>
       <c r="H16" s="43"/>
       <c r="J16" s="45"/>
       <c r="M16" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
@@ -1937,16 +2005,16 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
       <c r="J17" s="45"/>
       <c r="M17" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
@@ -1956,17 +2024,17 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4">
         <v>43919</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="43"/>
       <c r="F18" s="43"/>
       <c r="H18" s="43"/>
       <c r="J18" s="45"/>
       <c r="M18" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>8</v>
@@ -1974,101 +2042,101 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1">
       <c r="A19" s="30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4">
         <v>43919</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="43"/>
       <c r="F19" s="43"/>
       <c r="H19" s="43"/>
       <c r="J19" s="45"/>
       <c r="M19" s="49" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N19" s="48" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1">
       <c r="A20" s="32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>43919</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="43"/>
       <c r="F20" s="43"/>
       <c r="H20" s="43"/>
       <c r="J20" s="45"/>
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B22" s="35">
         <v>43926</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="43"/>
       <c r="F22" s="43"/>
       <c r="H22" s="43"/>
       <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="61">
         <v>43926</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="43"/>
       <c r="F23" s="43"/>
       <c r="H23" s="43"/>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
       <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B25" s="35">
         <v>43933</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="43"/>
       <c r="F25" s="43"/>
       <c r="H25" s="43"/>
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="69"/>
+      <c r="A26" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="66"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="30" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4">
         <v>43934</v>
@@ -2077,21 +2145,21 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4">
         <v>43934</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="69"/>
+      <c r="A29" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="66"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4">
         <v>43941</v>
@@ -2099,21 +2167,21 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="69"/>
+      <c r="A32" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="66"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -2121,99 +2189,111 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4">
         <v>43947</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="69"/>
+      <c r="A35" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="66"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="69"/>
+      <c r="A37" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="66"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="69"/>
+      <c r="A39" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="66"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="66"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="69"/>
+      <c r="A43" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="66"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="74">
+        <v>97</v>
+      </c>
+      <c r="B44" s="58">
         <v>43989</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="74">
+        <v>98</v>
+      </c>
+      <c r="B45" s="58">
         <v>43989</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="76"/>
+      <c r="A46" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
@@ -2230,18 +2310,6 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2281,46 +2349,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="24"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/325eac1b4a4a0652/Документы/Poly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_8C6FED056BEEDB223D186C4B468EA63048FD4E04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E27AFB37-AD6D-447C-9990-338B4CCDAED0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7C5E6-9693-45E3-AF00-83AF63FC7DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="II семестр" sheetId="1" r:id="rId1"/>
-    <sheet name="Шаблон" sheetId="3" r:id="rId2"/>
+    <sheet name="III семестр" sheetId="4" r:id="rId2"/>
+    <sheet name="Шаблон" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
   <si>
     <t>резерв</t>
   </si>
@@ -285,9 +286,6 @@
   </si>
   <si>
     <t>25) Работа со строками</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>26 мая</t>
@@ -484,6 +482,9 @@
     </r>
   </si>
   <si>
+    <t>I  I  I    с  е  м  е  с  т  р</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Проц. Прог. C# </t>
     </r>
@@ -491,25 +492,122 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Э)</t>
+      <t>(3)</t>
     </r>
+  </si>
+  <si>
+    <t>Дискретная мат.</t>
+  </si>
+  <si>
+    <t>Математика III</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>Технологии ООП</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Тест 3</t>
+  </si>
+  <si>
+    <t>КР 3</t>
+  </si>
+  <si>
+    <t>Тест 2</t>
+  </si>
+  <si>
+    <t>КР 2</t>
+  </si>
+  <si>
+    <t>Тест 1</t>
+  </si>
+  <si>
+    <t>КР 1</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>Тест (2) 2.4</t>
+  </si>
+  <si>
+    <t>Тест (1) 2.4</t>
+  </si>
+  <si>
+    <t>Самост 2.4</t>
+  </si>
+  <si>
+    <t>Тест (1) 2.5</t>
+  </si>
+  <si>
+    <t>Тест (2) 2.5</t>
+  </si>
+  <si>
+    <t>Самост 2.5</t>
+  </si>
+  <si>
+    <t>Тест (1) 2.6</t>
+  </si>
+  <si>
+    <t>Тест (2) 2.6</t>
+  </si>
+  <si>
+    <t>Самост 2.6</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Тест (1) 2.7</t>
+  </si>
+  <si>
+    <t>Тест (2) 2.7</t>
+  </si>
+  <si>
+    <t>Самост 2.7</t>
+  </si>
+  <si>
+    <t>Политология ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
     <numFmt numFmtId="165" formatCode="d\ mmm"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +739,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8" tint="0.59996337778862885"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -685,21 +800,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,11 +928,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,248 +941,303 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1416,8 +1578,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1446,71 +1608,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="94"/>
+      <c r="M2" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="94"/>
+      <c r="O2" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="78" t="s">
+      <c r="P2" s="94"/>
+      <c r="Q2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="79"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -1518,7 +1680,7 @@
         <v>43881</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>1</v>
@@ -1553,10 +1715,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="73" t="s">
+      <c r="Q3" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="88" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -1612,8 +1774,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="74"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -1632,7 +1794,7 @@
         <v>43911</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>1</v>
@@ -1667,17 +1829,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="74"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="89"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1847,7 @@
         <v>43940</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>1</v>
@@ -1703,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="48">
         <v>43966</v>
@@ -1720,10 +1882,10 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="74"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="89"/>
       <c r="S6" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
@@ -1737,10 +1899,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>1</v>
@@ -1769,14 +1931,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="74"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -1803,8 +1965,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="74"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="89"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -1833,8 +1995,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="74"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -1858,8 +2020,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="74"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -1883,14 +2045,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="74"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="99"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -1907,8 +2069,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="74"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="89"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -1933,8 +2095,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="74"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="89"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -1959,14 +2121,14 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="74"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="89"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>43912</v>
       </c>
       <c r="D15" s="43"/>
@@ -1981,8 +2143,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="75"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="90"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -1996,7 +2158,7 @@
       <c r="H16" s="43"/>
       <c r="J16" s="45"/>
       <c r="M16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>6</v>
@@ -2005,16 +2167,16 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="99"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
       <c r="J17" s="45"/>
       <c r="M17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
@@ -2034,7 +2196,7 @@
       <c r="H18" s="43"/>
       <c r="J18" s="45"/>
       <c r="M18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>8</v>
@@ -2052,10 +2214,10 @@
       <c r="H19" s="43"/>
       <c r="J19" s="45"/>
       <c r="M19" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N19" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1">
@@ -2072,10 +2234,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="99"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -2094,10 +2256,10 @@
       <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="60">
         <v>43926</v>
       </c>
       <c r="D23" s="43"/>
@@ -2106,10 +2268,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="99"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -2128,10 +2290,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="96"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -2152,10 +2314,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="96"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -2174,10 +2336,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="66"/>
+      <c r="B32" s="96"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -2196,10 +2358,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="66"/>
+      <c r="B35" s="96"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -2210,42 +2372,42 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="96"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="66"/>
+      <c r="B39" s="96"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="66"/>
+      <c r="A41" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="96"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>21</v>
@@ -2253,48 +2415,33 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="96"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="66"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="30" t="s">
+      <c r="B44" s="67">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1">
+      <c r="A45" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B45" s="68">
         <v>43989</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="58">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="64"/>
+    <row r="46" spans="1:4" ht="15" thickTop="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A46:B46"/>
+  <mergeCells count="27">
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -2310,6 +2457,18 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2317,12 +2476,655 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="92"/>
+      <c r="K2" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="92"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="74">
+        <v>44165</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="14">
+        <v>44150</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="70">
+        <v>44179</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="14">
+        <v>44152</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="70">
+        <v>44195</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="14">
+        <v>44164</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="14">
+        <v>44166</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickTop="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="14">
+        <v>44185</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="79"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="14">
+        <v>44187</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="81">
+        <v>44194</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="77"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="79"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="77"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="77"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="77"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="77"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="79"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="77"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="71"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="71"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="71"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="71"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" s="71"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="71"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="71"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="J27" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
@@ -2345,52 +3147,55 @@
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="18" max="18" width="10" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.5546875" style="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6">
-      <c r="A1" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-    </row>
-    <row r="3" spans="1:18">
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -2409,8 +3214,11 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="15"/>
       <c r="B4" s="14"/>
       <c r="C4" s="26"/>
@@ -2429,8 +3237,11 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="27"/>
@@ -2449,8 +3260,11 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="27"/>
@@ -2469,8 +3283,11 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="15"/>
       <c r="B7" s="14"/>
       <c r="C7" s="27"/>
@@ -2490,7 +3307,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="27"/>
@@ -2510,7 +3327,7 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="15"/>
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
@@ -2530,7 +3347,7 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="27"/>
@@ -2550,7 +3367,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="27"/>
@@ -2570,7 +3387,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
@@ -2590,7 +3407,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="27"/>
@@ -2610,7 +3427,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="27"/>
@@ -2630,7 +3447,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="27"/>
@@ -2650,7 +3467,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="27"/>
@@ -2769,16 +3586,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7C5E6-9693-45E3-AF00-83AF63FC7DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F8C50-FF7C-47F0-9F39-798851169B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="II семестр" sheetId="1" r:id="rId1"/>
-    <sheet name="III семестр" sheetId="4" r:id="rId2"/>
+    <sheet name="III семестр" sheetId="4" r:id="rId1"/>
+    <sheet name="II семестр" sheetId="1" r:id="rId2"/>
     <sheet name="Шаблон" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
   <si>
     <t>резерв</t>
   </si>
@@ -511,9 +511,6 @@
     <t>ОС</t>
   </si>
   <si>
-    <t>Технологии ООП</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
@@ -595,7 +592,40 @@
     <t>Самост 2.7</t>
   </si>
   <si>
-    <t>Политология ?</t>
+    <t>? Политология ?</t>
+  </si>
+  <si>
+    <t>модуль 9</t>
+  </si>
+  <si>
+    <t>модуль 10</t>
+  </si>
+  <si>
+    <t>модуль 11</t>
+  </si>
+  <si>
+    <t>модуль 12</t>
+  </si>
+  <si>
+    <t>Технологии ООП C++</t>
+  </si>
+  <si>
+    <t>Тест (1) 3.1</t>
+  </si>
+  <si>
+    <t>Тест (2) 3.1</t>
+  </si>
+  <si>
+    <t>Самост 3.1</t>
+  </si>
+  <si>
+    <t>Тест (1) 3.2</t>
+  </si>
+  <si>
+    <t>Тест (2) 3.2</t>
+  </si>
+  <si>
+    <t>Самост 3.2</t>
   </si>
 </sst>
 </file>
@@ -607,7 +637,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmm"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +781,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -933,7 +970,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,10 +1218,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,12 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,16 +1263,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,12 +1608,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.5546875" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="86"/>
+      <c r="I2" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="86"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="74">
+        <v>44165</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="14">
+        <v>44150</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44140</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="70">
+        <v>44179</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="14">
+        <v>44152</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="84">
+        <v>44154</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="A5" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="70">
+        <v>44194</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="14">
+        <v>44164</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="84">
+        <v>44168</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="4">
+        <v>44115</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="14">
+        <v>44166</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="84">
+        <v>44182</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="14">
+        <v>44185</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <v>44192</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="14">
+        <v>44187</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="4">
+        <v>44122</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="81">
+        <v>44194</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="4">
+        <v>44129</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="4">
+        <v>44136</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="4">
+        <v>44136</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="4">
+        <v>44136</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="4">
+        <v>44143</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="4">
+        <v>44143</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="4">
+        <v>44143</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="4">
+        <v>44143</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1">
+      <c r="B19" s="71"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="4">
+        <v>44143</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1">
+      <c r="B20" s="71"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="4">
+        <v>44143</v>
+      </c>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1">
+      <c r="B21" s="71"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="4">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1">
+      <c r="B22" s="71"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="4">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1">
+      <c r="B23" s="71"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="4">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1">
+      <c r="B24" s="71"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1">
+      <c r="B25" s="71"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1">
+      <c r="J27" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1608,65 +2340,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93" t="s">
+      <c r="H2" s="86"/>
+      <c r="I2" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="93" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="93" t="s">
+      <c r="L2" s="95"/>
+      <c r="M2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="93" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="93" t="s">
+      <c r="P2" s="95"/>
+      <c r="Q2" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="94"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="98" t="s">
@@ -1715,10 +2447,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="91" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -1774,8 +2506,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="92"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -1829,8 +2561,8 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="92"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
@@ -1882,8 +2614,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="92"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -1931,8 +2663,8 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="98" t="s">
@@ -1965,8 +2697,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -1995,8 +2727,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2020,8 +2752,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2045,8 +2777,8 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="92"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="98" t="s">
@@ -2069,8 +2801,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="92"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2095,8 +2827,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="92"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2121,8 +2853,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2143,8 +2875,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="93"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -2290,10 +3022,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="96"/>
+      <c r="B26" s="97"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -2314,10 +3046,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="97"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -2336,10 +3068,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="97"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -2358,10 +3090,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="97"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -2372,10 +3104,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="97"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -2386,10 +3118,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="96"/>
+      <c r="B39" s="97"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -2400,10 +3132,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="96"/>
+      <c r="B41" s="97"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -2415,10 +3147,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="97"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -2469,649 +3201,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
-  <dimension ref="A1:S27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" style="78" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="74">
-        <v>44165</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="14">
-        <v>44150</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="70">
-        <v>44179</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="14">
-        <v>44152</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="70">
-        <v>44195</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="14">
-        <v>44164</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="14">
-        <v>44166</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="100" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="14">
-        <v>44185</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="79"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="14">
-        <v>44187</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="81">
-        <v>44194</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="4">
-        <v>44129</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="4">
-        <v>44129</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="77"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="4">
-        <v>44129</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="79"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="77"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="77"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="77"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="77"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="79"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="77"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="B19" s="71"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="B20" s="71"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="71"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="B22" s="71"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="71"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="71"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="71"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="J27" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3152,47 +3241,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F8C50-FF7C-47F0-9F39-798851169B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95031145-5519-47DD-8687-4614148D354C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
   <si>
     <t>резерв</t>
   </si>
@@ -514,24 +514,6 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Тест 3</t>
-  </si>
-  <si>
-    <t>КР 3</t>
-  </si>
-  <si>
-    <t>Тест 2</t>
-  </si>
-  <si>
-    <t>КР 2</t>
-  </si>
-  <si>
-    <t>Тест 1</t>
-  </si>
-  <si>
-    <t>КР 1</t>
-  </si>
-  <si>
     <t>Лаб 1</t>
   </si>
   <si>
@@ -595,18 +577,6 @@
     <t>? Политология ?</t>
   </si>
   <si>
-    <t>модуль 9</t>
-  </si>
-  <si>
-    <t>модуль 10</t>
-  </si>
-  <si>
-    <t>модуль 11</t>
-  </si>
-  <si>
-    <t>модуль 12</t>
-  </si>
-  <si>
     <t>Технологии ООП C++</t>
   </si>
   <si>
@@ -626,6 +596,66 @@
   </si>
   <si>
     <t>Самост 3.2</t>
+  </si>
+  <si>
+    <t>Тест (1) 3.3</t>
+  </si>
+  <si>
+    <t>Тест (2) 3.3</t>
+  </si>
+  <si>
+    <t>Самост 3.3</t>
+  </si>
+  <si>
+    <t>Тест (1) 4.1</t>
+  </si>
+  <si>
+    <t>Тест (2) 4.1</t>
+  </si>
+  <si>
+    <t>Самост 4.1</t>
+  </si>
+  <si>
+    <t>Тест (1) 5.1</t>
+  </si>
+  <si>
+    <t>Тест (2) 5.1</t>
+  </si>
+  <si>
+    <t>Самост 5.1</t>
+  </si>
+  <si>
+    <t>Тест (1) 5.2</t>
+  </si>
+  <si>
+    <t>Тест (2) 5.2</t>
+  </si>
+  <si>
+    <t>Самост 5.2</t>
+  </si>
+  <si>
+    <t>9 (95%)</t>
+  </si>
+  <si>
+    <t>10 (97%)</t>
+  </si>
+  <si>
+    <t>T1 (100%)</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>КР1</t>
+  </si>
+  <si>
+    <t>КР3</t>
+  </si>
+  <si>
+    <t>КР2</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1000,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,9 +1221,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,6 +1251,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1261,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,16 +1299,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,15 +1645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="78" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="77" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
@@ -1629,12 +1665,12 @@
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="11" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.5546875" style="1" hidden="1"/>
   </cols>
@@ -1664,7 +1700,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="85" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="85" t="s">
@@ -1680,15 +1716,15 @@
       </c>
       <c r="H2" s="86"/>
       <c r="I2" s="85" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J2" s="86"/>
       <c r="K2" s="85" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="85" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N2" s="86"/>
       <c r="O2" s="85"/>
@@ -1698,14 +1734,14 @@
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="74">
+      <c r="A3" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="101">
         <v>44165</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>1</v>
@@ -1716,29 +1752,29 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="4">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J3" s="4">
         <v>44140</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L3" s="4">
         <v>44115</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="14"/>
@@ -1749,14 +1785,14 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="75" t="s">
-        <v>118</v>
+      <c r="A4" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="B4" s="70">
         <v>44179</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>1</v>
@@ -1767,20 +1803,20 @@
       <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="4">
         <v>44152</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="84">
+      <c r="I4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="4">
         <v>44154</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L4" s="4">
         <v>44115</v>
@@ -1796,14 +1832,14 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="76" t="s">
-        <v>119</v>
+      <c r="A5" s="75" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="70">
         <v>44194</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>1</v>
@@ -1814,20 +1850,20 @@
       <c r="F5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>114</v>
+      <c r="G5" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="H5" s="14">
         <v>44164</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="84">
+      <c r="I5" s="15">
+        <v>11</v>
+      </c>
+      <c r="J5" s="83">
         <v>44168</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L5" s="4">
         <v>44115</v>
@@ -1843,38 +1879,38 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="79" t="s">
-        <v>121</v>
+      <c r="A6" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>113</v>
+      <c r="G6" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="14">
         <v>44166</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="84">
+      <c r="I6" s="15">
+        <v>12</v>
+      </c>
+      <c r="J6" s="83">
         <v>44182</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L6" s="4">
         <v>44122</v>
@@ -1885,19 +1921,19 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="70"/>
       <c r="C7" s="27"/>
       <c r="D7" s="14"/>
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
-        <v>112</v>
+      <c r="G7" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="H7" s="14">
         <v>44185</v>
@@ -1909,7 +1945,7 @@
         <v>44192</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L7" s="4">
         <v>44122</v>
@@ -1922,14 +1958,14 @@
       <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="73"/>
       <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="15" t="s">
-        <v>111</v>
+      <c r="G8" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="14">
         <v>44187</v>
@@ -1937,7 +1973,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
       <c r="K8" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L8" s="4">
         <v>44122</v>
@@ -1950,22 +1986,22 @@
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="70"/>
       <c r="C9" s="27"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="80">
         <v>44194</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L9" s="4">
         <v>44129</v>
@@ -1978,7 +2014,7 @@
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="70"/>
       <c r="C10" s="27"/>
       <c r="D10" s="14"/>
@@ -1989,7 +2025,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L10" s="4">
         <v>44129</v>
@@ -2002,7 +2038,7 @@
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="77"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="70"/>
       <c r="C11" s="27"/>
       <c r="D11" s="14"/>
@@ -2013,7 +2049,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
       <c r="K11" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L11" s="4">
         <v>44129</v>
@@ -2026,7 +2062,7 @@
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="79"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="73"/>
       <c r="C12" s="27"/>
       <c r="D12" s="14"/>
@@ -2037,7 +2073,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
       <c r="K12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L12" s="4">
         <v>44136</v>
@@ -2050,7 +2086,7 @@
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="70"/>
       <c r="C13" s="27"/>
       <c r="D13" s="14"/>
@@ -2061,7 +2097,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
       <c r="K13" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L13" s="4">
         <v>44136</v>
@@ -2074,7 +2110,7 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="77"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="70"/>
       <c r="C14" s="27"/>
       <c r="D14" s="14"/>
@@ -2085,7 +2121,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
       <c r="K14" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L14" s="4">
         <v>44136</v>
@@ -2098,7 +2134,7 @@
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="A15" s="77"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="70"/>
       <c r="C15" s="27"/>
       <c r="D15" s="14"/>
@@ -2109,7 +2145,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
       <c r="K15" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L15" s="4">
         <v>44143</v>
@@ -2122,7 +2158,7 @@
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="A16" s="77"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="70"/>
       <c r="C16" s="27"/>
       <c r="D16" s="14"/>
@@ -2133,7 +2169,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
       <c r="K16" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L16" s="4">
         <v>44143</v>
@@ -2146,7 +2182,7 @@
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="73"/>
       <c r="C17" s="27"/>
       <c r="D17" s="14"/>
@@ -2157,7 +2193,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
       <c r="K17" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L17" s="4">
         <v>44143</v>
@@ -2170,7 +2206,7 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="70"/>
       <c r="C18" s="27"/>
       <c r="D18" s="14"/>
@@ -2181,7 +2217,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
       <c r="K18" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L18" s="4">
         <v>44143</v>
@@ -2200,7 +2236,7 @@
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
       <c r="K19" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L19" s="4">
         <v>44143</v>
@@ -2214,7 +2250,7 @@
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
       <c r="K20" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L20" s="4">
         <v>44143</v>
@@ -2228,7 +2264,7 @@
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
       <c r="K21" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L21" s="4">
         <v>44150</v>
@@ -2241,7 +2277,7 @@
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
       <c r="K22" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L22" s="4">
         <v>44150</v>
@@ -2254,7 +2290,7 @@
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
       <c r="K23" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L23" s="4">
         <v>44150</v>
@@ -2266,11 +2302,11 @@
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>120</v>
+      <c r="K24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="4">
+        <v>44157</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1">
@@ -2279,12 +2315,78 @@
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
+      <c r="K25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="4">
+        <v>44157</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="J26" s="13"/>
+      <c r="K26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="4">
+        <v>44157</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="J27" s="13"/>
+      <c r="K27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1">
+      <c r="K28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1">
+      <c r="K29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1">
+      <c r="K30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1">
+      <c r="K31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1">
+      <c r="K32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="4">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" ht="15" customHeight="1">
+      <c r="K33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2379,32 +2481,32 @@
         <v>100</v>
       </c>
       <c r="H2" s="86"/>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="94" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="94" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="94" t="s">
+      <c r="N2" s="99"/>
+      <c r="O2" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="94" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="99"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2447,10 +2549,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="88" t="s">
+      <c r="Q3" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="95" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2506,8 +2608,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="92"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="96"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2561,17 +2663,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="96"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2614,8 +2716,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="92"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2663,14 +2765,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="92"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2697,8 +2799,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2727,8 +2829,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="96"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2752,8 +2854,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="96"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2777,14 +2879,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="92"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="96"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="91"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2801,8 +2903,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="96"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2827,8 +2929,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="96"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2853,8 +2955,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="96"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2875,8 +2977,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -2899,10 +3001,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="91"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -2966,10 +3068,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="99"/>
+      <c r="B21" s="91"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3000,10 +3102,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="99"/>
+      <c r="B24" s="91"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3022,10 +3124,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="97"/>
+      <c r="B26" s="89"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3046,10 +3148,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="97"/>
+      <c r="B29" s="89"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3068,10 +3170,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="97"/>
+      <c r="B32" s="89"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3090,10 +3192,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="89"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3104,10 +3206,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="97"/>
+      <c r="B37" s="89"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3118,10 +3220,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="97"/>
+      <c r="B39" s="89"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3132,10 +3234,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="97"/>
+      <c r="B41" s="89"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3147,10 +3249,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="97"/>
+      <c r="B43" s="89"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3174,6 +3276,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3190,17 +3303,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3272,16 +3374,16 @@
       <c r="F2" s="86"/>
       <c r="G2" s="85"/>
       <c r="H2" s="86"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95031145-5519-47DD-8687-4614148D354C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ED326-706F-4691-B108-4A04F30CF5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,6 +1254,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,18 +1267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,10 +1293,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -1676,68 +1676,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="85" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="85" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="85" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="101">
+      <c r="B3" s="86">
         <v>44165</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1752,10 +1752,10 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="14">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2442,71 +2442,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="98" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="98" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="98" t="s">
+      <c r="N2" s="97"/>
+      <c r="O2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="98" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="99"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2549,10 +2549,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="93" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2608,8 +2608,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="96"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2663,17 +2663,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2716,8 +2716,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="94"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2765,14 +2765,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="96"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2799,8 +2799,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="96"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="94"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2829,8 +2829,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="96"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2854,8 +2854,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="96"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2879,14 +2879,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="96"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="94"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="101"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2903,8 +2903,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="96"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2929,8 +2929,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="96"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2955,8 +2955,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="96"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="94"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2977,8 +2977,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="97"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="95"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3001,10 +3001,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="101"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3068,10 +3068,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="101"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3102,10 +3102,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="101"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3124,10 +3124,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="99"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="99"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3170,10 +3170,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="99"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3192,10 +3192,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="99"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3206,10 +3206,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="99"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3220,10 +3220,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="99"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3234,10 +3234,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="99"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3249,10 +3249,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="89"/>
+      <c r="B43" s="99"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3276,17 +3276,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3303,6 +3292,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3343,47 +3343,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ED326-706F-4691-B108-4A04F30CF5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C215D11A-44EC-4CE2-8A0B-FDBDAFDA433F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>резерв</t>
   </si>
@@ -526,114 +526,18 @@
     <t>…</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>Философия</t>
   </si>
   <si>
-    <t>Тест (2) 2.4</t>
-  </si>
-  <si>
-    <t>Тест (1) 2.4</t>
-  </si>
-  <si>
-    <t>Самост 2.4</t>
-  </si>
-  <si>
-    <t>Тест (1) 2.5</t>
-  </si>
-  <si>
-    <t>Тест (2) 2.5</t>
-  </si>
-  <si>
-    <t>Самост 2.5</t>
-  </si>
-  <si>
-    <t>Тест (1) 2.6</t>
-  </si>
-  <si>
-    <t>Тест (2) 2.6</t>
-  </si>
-  <si>
-    <t>Самост 2.6</t>
-  </si>
-  <si>
     <t>Английский</t>
   </si>
   <si>
-    <t>Тест (1) 2.7</t>
-  </si>
-  <si>
-    <t>Тест (2) 2.7</t>
-  </si>
-  <si>
-    <t>Самост 2.7</t>
-  </si>
-  <si>
-    <t>? Политология ?</t>
-  </si>
-  <si>
     <t>Технологии ООП C++</t>
   </si>
   <si>
-    <t>Тест (1) 3.1</t>
-  </si>
-  <si>
-    <t>Тест (2) 3.1</t>
-  </si>
-  <si>
-    <t>Самост 3.1</t>
-  </si>
-  <si>
-    <t>Тест (1) 3.2</t>
-  </si>
-  <si>
-    <t>Тест (2) 3.2</t>
-  </si>
-  <si>
-    <t>Самост 3.2</t>
-  </si>
-  <si>
-    <t>Тест (1) 3.3</t>
-  </si>
-  <si>
-    <t>Тест (2) 3.3</t>
-  </si>
-  <si>
-    <t>Самост 3.3</t>
-  </si>
-  <si>
-    <t>Тест (1) 4.1</t>
-  </si>
-  <si>
-    <t>Тест (2) 4.1</t>
-  </si>
-  <si>
-    <t>Самост 4.1</t>
-  </si>
-  <si>
-    <t>Тест (1) 5.1</t>
-  </si>
-  <si>
-    <t>Тест (2) 5.1</t>
-  </si>
-  <si>
-    <t>Самост 5.1</t>
-  </si>
-  <si>
-    <t>Тест (1) 5.2</t>
-  </si>
-  <si>
-    <t>Тест (2) 5.2</t>
-  </si>
-  <si>
-    <t>Самост 5.2</t>
-  </si>
-  <si>
     <t>9 (95%)</t>
   </si>
   <si>
@@ -656,6 +560,75 @@
   </si>
   <si>
     <t>КР2</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Политология</t>
+  </si>
+  <si>
+    <t>Тест 4</t>
+  </si>
+  <si>
+    <t>Тест 1</t>
+  </si>
+  <si>
+    <t>Тест 2</t>
+  </si>
+  <si>
+    <t>Тест 3</t>
+  </si>
+  <si>
+    <t>Тест 5</t>
+  </si>
+  <si>
+    <t>11 (95%)</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Лаб 6</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +973,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,45 +1194,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,6 +1252,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,18 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,15 +1630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="77" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="75" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
@@ -1663,10 +1648,10 @@
     <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="89" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" style="9" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" style="11" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="9" hidden="1" customWidth="1"/>
@@ -1676,68 +1661,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="87" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="87" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="87" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="92"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="84">
         <v>44165</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1753,28 +1738,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="H3" s="14">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="J3" s="4">
         <v>44140</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>119</v>
+      <c r="K3" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="L3" s="4">
         <v>44115</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>116</v>
+        <v>142</v>
+      </c>
+      <c r="N3" s="14">
+        <v>44178</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="14"/>
@@ -1785,10 +1770,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="85">
         <v>44179</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1803,26 +1788,30 @@
       <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="84" t="s">
-        <v>153</v>
+      <c r="G4" s="82" t="s">
+        <v>121</v>
       </c>
       <c r="H4" s="4">
         <v>44152</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="J4" s="4">
         <v>44154</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>118</v>
+      <c r="K4" s="87" t="s">
+        <v>127</v>
       </c>
       <c r="L4" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14"/>
+        <v>44122</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="14">
+        <v>44178</v>
+      </c>
       <c r="O4" s="15"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
@@ -1832,10 +1821,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="85">
         <v>44194</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -1851,25 +1840,29 @@
         <v>1</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H5" s="14">
         <v>44164</v>
       </c>
-      <c r="I5" s="15">
-        <v>11</v>
-      </c>
-      <c r="J5" s="83">
+      <c r="I5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="4">
         <v>44168</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>120</v>
+      <c r="K5" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="L5" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+        <v>44129</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="14">
+        <v>44178</v>
+      </c>
       <c r="O5" s="15"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
@@ -1879,26 +1872,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="70">
+        <v>43844</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="79" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="H6" s="14">
         <v>44166</v>
@@ -1906,34 +1899,42 @@
       <c r="I6" s="15">
         <v>12</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="81">
         <v>44182</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>121</v>
+      <c r="K6" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="L6" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="14"/>
+        <v>44136</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="4">
+        <v>44167</v>
+      </c>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="80" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="70">
+        <v>43849</v>
+      </c>
       <c r="C7" s="27"/>
       <c r="D7" s="14"/>
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="H7" s="14">
         <v>44185</v>
@@ -1944,67 +1945,83 @@
       <c r="J7" s="51">
         <v>44192</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>122</v>
+      <c r="K7" s="87" t="s">
+        <v>131</v>
       </c>
       <c r="L7" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14"/>
+        <v>44143</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="14">
+        <v>44180</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="70">
+        <v>43860</v>
+      </c>
       <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
       <c r="G8" s="20" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H8" s="14">
         <v>44187</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="3" t="s">
-        <v>123</v>
+      <c r="K8" s="87" t="s">
+        <v>132</v>
       </c>
       <c r="L8" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
+        <v>44143</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="14">
+        <v>44180</v>
+      </c>
       <c r="O8" s="15"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>114</v>
+      </c>
       <c r="C9" s="27"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="78">
         <v>44194</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="3" t="s">
-        <v>124</v>
+      <c r="K9" s="87" t="s">
+        <v>133</v>
       </c>
       <c r="L9" s="4">
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="14"/>
@@ -2014,7 +2031,7 @@
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="70"/>
       <c r="C10" s="27"/>
       <c r="D10" s="14"/>
@@ -2024,11 +2041,11 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="3" t="s">
-        <v>125</v>
+      <c r="K10" s="87" t="s">
+        <v>134</v>
       </c>
       <c r="L10" s="4">
-        <v>44129</v>
+        <v>44157</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="14"/>
@@ -2038,7 +2055,7 @@
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="70"/>
       <c r="C11" s="27"/>
       <c r="D11" s="14"/>
@@ -2048,11 +2065,11 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="3" t="s">
-        <v>126</v>
+      <c r="K11" s="87" t="s">
+        <v>135</v>
       </c>
       <c r="L11" s="4">
-        <v>44129</v>
+        <v>44164</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="14"/>
@@ -2062,7 +2079,7 @@
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="78"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="73"/>
       <c r="C12" s="27"/>
       <c r="D12" s="14"/>
@@ -2072,11 +2089,11 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="3" t="s">
-        <v>128</v>
+      <c r="K12" s="87" t="s">
+        <v>136</v>
       </c>
       <c r="L12" s="4">
-        <v>44136</v>
+        <v>44164</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
@@ -2086,7 +2103,7 @@
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="70"/>
       <c r="C13" s="27"/>
       <c r="D13" s="14"/>
@@ -2096,11 +2113,11 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="3" t="s">
-        <v>129</v>
+      <c r="K13" s="87" t="s">
+        <v>137</v>
       </c>
       <c r="L13" s="4">
-        <v>44136</v>
+        <v>44186</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="14"/>
@@ -2110,7 +2127,7 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="70"/>
       <c r="C14" s="27"/>
       <c r="D14" s="14"/>
@@ -2120,11 +2137,11 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="3" t="s">
-        <v>130</v>
+      <c r="K14" s="87" t="s">
+        <v>138</v>
       </c>
       <c r="L14" s="4">
-        <v>44136</v>
+        <v>44186</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="14"/>
@@ -2134,7 +2151,7 @@
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="70"/>
       <c r="C15" s="27"/>
       <c r="D15" s="14"/>
@@ -2144,11 +2161,11 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="3" t="s">
-        <v>133</v>
+      <c r="K15" s="87" t="s">
+        <v>139</v>
       </c>
       <c r="L15" s="4">
-        <v>44143</v>
+        <v>44186</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="14"/>
@@ -2158,7 +2175,7 @@
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="70"/>
       <c r="C16" s="27"/>
       <c r="D16" s="14"/>
@@ -2168,12 +2185,8 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" s="4">
-        <v>44143</v>
-      </c>
+      <c r="K16" s="88"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -2182,7 +2195,7 @@
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="73"/>
       <c r="C17" s="27"/>
       <c r="D17" s="14"/>
@@ -2192,12 +2205,8 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="4">
-        <v>44143</v>
-      </c>
+      <c r="K17" s="88"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
@@ -2206,7 +2215,7 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="70"/>
       <c r="C18" s="27"/>
       <c r="D18" s="14"/>
@@ -2216,12 +2225,8 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="4">
-        <v>44143</v>
-      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
@@ -2235,12 +2240,8 @@
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="4">
-        <v>44143</v>
-      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="14"/>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
@@ -2249,12 +2250,8 @@
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="4">
-        <v>44143</v>
-      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="14"/>
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
@@ -2263,12 +2260,8 @@
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="4">
-        <v>44150</v>
-      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1">
       <c r="B22" s="71"/>
@@ -2276,12 +2269,8 @@
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="4">
-        <v>44150</v>
-      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
       <c r="B23" s="71"/>
@@ -2289,12 +2278,8 @@
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="4">
-        <v>44150</v>
-      </c>
+      <c r="K23" s="88"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="B24" s="71"/>
@@ -2302,12 +2287,8 @@
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="4">
-        <v>44157</v>
-      </c>
+      <c r="K24" s="88"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1">
       <c r="B25" s="71"/>
@@ -2315,78 +2296,74 @@
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="4">
-        <v>44157</v>
-      </c>
+      <c r="K25" s="88"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="J26" s="13"/>
-      <c r="K26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" s="4">
-        <v>44157</v>
-      </c>
+      <c r="K26" s="88"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="J27" s="13"/>
-      <c r="K27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K27" s="88"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="K28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K28" s="88"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="K29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K29" s="88"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="K30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K30" s="88"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="K31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K31" s="88"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="K32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="4">
-        <v>44164</v>
-      </c>
+      <c r="K32" s="88"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="11:12" ht="15" customHeight="1">
-      <c r="K33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="K33" s="88"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="11:12" ht="15" customHeight="1">
+      <c r="K34" s="88"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="11:12" ht="15" customHeight="1">
+      <c r="K35" s="88"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="11:12" ht="15" customHeight="1">
+      <c r="K36" s="88"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="11:12" ht="15" customHeight="1">
+      <c r="K37" s="88"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="11:12" ht="15" customHeight="1">
+      <c r="K38" s="88"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="11:12" ht="15" customHeight="1">
+      <c r="K39" s="88"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="11:12" ht="15" customHeight="1">
+      <c r="K40" s="88"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="11:12" ht="15" customHeight="1">
+      <c r="K41" s="88"/>
+      <c r="L41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2442,71 +2419,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="87" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="87" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
+      <c r="J2" s="105"/>
+      <c r="K2" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="96" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="96" t="s">
+      <c r="N2" s="105"/>
+      <c r="O2" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96" t="s">
+      <c r="P2" s="105"/>
+      <c r="Q2" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="105"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2549,10 +2526,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="101" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2608,8 +2585,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="94"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="102"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2663,17 +2640,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="94"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2716,8 +2693,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="94"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2765,14 +2742,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="94"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="102"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2799,8 +2776,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="94"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="102"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2829,8 +2806,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="94"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="102"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2854,8 +2831,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="94"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="102"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2879,14 +2856,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="94"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="102"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="97"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2903,8 +2880,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="94"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="102"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2929,8 +2906,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="94"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="102"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2955,8 +2932,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="94"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="102"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2977,8 +2954,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="95"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="103"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3001,10 +2978,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="97"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3068,10 +3045,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="101"/>
+      <c r="B21" s="97"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3102,10 +3079,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="101"/>
+      <c r="B24" s="97"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3124,10 +3101,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="99"/>
+      <c r="B26" s="95"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3148,10 +3125,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="95"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3170,10 +3147,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="95"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3192,10 +3169,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="95"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3206,10 +3183,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="95"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3220,10 +3197,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="95"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3234,10 +3211,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="99"/>
+      <c r="B41" s="95"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3249,10 +3226,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="99"/>
+      <c r="B43" s="95"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3276,6 +3253,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3292,17 +3280,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3343,47 +3320,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C215D11A-44EC-4CE2-8A0B-FDBDAFDA433F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2CFFF-C6F1-43BE-B402-A60A899BDB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="153">
   <si>
     <t>резерв</t>
   </si>
@@ -547,9 +547,6 @@
     <t>T1 (100%)</t>
   </si>
   <si>
-    <t>Т2</t>
-  </si>
-  <si>
     <t>Т3</t>
   </si>
   <si>
@@ -629,6 +626,18 @@
   </si>
   <si>
     <t>Лаб 6</t>
+  </si>
+  <si>
+    <t>Т2 (93%)</t>
+  </si>
+  <si>
+    <t>На проверке</t>
+  </si>
+  <si>
+    <t>Лаб 1 (65%)</t>
+  </si>
+  <si>
+    <t>КТ1</t>
   </si>
 </sst>
 </file>
@@ -797,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,6 +845,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +988,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,12 +1242,6 @@
     <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,18 +1261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,6 +1285,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,7 +1666,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -1648,7 +1681,7 @@
     <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="89" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="87" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
@@ -1661,66 +1694,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="91" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="91" t="s">
+      <c r="J2" s="90"/>
+      <c r="K2" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="90"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="83" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B3" s="84">
         <v>44165</v>
@@ -1737,10 +1770,10 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="109">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1749,14 +1782,14 @@
       <c r="J3" s="4">
         <v>44140</v>
       </c>
-      <c r="K3" s="87" t="s">
-        <v>129</v>
+      <c r="K3" s="85" t="s">
+        <v>128</v>
       </c>
       <c r="L3" s="4">
         <v>44115</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" s="14">
         <v>44178</v>
@@ -1770,11 +1803,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="85">
-        <v>44179</v>
+      <c r="A4" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="70">
+        <v>44175</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>112</v>
@@ -1800,14 +1833,14 @@
       <c r="J4" s="4">
         <v>44154</v>
       </c>
-      <c r="K4" s="87" t="s">
-        <v>127</v>
+      <c r="K4" s="85" t="s">
+        <v>126</v>
       </c>
       <c r="L4" s="4">
         <v>44122</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N4" s="14">
         <v>44178</v>
@@ -1821,11 +1854,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="85">
-        <v>44194</v>
+      <c r="A5" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="106">
+        <v>44179</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>113</v>
@@ -1840,25 +1873,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="14">
         <v>44164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="4">
         <v>44168</v>
       </c>
-      <c r="K5" s="87" t="s">
-        <v>128</v>
+      <c r="K5" s="85" t="s">
+        <v>127</v>
       </c>
       <c r="L5" s="4">
         <v>44129</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N5" s="14">
         <v>44178</v>
@@ -1867,16 +1900,16 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="36" t="s">
-        <v>62</v>
+      <c r="S5" s="104" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="70">
-        <v>43844</v>
+      <c r="A6" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="106">
+        <v>44194</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>115</v>
@@ -1890,10 +1923,10 @@
       <c r="F6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="4">
         <v>44166</v>
       </c>
       <c r="I6" s="15">
@@ -1902,39 +1935,39 @@
       <c r="J6" s="81">
         <v>44182</v>
       </c>
-      <c r="K6" s="87" t="s">
-        <v>130</v>
+      <c r="K6" s="85" t="s">
+        <v>129</v>
       </c>
       <c r="L6" s="4">
         <v>44136</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N6" s="4">
-        <v>44167</v>
+        <v>44178</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="80" t="s">
-        <v>94</v>
+      <c r="S6" s="36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="90" t="s">
-        <v>148</v>
+      <c r="A7" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="B7" s="70">
-        <v>43849</v>
+        <v>43844</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="14"/>
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="14">
         <v>44185</v>
@@ -1945,14 +1978,14 @@
       <c r="J7" s="51">
         <v>44192</v>
       </c>
-      <c r="K7" s="87" t="s">
-        <v>131</v>
+      <c r="K7" s="85" t="s">
+        <v>130</v>
       </c>
       <c r="L7" s="4">
         <v>44143</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" s="14">
         <v>44180</v>
@@ -1961,28 +1994,31 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
+      <c r="S7" s="80" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="90" t="s">
-        <v>149</v>
+      <c r="A8" s="88" t="s">
+        <v>147</v>
       </c>
       <c r="B8" s="70">
-        <v>43860</v>
+        <v>43849</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
       <c r="G8" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="14">
         <v>44187</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="87" t="s">
-        <v>132</v>
+      <c r="K8" s="85" t="s">
+        <v>131</v>
       </c>
       <c r="L8" s="4">
         <v>44143</v>
@@ -1999,11 +2035,11 @@
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>114</v>
+      <c r="A9" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="70">
+        <v>43860</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="14"/>
@@ -2017,8 +2053,8 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="87" t="s">
-        <v>133</v>
+      <c r="K9" s="85" t="s">
+        <v>132</v>
       </c>
       <c r="L9" s="4">
         <v>44150</v>
@@ -2029,10 +2065,15 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
+      <c r="S9" s="110"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>114</v>
+      </c>
       <c r="C10" s="27"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
@@ -2041,8 +2082,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="87" t="s">
-        <v>134</v>
+      <c r="K10" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="L10" s="4">
         <v>44157</v>
@@ -2065,8 +2106,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="87" t="s">
-        <v>135</v>
+      <c r="K11" s="85" t="s">
+        <v>134</v>
       </c>
       <c r="L11" s="4">
         <v>44164</v>
@@ -2089,8 +2130,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="87" t="s">
-        <v>136</v>
+      <c r="K12" s="85" t="s">
+        <v>135</v>
       </c>
       <c r="L12" s="4">
         <v>44164</v>
@@ -2113,8 +2154,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="87" t="s">
-        <v>137</v>
+      <c r="K13" s="85" t="s">
+        <v>136</v>
       </c>
       <c r="L13" s="4">
         <v>44186</v>
@@ -2137,8 +2178,8 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="87" t="s">
-        <v>138</v>
+      <c r="K14" s="85" t="s">
+        <v>137</v>
       </c>
       <c r="L14" s="4">
         <v>44186</v>
@@ -2161,8 +2202,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="87" t="s">
-        <v>139</v>
+      <c r="K15" s="85" t="s">
+        <v>138</v>
       </c>
       <c r="L15" s="4">
         <v>44186</v>
@@ -2185,7 +2226,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="88"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
@@ -2205,7 +2246,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="88"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
@@ -2225,7 +2266,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="88"/>
+      <c r="K18" s="86"/>
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
@@ -2240,7 +2281,7 @@
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="88"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="14"/>
       <c r="N19" s="10"/>
     </row>
@@ -2250,7 +2291,7 @@
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="88"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="14"/>
       <c r="N20" s="10"/>
     </row>
@@ -2260,7 +2301,7 @@
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="88"/>
+      <c r="K21" s="86"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1">
@@ -2269,7 +2310,7 @@
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="88"/>
+      <c r="K22" s="86"/>
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
@@ -2278,7 +2319,7 @@
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="88"/>
+      <c r="K23" s="86"/>
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
@@ -2287,7 +2328,7 @@
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="88"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1">
@@ -2296,73 +2337,73 @@
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="88"/>
+      <c r="K25" s="86"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="J26" s="13"/>
-      <c r="K26" s="88"/>
+      <c r="K26" s="86"/>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="J27" s="13"/>
-      <c r="K27" s="88"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="K28" s="88"/>
+      <c r="K28" s="86"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="K29" s="88"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="K30" s="88"/>
+      <c r="K30" s="86"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="K31" s="88"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="K32" s="88"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="11:12" ht="15" customHeight="1">
-      <c r="K33" s="88"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="11:12" ht="15" customHeight="1">
-      <c r="K34" s="88"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="11:12" ht="15" customHeight="1">
-      <c r="K35" s="88"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="11:12" ht="15" customHeight="1">
-      <c r="K36" s="88"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="11:12" ht="15" customHeight="1">
-      <c r="K37" s="88"/>
+      <c r="K37" s="86"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="11:12" ht="15" customHeight="1">
-      <c r="K38" s="88"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="14"/>
     </row>
     <row r="39" spans="11:12" ht="15" customHeight="1">
-      <c r="K39" s="88"/>
+      <c r="K39" s="86"/>
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="11:12" ht="15" customHeight="1">
-      <c r="K40" s="88"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="11:12" ht="15" customHeight="1">
-      <c r="K41" s="88"/>
+      <c r="K41" s="86"/>
       <c r="L41" s="14"/>
     </row>
   </sheetData>
@@ -2419,71 +2460,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="104" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="104" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="104" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="104" t="s">
+      <c r="N2" s="99"/>
+      <c r="O2" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="104" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="105"/>
+      <c r="R2" s="99"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2526,10 +2567,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="101" t="s">
+      <c r="R3" s="95" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2585,8 +2626,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="102"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="96"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2640,17 +2681,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="96"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2693,8 +2734,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="102"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2742,14 +2783,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="102"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2776,8 +2817,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="102"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2806,8 +2847,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="102"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="96"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2831,8 +2872,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="102"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="96"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2856,14 +2897,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="102"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="96"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="103"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2880,8 +2921,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="102"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="96"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2906,8 +2947,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="102"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="96"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2932,8 +2973,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="102"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="96"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2954,8 +2995,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="103"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -2978,10 +3019,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="103"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3045,10 +3086,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="103"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3079,10 +3120,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="97"/>
+      <c r="B24" s="103"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3101,10 +3142,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="101"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3125,10 +3166,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="101"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3147,10 +3188,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="101"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3169,10 +3210,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="101"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3183,10 +3224,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="101"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3197,10 +3238,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="101"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3211,10 +3252,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="101"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3226,10 +3267,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="95"/>
+      <c r="B43" s="101"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3253,17 +3294,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3280,6 +3310,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3320,47 +3361,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2CFFF-C6F1-43BE-B402-A60A899BDB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A79DAC-E719-4A7D-BFEC-AB8317F3600B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
     <t>Лаб 1 (65%)</t>
   </si>
   <si>
-    <t>КТ1</t>
+    <t>КТ1 (66%)</t>
   </si>
 </sst>
 </file>
@@ -1254,6 +1254,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,6 +1282,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,40 +1320,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,7 +1666,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -1694,61 +1694,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="89" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="89" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="89" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
@@ -1770,10 +1770,10 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="94">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1803,10 +1803,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="111">
         <v>44175</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1854,10 +1854,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="91">
         <v>44179</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -1900,15 +1900,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="89" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="91">
         <v>44194</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -2065,7 +2065,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="110"/>
+      <c r="S9" s="95"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
       <c r="A10" s="74" t="s">
@@ -2460,71 +2460,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="89" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="98" t="s">
+      <c r="J2" s="110"/>
+      <c r="K2" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="98" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="98" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="98" t="s">
+      <c r="P2" s="110"/>
+      <c r="Q2" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="99"/>
+      <c r="R2" s="110"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2567,10 +2567,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="106" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2626,8 +2626,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="96"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="107"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2681,17 +2681,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="96"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="107"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +2734,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="107"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2783,14 +2783,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="96"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2817,8 +2817,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="96"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="107"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2847,8 +2847,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="96"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="107"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2872,8 +2872,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="96"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="107"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2897,14 +2897,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="96"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="107"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="102"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2921,8 +2921,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="96"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="107"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2947,8 +2947,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="96"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="107"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2973,8 +2973,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="96"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="107"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2995,8 +2995,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="97"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="108"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3019,10 +3019,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="102"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3086,10 +3086,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="102"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3120,10 +3120,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="102"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3142,10 +3142,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="101"/>
+      <c r="B26" s="100"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3166,10 +3166,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="100"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3188,10 +3188,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="101"/>
+      <c r="B32" s="100"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3210,10 +3210,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="100"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3224,10 +3224,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="100"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3238,10 +3238,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="101"/>
+      <c r="B39" s="100"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3252,10 +3252,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="101"/>
+      <c r="B41" s="100"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3267,10 +3267,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="101"/>
+      <c r="B43" s="100"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3294,6 +3294,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3310,17 +3321,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3361,47 +3361,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A79DAC-E719-4A7D-BFEC-AB8317F3600B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725F5F3-E9C3-43D0-8D55-2B3043798629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
   <si>
     <t>резерв</t>
   </si>
@@ -547,9 +547,6 @@
     <t>T1 (100%)</t>
   </si>
   <si>
-    <t>Т3</t>
-  </si>
-  <si>
     <t>КР1</t>
   </si>
   <si>
@@ -638,6 +635,24 @@
   </si>
   <si>
     <t>КТ1 (66%)</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Т3 (87%)</t>
   </si>
 </sst>
 </file>
@@ -1230,9 +1245,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,6 +1287,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,18 +1297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1323,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,7 +1681,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -1681,7 +1696,7 @@
     <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="87" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="86" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
@@ -1742,7 +1757,7 @@
       </c>
       <c r="L2" s="97"/>
       <c r="M2" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" s="97"/>
       <c r="O2" s="96"/>
@@ -1752,10 +1767,10 @@
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="84">
+      <c r="A3" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="83">
         <v>44165</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1770,10 +1785,10 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="94">
+      <c r="G3" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="93">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1782,16 +1797,16 @@
       <c r="J3" s="4">
         <v>44140</v>
       </c>
-      <c r="K3" s="85" t="s">
-        <v>128</v>
+      <c r="K3" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="L3" s="4">
-        <v>44115</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="14">
+        <v>44186</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="4">
         <v>44178</v>
       </c>
       <c r="O3" s="15"/>
@@ -1803,10 +1818,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="111">
+      <c r="A4" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="95">
         <v>44175</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1821,7 +1836,7 @@
       <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>121</v>
       </c>
       <c r="H4" s="4">
@@ -1833,16 +1848,16 @@
       <c r="J4" s="4">
         <v>44154</v>
       </c>
-      <c r="K4" s="85" t="s">
-        <v>126</v>
+      <c r="K4" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="L4" s="4">
-        <v>44122</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="14">
+        <v>44186</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="4">
         <v>44178</v>
       </c>
       <c r="O4" s="15"/>
@@ -1854,10 +1869,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="90">
         <v>44179</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -1873,42 +1888,42 @@
         <v>1</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="14">
         <v>44164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="4">
         <v>44168</v>
       </c>
-      <c r="K5" s="85" t="s">
-        <v>127</v>
+      <c r="K5" s="84" t="s">
+        <v>155</v>
       </c>
       <c r="L5" s="4">
-        <v>44129</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="14">
+        <v>44186</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="4">
         <v>44178</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="89" t="s">
-        <v>150</v>
+      <c r="S5" s="88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="90">
         <v>44194</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -1923,26 +1938,26 @@
       <c r="F6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>149</v>
+      <c r="G6" s="81" t="s">
+        <v>148</v>
       </c>
       <c r="H6" s="4">
         <v>44166</v>
       </c>
-      <c r="I6" s="15">
-        <v>12</v>
-      </c>
-      <c r="J6" s="81">
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="4">
         <v>44182</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>129</v>
+      <c r="K6" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="L6" s="4">
-        <v>44136</v>
+        <v>44186</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N6" s="4">
         <v>44178</v>
@@ -1956,8 +1971,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="88" t="s">
-        <v>146</v>
+      <c r="A7" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="B7" s="70">
         <v>43844</v>
@@ -1967,7 +1982,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="14">
         <v>44185</v>
@@ -1978,16 +1993,16 @@
       <c r="J7" s="51">
         <v>44192</v>
       </c>
-      <c r="K7" s="85" t="s">
-        <v>130</v>
+      <c r="K7" s="84" t="s">
+        <v>127</v>
       </c>
       <c r="L7" s="4">
-        <v>44143</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="14">
+        <v>44186</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="4">
         <v>44180</v>
       </c>
       <c r="O7" s="15"/>
@@ -1998,9 +2013,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="88" t="s">
-        <v>147</v>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="87" t="s">
+        <v>146</v>
       </c>
       <c r="B8" s="70">
         <v>43849</v>
@@ -2009,24 +2024,24 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="4">
         <v>44187</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="85" t="s">
-        <v>131</v>
+      <c r="K8" s="84" t="s">
+        <v>125</v>
       </c>
       <c r="L8" s="4">
-        <v>44143</v>
-      </c>
-      <c r="M8" s="15" t="s">
+        <v>44186</v>
+      </c>
+      <c r="M8" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="48">
         <v>44180</v>
       </c>
       <c r="O8" s="15"/>
@@ -2034,9 +2049,9 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="88" t="s">
-        <v>148</v>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="87" t="s">
+        <v>147</v>
       </c>
       <c r="B9" s="70">
         <v>43860</v>
@@ -2053,11 +2068,11 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="85" t="s">
-        <v>132</v>
+      <c r="K9" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="L9" s="4">
-        <v>44150</v>
+        <v>44186</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="14"/>
@@ -2065,7 +2080,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="95"/>
+      <c r="S9" s="94"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
       <c r="A10" s="74" t="s">
@@ -2082,11 +2097,11 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="85" t="s">
-        <v>133</v>
+      <c r="K10" s="84" t="s">
+        <v>128</v>
       </c>
       <c r="L10" s="4">
-        <v>44157</v>
+        <v>44186</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="14"/>
@@ -2106,11 +2121,11 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="85" t="s">
-        <v>134</v>
+      <c r="K11" s="84" t="s">
+        <v>129</v>
       </c>
       <c r="L11" s="4">
-        <v>44164</v>
+        <v>44186</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="14"/>
@@ -2130,11 +2145,11 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="85" t="s">
-        <v>135</v>
+      <c r="K12" s="84" t="s">
+        <v>130</v>
       </c>
       <c r="L12" s="4">
-        <v>44164</v>
+        <v>44186</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="14"/>
@@ -2154,8 +2169,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="85" t="s">
-        <v>136</v>
+      <c r="K13" s="84" t="s">
+        <v>131</v>
       </c>
       <c r="L13" s="4">
         <v>44186</v>
@@ -2178,8 +2193,8 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="85" t="s">
-        <v>137</v>
+      <c r="K14" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="L14" s="4">
         <v>44186</v>
@@ -2202,8 +2217,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="85" t="s">
-        <v>138</v>
+      <c r="K15" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="L15" s="4">
         <v>44186</v>
@@ -2226,8 +2241,12 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="4">
+        <v>44186</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
@@ -2246,8 +2265,12 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="4">
+        <v>44186</v>
+      </c>
       <c r="M17" s="15"/>
       <c r="N17" s="14"/>
       <c r="O17" s="15"/>
@@ -2266,8 +2289,12 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="4">
+        <v>44186</v>
+      </c>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
@@ -2281,8 +2308,12 @@
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="4">
+        <v>44186</v>
+      </c>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
@@ -2291,26 +2322,34 @@
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="4">
+        <v>44186</v>
+      </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="71"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+      <c r="K21" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1">
       <c r="B22" s="71"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="86"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
@@ -2319,7 +2358,7 @@
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="86"/>
+      <c r="K23" s="85"/>
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
@@ -2328,7 +2367,7 @@
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="86"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1">
@@ -2337,73 +2376,73 @@
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="86"/>
+      <c r="K25" s="85"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="J26" s="13"/>
-      <c r="K26" s="86"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="J27" s="13"/>
-      <c r="K27" s="86"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="K28" s="86"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="K29" s="86"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="K30" s="86"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="K31" s="86"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="K32" s="86"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="11:12" ht="15" customHeight="1">
-      <c r="K33" s="86"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="11:12" ht="15" customHeight="1">
-      <c r="K34" s="86"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="11:12" ht="15" customHeight="1">
-      <c r="K35" s="86"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="11:12" ht="15" customHeight="1">
-      <c r="K36" s="86"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="11:12" ht="15" customHeight="1">
-      <c r="K37" s="86"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="11:12" ht="15" customHeight="1">
-      <c r="K38" s="86"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="14"/>
     </row>
     <row r="39" spans="11:12" ht="15" customHeight="1">
-      <c r="K39" s="86"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="11:12" ht="15" customHeight="1">
-      <c r="K40" s="86"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="11:12" ht="15" customHeight="1">
-      <c r="K41" s="86"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="14"/>
     </row>
   </sheetData>
@@ -2499,32 +2538,32 @@
         <v>100</v>
       </c>
       <c r="H2" s="97"/>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="109" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="109" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="109" t="s">
+      <c r="N2" s="106"/>
+      <c r="O2" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="109" t="s">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="110"/>
+      <c r="R2" s="106"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2567,10 +2606,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="103" t="s">
+      <c r="Q3" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="102" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2626,8 +2665,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="107"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="103"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2681,17 +2720,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="107"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +2773,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="107"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2783,14 +2822,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="107"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="103"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2817,8 +2856,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="107"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="103"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2847,8 +2886,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="107"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="103"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2872,8 +2911,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="107"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2897,14 +2936,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="107"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="110"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2921,8 +2960,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="107"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="103"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2947,8 +2986,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="107"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -2973,8 +3012,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="107"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="103"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -2995,8 +3034,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="108"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="104"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3019,10 +3058,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="110"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3086,10 +3125,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="102"/>
+      <c r="B21" s="110"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3120,10 +3159,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="102"/>
+      <c r="B24" s="110"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3142,10 +3181,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="100"/>
+      <c r="B26" s="108"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3166,10 +3205,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="100"/>
+      <c r="B29" s="108"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3188,10 +3227,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="100"/>
+      <c r="B32" s="108"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3210,10 +3249,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="100"/>
+      <c r="B35" s="108"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3224,10 +3263,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="100"/>
+      <c r="B37" s="108"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3238,10 +3277,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="100"/>
+      <c r="B39" s="108"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3252,10 +3291,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="100"/>
+      <c r="B41" s="108"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3267,10 +3306,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="100"/>
+      <c r="B43" s="108"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3294,17 +3333,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3321,6 +3349,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3392,16 +3431,16 @@
       <c r="F2" s="97"/>
       <c r="G2" s="96"/>
       <c r="H2" s="97"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725F5F3-E9C3-43D0-8D55-2B3043798629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FD1BB-C38D-48E6-AAD0-15D22718CF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,6 +1290,9 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,6 +1300,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,21 +1336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,61 +1709,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
+      <c r="J2" s="98"/>
+      <c r="K2" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="96" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="98"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
@@ -2336,7 +2336,7 @@
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="96" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="56" t="s">
@@ -2499,71 +2499,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="105" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="105" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="105" t="s">
+      <c r="N2" s="111"/>
+      <c r="O2" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105" t="s">
+      <c r="P2" s="111"/>
+      <c r="Q2" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="106"/>
+      <c r="R2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2606,10 +2606,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="107" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -2665,8 +2665,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="108"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -2720,17 +2720,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="103"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="108"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2773,8 +2773,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="103"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="108"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -2822,14 +2822,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="103"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="108"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="110"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2856,8 +2856,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="103"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="108"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -2886,8 +2886,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="103"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="108"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -2911,8 +2911,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="103"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="108"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -2936,14 +2936,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="103"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="108"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="103"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2960,8 +2960,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="103"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="108"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -2986,8 +2986,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="103"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="108"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -3012,8 +3012,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="103"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="108"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -3034,8 +3034,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="104"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3058,10 +3058,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="110"/>
+      <c r="B17" s="103"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3125,10 +3125,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="103"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3159,10 +3159,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="103"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3181,10 +3181,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="108"/>
+      <c r="B26" s="101"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3205,10 +3205,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="108"/>
+      <c r="B29" s="101"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -3227,10 +3227,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="108"/>
+      <c r="B32" s="101"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -3249,10 +3249,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="101"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -3263,10 +3263,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="101"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -3277,10 +3277,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="108"/>
+      <c r="B39" s="101"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -3291,10 +3291,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="108"/>
+      <c r="B41" s="101"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -3306,10 +3306,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="108"/>
+      <c r="B43" s="101"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -3333,6 +3333,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3349,17 +3360,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3400,47 +3400,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="111"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FD1BB-C38D-48E6-AAD0-15D22718CF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172EF81-22EE-4917-97C4-A0091D02080C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="III семестр" sheetId="4" r:id="rId1"/>
@@ -18,21 +18,11 @@
     <sheet name="Шаблон" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
   <si>
     <t>резерв</t>
   </si>
@@ -523,9 +513,6 @@
     <t>Лаб 3</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -653,6 +640,18 @@
   </si>
   <si>
     <t>Т3 (87%)</t>
+  </si>
+  <si>
+    <t>Лаб 3 (100%)</t>
+  </si>
+  <si>
+    <t>Итог (79%)</t>
+  </si>
+  <si>
+    <t>Курсовая</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -664,7 +663,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmm"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,9 +1235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,18 +1296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1320,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1681,12 +1680,12 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="75" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
@@ -1696,7 +1695,7 @@
     <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="86" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="85" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
@@ -1708,69 +1707,69 @@
     <col min="20" max="16384" width="9.5546875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="97" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="97" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="97" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="97" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="97"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="83">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="82">
         <v>44165</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1785,26 +1784,26 @@
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="93">
+      <c r="G3" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="92">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="4">
         <v>44140</v>
       </c>
-      <c r="K3" s="84" t="s">
-        <v>153</v>
+      <c r="K3" s="83" t="s">
+        <v>152</v>
       </c>
       <c r="L3" s="4">
         <v>44186</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" s="4">
         <v>44178</v>
@@ -1817,11 +1816,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="95">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="94">
         <v>44175</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1836,26 +1835,26 @@
       <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>121</v>
+      <c r="G4" s="80" t="s">
+        <v>120</v>
       </c>
       <c r="H4" s="4">
         <v>44152</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="4">
         <v>44154</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>154</v>
+      <c r="K4" s="83" t="s">
+        <v>153</v>
       </c>
       <c r="L4" s="4">
         <v>44186</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" s="4">
         <v>44178</v>
@@ -1868,11 +1867,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="89">
         <v>44179</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -1887,26 +1886,26 @@
       <c r="F5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="92">
         <v>44164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="4">
         <v>44168</v>
       </c>
-      <c r="K5" s="84" t="s">
-        <v>155</v>
+      <c r="K5" s="83" t="s">
+        <v>154</v>
       </c>
       <c r="L5" s="4">
         <v>44186</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N5" s="4">
         <v>44178</v>
@@ -1915,31 +1914,31 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="88" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="90">
+      <c r="S5" s="87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="94">
         <v>44194</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="81" t="s">
-        <v>148</v>
+      <c r="G6" s="80" t="s">
+        <v>147</v>
       </c>
       <c r="H6" s="4">
         <v>44166</v>
@@ -1950,14 +1949,14 @@
       <c r="J6" s="4">
         <v>44182</v>
       </c>
-      <c r="K6" s="84" t="s">
-        <v>156</v>
+      <c r="K6" s="83" t="s">
+        <v>155</v>
       </c>
       <c r="L6" s="4">
         <v>44186</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N6" s="4">
         <v>44178</v>
@@ -1970,21 +1969,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="70">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="89">
         <v>43844</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="14"/>
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="92">
         <v>44185</v>
       </c>
       <c r="I7" s="50" t="s">
@@ -1993,14 +1992,14 @@
       <c r="J7" s="51">
         <v>44192</v>
       </c>
-      <c r="K7" s="84" t="s">
-        <v>127</v>
+      <c r="K7" s="83" t="s">
+        <v>126</v>
       </c>
       <c r="L7" s="4">
         <v>44186</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="4">
         <v>44180</v>
@@ -2009,13 +2008,13 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="80" t="s">
+      <c r="S7" s="79" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="87" t="s">
-        <v>146</v>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="86" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="70">
         <v>43849</v>
@@ -2024,16 +2023,16 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="81" t="s">
-        <v>157</v>
+      <c r="G8" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="H8" s="4">
         <v>44187</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="84" t="s">
-        <v>125</v>
+      <c r="K8" s="83" t="s">
+        <v>124</v>
       </c>
       <c r="L8" s="4">
         <v>44186</v>
@@ -2049,9 +2048,9 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="87" t="s">
-        <v>147</v>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="86" t="s">
+        <v>146</v>
       </c>
       <c r="B9" s="70">
         <v>43860</v>
@@ -2060,16 +2059,16 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="78">
+      <c r="G9" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="48">
         <v>44194</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="84" t="s">
-        <v>126</v>
+      <c r="K9" s="83" t="s">
+        <v>125</v>
       </c>
       <c r="L9" s="4">
         <v>44186</v>
@@ -2080,14 +2079,14 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="94"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
+      <c r="S9" s="93"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>114</v>
+        <v>159</v>
+      </c>
+      <c r="B10" s="70">
+        <v>44216</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="14"/>
@@ -2097,8 +2096,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="84" t="s">
-        <v>128</v>
+      <c r="K10" s="83" t="s">
+        <v>127</v>
       </c>
       <c r="L10" s="4">
         <v>44186</v>
@@ -2110,9 +2109,13 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="70"/>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>160</v>
+      </c>
       <c r="C11" s="27"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
@@ -2121,8 +2124,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="84" t="s">
-        <v>129</v>
+      <c r="K11" s="83" t="s">
+        <v>128</v>
       </c>
       <c r="L11" s="4">
         <v>44186</v>
@@ -2134,7 +2137,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76"/>
       <c r="B12" s="73"/>
       <c r="C12" s="27"/>
@@ -2145,8 +2148,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="84" t="s">
-        <v>130</v>
+      <c r="K12" s="83" t="s">
+        <v>129</v>
       </c>
       <c r="L12" s="4">
         <v>44186</v>
@@ -2158,7 +2161,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74"/>
       <c r="B13" s="70"/>
       <c r="C13" s="27"/>
@@ -2169,8 +2172,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="84" t="s">
-        <v>131</v>
+      <c r="K13" s="83" t="s">
+        <v>130</v>
       </c>
       <c r="L13" s="4">
         <v>44186</v>
@@ -2182,7 +2185,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74"/>
       <c r="B14" s="70"/>
       <c r="C14" s="27"/>
@@ -2193,8 +2196,8 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="84" t="s">
-        <v>132</v>
+      <c r="K14" s="83" t="s">
+        <v>131</v>
       </c>
       <c r="L14" s="4">
         <v>44186</v>
@@ -2206,7 +2209,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74"/>
       <c r="B15" s="70"/>
       <c r="C15" s="27"/>
@@ -2217,8 +2220,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="84" t="s">
-        <v>133</v>
+      <c r="K15" s="83" t="s">
+        <v>132</v>
       </c>
       <c r="L15" s="4">
         <v>44186</v>
@@ -2230,7 +2233,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="70"/>
       <c r="C16" s="27"/>
@@ -2241,8 +2244,8 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="84" t="s">
-        <v>134</v>
+      <c r="K16" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="L16" s="4">
         <v>44186</v>
@@ -2254,7 +2257,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76"/>
       <c r="B17" s="73"/>
       <c r="C17" s="27"/>
@@ -2265,8 +2268,8 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="84" t="s">
-        <v>135</v>
+      <c r="K17" s="83" t="s">
+        <v>134</v>
       </c>
       <c r="L17" s="4">
         <v>44186</v>
@@ -2278,7 +2281,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="70"/>
       <c r="C18" s="27"/>
@@ -2289,8 +2292,8 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="84" t="s">
-        <v>136</v>
+      <c r="K18" s="83" t="s">
+        <v>135</v>
       </c>
       <c r="L18" s="4">
         <v>44186</v>
@@ -2302,147 +2305,147 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="71"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="84" t="s">
-        <v>137</v>
+      <c r="K19" s="83" t="s">
+        <v>136</v>
       </c>
       <c r="L19" s="4">
         <v>44186</v>
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="71"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="84" t="s">
-        <v>152</v>
+      <c r="K20" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="L20" s="4">
         <v>44186</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="71"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="96" t="s">
+      <c r="K21" s="95" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1">
+    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="71"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="85"/>
+      <c r="K22" s="84"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="71"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="85"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="71"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="85"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="71"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="85"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J26" s="13"/>
-      <c r="K26" s="85"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J27" s="13"/>
-      <c r="K27" s="85"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="K28" s="85"/>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="84"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="K29" s="85"/>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="84"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="K30" s="85"/>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="84"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="K31" s="85"/>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="84"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="K32" s="85"/>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="84"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="11:12" ht="15" customHeight="1">
-      <c r="K33" s="85"/>
+    <row r="33" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="84"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="11:12" ht="15" customHeight="1">
-      <c r="K34" s="85"/>
+    <row r="34" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="84"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="11:12" ht="15" customHeight="1">
-      <c r="K35" s="85"/>
+    <row r="35" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="84"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="11:12" ht="15" customHeight="1">
-      <c r="K36" s="85"/>
+    <row r="36" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="84"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="11:12" ht="15" customHeight="1">
-      <c r="K37" s="85"/>
+    <row r="37" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="84"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="11:12" ht="15" customHeight="1">
-      <c r="K38" s="85"/>
+    <row r="38" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="84"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="11:12" ht="15" customHeight="1">
-      <c r="K39" s="85"/>
+    <row r="39" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="84"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="11:12" ht="15" customHeight="1">
-      <c r="K40" s="85"/>
+    <row r="40" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="84"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="11:12" ht="15" customHeight="1">
-      <c r="K41" s="85"/>
+    <row r="41" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="84"/>
       <c r="L41" s="14"/>
     </row>
   </sheetData>
@@ -2473,7 +2476,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2498,72 +2501,72 @@
     <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="97" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="97" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="97" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="110" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="110" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="110" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="111"/>
-      <c r="O2" s="110" t="s">
+      <c r="N2" s="106"/>
+      <c r="O2" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="110" t="s">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="111"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="R2" s="106"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2606,17 +2609,17 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="107" t="s">
+      <c r="R3" s="102" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>40</v>
       </c>
@@ -2665,13 +2668,13 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="108"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="103"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>41</v>
       </c>
@@ -2720,17 +2723,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="108"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="102" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2773,13 +2776,13 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="108"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>42</v>
       </c>
@@ -2822,14 +2825,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="108"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="102" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="103"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2856,10 +2859,10 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="108"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="103"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>43</v>
       </c>
@@ -2886,10 +2889,10 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="108"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="103"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>44</v>
       </c>
@@ -2911,10 +2914,10 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="108"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>45</v>
       </c>
@@ -2936,14 +2939,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="108"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="102" t="s">
+      <c r="Q11" s="100"/>
+      <c r="R11" s="103"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="110"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2960,10 +2963,10 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="108"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="Q12" s="100"/>
+      <c r="R12" s="103"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>46</v>
       </c>
@@ -2986,10 +2989,10 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1">
+      <c r="Q13" s="100"/>
+      <c r="R13" s="103"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
         <v>47</v>
       </c>
@@ -3012,10 +3015,10 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="108"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="Q14" s="100"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
         <v>48</v>
       </c>
@@ -3034,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="109"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickTop="1">
+      <c r="Q15" s="101"/>
+      <c r="R15" s="104"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -3057,11 +3060,11 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="46"/>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="102" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="103"/>
+      <c r="B17" s="110"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3075,7 +3078,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="46"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>50</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>51</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1">
+    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>52</v>
       </c>
@@ -3124,17 +3127,17 @@
       <c r="J20" s="45"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="102" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="110"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
       <c r="J21" s="45"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="H22" s="43"/>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>54</v>
       </c>
@@ -3158,17 +3161,17 @@
       <c r="H23" s="43"/>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="110"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
         <v>55</v>
       </c>
@@ -3180,14 +3183,14 @@
       <c r="H25" s="43"/>
       <c r="J25" s="45"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="100" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="101"/>
+      <c r="B26" s="108"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>56</v>
       </c>
@@ -3196,7 +3199,7 @@
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
@@ -3204,13 +3207,13 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="100" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="101"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B29" s="108"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>58</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>59</v>
       </c>
@@ -3226,13 +3229,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="100" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="101"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="108"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>71</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>72</v>
       </c>
@@ -3248,13 +3251,13 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="100" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="101"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" s="108"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>75</v>
       </c>
@@ -3262,13 +3265,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="100" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="101"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="108"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="s">
         <v>77</v>
       </c>
@@ -3276,13 +3279,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="100" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="101"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" s="108"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="s">
         <v>79</v>
       </c>
@@ -3290,13 +3293,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="100" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="101"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="108"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>87</v>
       </c>
@@ -3305,13 +3308,13 @@
       </c>
       <c r="D42" s="43"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="100" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="101"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" s="108"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="66" t="s">
         <v>96</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="47" t="s">
         <v>97</v>
       </c>
@@ -3327,23 +3330,12 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickTop="1">
+    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3360,6 +3352,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3375,7 +3378,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -3399,51 +3402,51 @@
     <col min="20" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="111"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -3466,7 +3469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="14"/>
       <c r="C4" s="26"/>
@@ -3489,7 +3492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="27"/>
@@ -3512,7 +3515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="27"/>
@@ -3535,7 +3538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="14"/>
       <c r="C7" s="27"/>
@@ -3555,7 +3558,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="27"/>
@@ -3575,7 +3578,7 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
@@ -3595,7 +3598,7 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="27"/>
@@ -3615,7 +3618,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="27"/>
@@ -3635,7 +3638,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
@@ -3655,7 +3658,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="27"/>
@@ -3675,7 +3678,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="27"/>
@@ -3695,7 +3698,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="27"/>
@@ -3715,7 +3718,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="27"/>
@@ -3735,7 +3738,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
@@ -3755,7 +3758,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="27"/>
@@ -3775,7 +3778,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -3783,7 +3786,7 @@
       <c r="J19" s="13"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -3791,45 +3794,45 @@
       <c r="J20" s="13"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J27" s="13"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Det\Documents\Poly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172EF81-22EE-4917-97C4-A0091D02080C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB611EB5-2E2D-4E6D-9DFF-8955E5DB22DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="III семестр" sheetId="4" r:id="rId1"/>
-    <sheet name="II семестр" sheetId="1" r:id="rId2"/>
-    <sheet name="Шаблон" sheetId="3" r:id="rId3"/>
+    <sheet name="IV семестр" sheetId="5" r:id="rId1"/>
+    <sheet name="III семестр" sheetId="4" r:id="rId2"/>
+    <sheet name="II семестр" sheetId="1" r:id="rId3"/>
+    <sheet name="Шаблон" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
   <si>
     <t>резерв</t>
   </si>
@@ -492,15 +503,6 @@
     </r>
   </si>
   <si>
-    <t>Дискретная мат.</t>
-  </si>
-  <si>
-    <t>Математика III</t>
-  </si>
-  <si>
-    <t>ОС</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
@@ -513,18 +515,12 @@
     <t>Лаб 3</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Философия</t>
   </si>
   <si>
     <t>Английский</t>
   </si>
   <si>
-    <t>Технологии ООП C++</t>
-  </si>
-  <si>
     <t>9 (95%)</t>
   </si>
   <si>
@@ -603,15 +599,6 @@
     <t>11 (95%)</t>
   </si>
   <si>
-    <t>Лаб 4</t>
-  </si>
-  <si>
-    <t>Лаб 5</t>
-  </si>
-  <si>
-    <t>Лаб 6</t>
-  </si>
-  <si>
     <t>Т2 (93%)</t>
   </si>
   <si>
@@ -651,7 +638,161 @@
     <t>Курсовая</t>
   </si>
   <si>
-    <t>...</t>
+    <t>КТ2 (72%)</t>
+  </si>
+  <si>
+    <t>КТ3 (40%)</t>
+  </si>
+  <si>
+    <t>Лаб 2 (85%)</t>
+  </si>
+  <si>
+    <t>Лаб 4 (100%)</t>
+  </si>
+  <si>
+    <t>Лаб 5 (95%)</t>
+  </si>
+  <si>
+    <t>Лаб 6 (100%)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Технологии ООП C++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Дискретная мат. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Английский </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <t>I  V    с  е  м  е  с  т  р</t>
+  </si>
+  <si>
+    <t>Функц. анализ</t>
+  </si>
+  <si>
+    <t>Эл. Ф-ра и спорт</t>
+  </si>
+  <si>
+    <t>БЖД</t>
+  </si>
+  <si>
+    <t>https://lms.spbstu.ru/course/view.php?id=1133</t>
+  </si>
+  <si>
+    <t>https://openedu.ru/course/spbstu/ECOMAN1/</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>https://dl.spbstu.ru/course/view.php?id=2510</t>
+  </si>
+  <si>
+    <t>ОПД</t>
+  </si>
+  <si>
+    <t>https://project.spbstu.ru/course/view.php?id=668</t>
+  </si>
+  <si>
+    <t>БД</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ОС </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Политология </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(з)</t>
+    </r>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Математика III </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://lms.spbstu.ru/course/view.php?id=12265</t>
   </si>
 </sst>
 </file>
@@ -663,7 +804,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmm"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +955,41 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color theme="8" tint="0.59996337778862885"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1002,7 +1178,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,9 +1384,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,12 +1405,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,27 +1426,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,6 +1438,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,6 +1448,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,20 +1486,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1676,17 +1876,599 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F08035B-C292-460C-A9B9-992E1F787481}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10" style="9" customWidth="1"/>
+    <col min="16" max="16" width="10" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="102"/>
+      <c r="I2" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="102"/>
+      <c r="K2" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="102"/>
+      <c r="M2" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="102"/>
+      <c r="O2" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="102"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="117"/>
+      <c r="I3" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="117"/>
+      <c r="K3" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="115"/>
+      <c r="O3" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>44256</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>44263</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>44270</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="69">
+        <v>44277</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15">
+        <v>5</v>
+      </c>
+      <c r="J8" s="69">
+        <v>44284</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15">
+        <v>6</v>
+      </c>
+      <c r="J9" s="69">
+        <v>44291</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15">
+        <v>7</v>
+      </c>
+      <c r="J10" s="69">
+        <v>44298</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15">
+        <v>8</v>
+      </c>
+      <c r="J11" s="69">
+        <v>44305</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15">
+        <v>9</v>
+      </c>
+      <c r="J12" s="69">
+        <v>44312</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15">
+        <v>10</v>
+      </c>
+      <c r="J13" s="69">
+        <v>44319</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15">
+        <v>11</v>
+      </c>
+      <c r="J14" s="69">
+        <v>44326</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="69">
+        <v>44333</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15">
+        <v>13</v>
+      </c>
+      <c r="J16" s="69">
+        <v>44340</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15">
+        <v>14</v>
+      </c>
+      <c r="J17" s="69">
+        <v>44347</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="69">
+        <v>44361</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="J27" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{A5C60F29-FE17-49F1-BDCD-82355C182377}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{9D868B07-5BFB-4CEF-8EBA-C3F16B597843}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{9C3937EF-C227-42C2-B43E-01DEC5D75AAF}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{CC67B161-64F1-4D16-8FBF-060ADB7D72A9}"/>
+    <hyperlink ref="O3" r:id="rId5" xr:uid="{E8233C86-7A1E-45FA-970D-315D4B0C8112}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271BE1B-5AF7-44EB-BB24-2CD39776A69C}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="75" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="72" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="71" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
@@ -1695,7 +2477,7 @@
     <col min="8" max="8" width="10.5546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="85" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="82" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
@@ -1707,103 +2489,103 @@
     <col min="20" max="16384" width="9.5546875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="89"/>
+      <c r="I2" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="89"/>
+      <c r="M2" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="89"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="79">
+        <v>44165</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="96" t="s">
+      <c r="D3" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="97"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="82">
-        <v>44165</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="92">
+      <c r="H3" s="4">
         <v>44150</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J3" s="4">
         <v>44140</v>
       </c>
-      <c r="K3" s="83" t="s">
-        <v>152</v>
+      <c r="K3" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="L3" s="4">
         <v>44186</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N3" s="4">
         <v>44178</v>
@@ -1816,45 +2598,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="94">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="85">
         <v>44175</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="80" t="s">
-        <v>120</v>
+      <c r="G4" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="H4" s="4">
         <v>44152</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J4" s="4">
         <v>44154</v>
       </c>
-      <c r="K4" s="83" t="s">
-        <v>153</v>
+      <c r="K4" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="L4" s="4">
         <v>44186</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N4" s="4">
         <v>44178</v>
@@ -1867,45 +2649,45 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="89">
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="85">
         <v>44179</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="92">
+      <c r="G5" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="4">
         <v>44164</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J5" s="4">
         <v>44168</v>
       </c>
-      <c r="K5" s="83" t="s">
-        <v>154</v>
+      <c r="K5" s="80" t="s">
+        <v>146</v>
       </c>
       <c r="L5" s="4">
         <v>44186</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N5" s="4">
         <v>44178</v>
@@ -1914,31 +2696,27 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="94">
+      <c r="S5" s="83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="85">
         <v>44194</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="77" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="80" t="s">
-        <v>147</v>
+      <c r="G6" s="77" t="s">
+        <v>139</v>
       </c>
       <c r="H6" s="4">
         <v>44166</v>
@@ -1949,14 +2727,14 @@
       <c r="J6" s="4">
         <v>44182</v>
       </c>
-      <c r="K6" s="83" t="s">
-        <v>155</v>
+      <c r="K6" s="80" t="s">
+        <v>147</v>
       </c>
       <c r="L6" s="4">
         <v>44186</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N6" s="4">
         <v>44178</v>
@@ -1969,21 +2747,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="89">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="85">
         <v>43844</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="14"/>
       <c r="E7" s="20"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="92">
+      <c r="G7" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="4">
         <v>44185</v>
       </c>
       <c r="I7" s="50" t="s">
@@ -1992,14 +2770,14 @@
       <c r="J7" s="51">
         <v>44192</v>
       </c>
-      <c r="K7" s="83" t="s">
-        <v>126</v>
+      <c r="K7" s="80" t="s">
+        <v>121</v>
       </c>
       <c r="L7" s="4">
         <v>44186</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N7" s="4">
         <v>44180</v>
@@ -2008,37 +2786,37 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="79" t="s">
+      <c r="S7" s="76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="70">
-        <v>43849</v>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="85">
+        <v>44193</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="80" t="s">
-        <v>156</v>
+      <c r="G8" s="77" t="s">
+        <v>148</v>
       </c>
       <c r="H8" s="4">
         <v>44187</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="83" t="s">
-        <v>124</v>
+      <c r="K8" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="L8" s="4">
         <v>44186</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N8" s="48">
         <v>44180</v>
@@ -2048,27 +2826,27 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="70">
-        <v>43860</v>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="85">
+        <v>43849</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="23"/>
       <c r="G9" s="49" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H9" s="48">
         <v>44194</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="83" t="s">
-        <v>125</v>
+      <c r="K9" s="80" t="s">
+        <v>120</v>
       </c>
       <c r="L9" s="4">
         <v>44186</v>
@@ -2079,14 +2857,14 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="93"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="70">
-        <v>44216</v>
+      <c r="S9" s="84"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickTop="1">
+      <c r="A10" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="85">
+        <v>43860</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="14"/>
@@ -2096,8 +2874,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="83" t="s">
-        <v>127</v>
+      <c r="K10" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="L10" s="4">
         <v>44186</v>
@@ -2109,12 +2887,12 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>160</v>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="85">
+        <v>43850</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="14"/>
@@ -2124,8 +2902,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="83" t="s">
-        <v>128</v>
+      <c r="K11" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="L11" s="4">
         <v>44186</v>
@@ -2137,9 +2915,13 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="108">
+        <v>44216</v>
+      </c>
       <c r="C12" s="27"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
@@ -2148,8 +2930,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="83" t="s">
-        <v>129</v>
+      <c r="K12" s="80" t="s">
+        <v>124</v>
       </c>
       <c r="L12" s="4">
         <v>44186</v>
@@ -2161,9 +2943,9 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="70"/>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickTop="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="27"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -2172,8 +2954,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="83" t="s">
-        <v>130</v>
+      <c r="K13" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="L13" s="4">
         <v>44186</v>
@@ -2185,9 +2967,9 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="70"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="73"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="27"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
@@ -2196,8 +2978,8 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="83" t="s">
-        <v>131</v>
+      <c r="K14" s="80" t="s">
+        <v>126</v>
       </c>
       <c r="L14" s="4">
         <v>44186</v>
@@ -2209,9 +2991,9 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="70"/>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="27"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -2220,8 +3002,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="83" t="s">
-        <v>132</v>
+      <c r="K15" s="80" t="s">
+        <v>127</v>
       </c>
       <c r="L15" s="4">
         <v>44186</v>
@@ -2233,9 +3015,9 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="70"/>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="27"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -2244,8 +3026,8 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="83" t="s">
-        <v>133</v>
+      <c r="K16" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="L16" s="4">
         <v>44186</v>
@@ -2257,9 +3039,9 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="73"/>
+    <row r="17" spans="1:18" ht="15" customHeight="1">
+      <c r="A17" s="75"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="27"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2268,8 +3050,8 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="83" t="s">
-        <v>134</v>
+      <c r="K17" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="L17" s="4">
         <v>44186</v>
@@ -2281,9 +3063,9 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="70"/>
+    <row r="18" spans="1:18" ht="15" customHeight="1">
+      <c r="A18" s="73"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="27"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -2292,8 +3074,8 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="83" t="s">
-        <v>135</v>
+      <c r="K18" s="80" t="s">
+        <v>130</v>
       </c>
       <c r="L18" s="4">
         <v>44186</v>
@@ -2305,147 +3087,147 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
+    <row r="19" spans="1:18" ht="15" customHeight="1">
+      <c r="B19" s="70"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
       <c r="H19" s="10"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="83" t="s">
-        <v>136</v>
+      <c r="K19" s="80" t="s">
+        <v>131</v>
       </c>
       <c r="L19" s="4">
         <v>44186</v>
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
+    <row r="20" spans="1:18" ht="15" customHeight="1">
+      <c r="B20" s="70"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="83" t="s">
-        <v>151</v>
+      <c r="K20" s="80" t="s">
+        <v>143</v>
       </c>
       <c r="L20" s="4">
         <v>44186</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="71"/>
+    <row r="21" spans="1:18" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="70"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="95" t="s">
-        <v>110</v>
+      <c r="K21" s="86" t="s">
+        <v>107</v>
       </c>
       <c r="L21" s="56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
+    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1">
+      <c r="B22" s="70"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="84"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
+    <row r="23" spans="1:18" ht="15" customHeight="1">
+      <c r="B23" s="70"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="84"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="71"/>
+    <row r="24" spans="1:18" ht="15" customHeight="1">
+      <c r="B24" s="70"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="84"/>
+      <c r="K24" s="81"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
+    <row r="25" spans="1:18" ht="15" customHeight="1">
+      <c r="B25" s="70"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="84"/>
+      <c r="K25" s="81"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="J26" s="13"/>
-      <c r="K26" s="84"/>
+      <c r="K26" s="81"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="J27" s="13"/>
-      <c r="K27" s="84"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K28" s="84"/>
+    <row r="28" spans="1:18" ht="15" customHeight="1">
+      <c r="K28" s="81"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="84"/>
+    <row r="29" spans="1:18" ht="15" customHeight="1">
+      <c r="K29" s="81"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="84"/>
+    <row r="30" spans="1:18" ht="15" customHeight="1">
+      <c r="K30" s="81"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="84"/>
+    <row r="31" spans="1:18" ht="15" customHeight="1">
+      <c r="K31" s="81"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="84"/>
+    <row r="32" spans="1:18" ht="15" customHeight="1">
+      <c r="K32" s="81"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="84"/>
+    <row r="33" spans="11:12" ht="15" customHeight="1">
+      <c r="K33" s="81"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="84"/>
+    <row r="34" spans="11:12" ht="15" customHeight="1">
+      <c r="K34" s="81"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K35" s="84"/>
+    <row r="35" spans="11:12" ht="15" customHeight="1">
+      <c r="K35" s="81"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K36" s="84"/>
+    <row r="36" spans="11:12" ht="15" customHeight="1">
+      <c r="K36" s="81"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K37" s="84"/>
+    <row r="37" spans="11:12" ht="15" customHeight="1">
+      <c r="K37" s="81"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K38" s="84"/>
+    <row r="38" spans="11:12" ht="15" customHeight="1">
+      <c r="K38" s="81"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="84"/>
+    <row r="39" spans="11:12" ht="15" customHeight="1">
+      <c r="K39" s="81"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="84"/>
+    <row r="40" spans="11:12" ht="15" customHeight="1">
+      <c r="K40" s="81"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="11:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="84"/>
+    <row r="41" spans="11:12" ht="15" customHeight="1">
+      <c r="K41" s="81"/>
       <c r="L41" s="14"/>
     </row>
   </sheetData>
@@ -2467,16 +3249,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -2501,72 +3283,72 @@
     <col min="16384" max="16384" width="9.5546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="105" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="105" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="105" t="s">
+      <c r="N2" s="102"/>
+      <c r="O2" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105" t="s">
+      <c r="P2" s="102"/>
+      <c r="Q2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="106"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+      <c r="R2" s="102"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -2609,17 +3391,17 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="98" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="30" t="s">
         <v>40</v>
       </c>
@@ -2668,13 +3450,13 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="103"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="99"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="31" t="s">
         <v>41</v>
       </c>
@@ -2723,17 +3505,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="103"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="99"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="109" t="s">
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2776,13 +3558,13 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="103"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="99"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>42</v>
       </c>
@@ -2825,14 +3607,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="103"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="109" t="s">
+      <c r="Q7" s="96"/>
+      <c r="R7" s="99"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="110"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -2859,10 +3641,10 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="103"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="96"/>
+      <c r="R8" s="99"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
         <v>43</v>
       </c>
@@ -2889,10 +3671,10 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="103"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="96"/>
+      <c r="R9" s="99"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
         <v>44</v>
       </c>
@@ -2914,10 +3696,10 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="103"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="96"/>
+      <c r="R10" s="99"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
         <v>45</v>
       </c>
@@ -2939,14 +3721,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="103"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="109" t="s">
+      <c r="Q11" s="96"/>
+      <c r="R11" s="99"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="94"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -2963,10 +3745,10 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="103"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="96"/>
+      <c r="R12" s="99"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
         <v>46</v>
       </c>
@@ -2989,10 +3771,10 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="103"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="96"/>
+      <c r="R13" s="99"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
         <v>47</v>
       </c>
@@ -3015,10 +3797,10 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="103"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="96"/>
+      <c r="R14" s="99"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
         <v>48</v>
       </c>
@@ -3037,10 +3819,10 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="104"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="97"/>
+      <c r="R15" s="100"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -3060,11 +3842,11 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="46"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="110"/>
+      <c r="B17" s="94"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3078,7 +3860,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="46"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="30" t="s">
         <v>50</v>
       </c>
@@ -3096,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" thickBot="1">
       <c r="A19" s="30" t="s">
         <v>51</v>
       </c>
@@ -3114,7 +3896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickTop="1">
       <c r="A20" s="32" t="s">
         <v>52</v>
       </c>
@@ -3127,17 +3909,17 @@
       <c r="J20" s="45"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="109" t="s">
+    <row r="21" spans="1:17">
+      <c r="A21" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="94"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
       <c r="J21" s="45"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="40" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +3931,7 @@
       <c r="H22" s="43"/>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="61" t="s">
         <v>54</v>
       </c>
@@ -3161,17 +3943,17 @@
       <c r="H23" s="43"/>
       <c r="J23" s="45"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="109" t="s">
+    <row r="24" spans="1:17">
+      <c r="A24" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="94"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="40" t="s">
         <v>55</v>
       </c>
@@ -3183,14 +3965,14 @@
       <c r="H25" s="43"/>
       <c r="J25" s="45"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="107" t="s">
+    <row r="26" spans="1:17">
+      <c r="A26" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="108"/>
+      <c r="B26" s="92"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="30" t="s">
         <v>56</v>
       </c>
@@ -3199,7 +3981,7 @@
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
@@ -3207,13 +3989,13 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="107" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="108"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="92"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
         <v>58</v>
       </c>
@@ -3221,7 +4003,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="30" t="s">
         <v>59</v>
       </c>
@@ -3229,13 +4011,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="107" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="108"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="92"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
         <v>71</v>
       </c>
@@ -3243,7 +4025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
         <v>72</v>
       </c>
@@ -3251,13 +4033,13 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="107" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="108"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="92"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
         <v>75</v>
       </c>
@@ -3265,13 +4047,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="107" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="108"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="92"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
         <v>77</v>
       </c>
@@ -3279,13 +4061,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="107" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="108"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="92"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
         <v>79</v>
       </c>
@@ -3293,13 +4075,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="108"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="92"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
         <v>87</v>
       </c>
@@ -3308,13 +4090,13 @@
       </c>
       <c r="D42" s="43"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="107" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="108"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="92"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
         <v>96</v>
       </c>
@@ -3322,7 +4104,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1">
       <c r="A45" s="47" t="s">
         <v>97</v>
       </c>
@@ -3330,12 +4112,23 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickTop="1">
       <c r="A46" s="64"/>
       <c r="B46" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -3352,33 +4145,22 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="11" customWidth="1"/>
@@ -3402,51 +4184,51 @@
     <col min="20" max="16384" width="9.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" ht="15.6">
+      <c r="A1" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -3469,7 +4251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="15"/>
       <c r="B4" s="14"/>
       <c r="C4" s="26"/>
@@ -3492,7 +4274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="27"/>
@@ -3511,11 +4293,11 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S5" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="27"/>
@@ -3534,11 +4316,8 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="15"/>
       <c r="B7" s="14"/>
       <c r="C7" s="27"/>
@@ -3558,7 +4337,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="27"/>
@@ -3578,7 +4357,7 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="15"/>
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
@@ -3598,7 +4377,7 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="27"/>
@@ -3618,7 +4397,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="27"/>
@@ -3638,7 +4417,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
@@ -3658,7 +4437,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
       <c r="C13" s="27"/>
@@ -3678,7 +4457,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="27"/>
@@ -3698,7 +4477,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="27"/>
@@ -3718,7 +4497,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
       <c r="C16" s="27"/>
@@ -3738,7 +4517,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
@@ -3758,7 +4537,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="15"/>
       <c r="B18" s="14"/>
       <c r="C18" s="27"/>
@@ -3778,7 +4557,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="10"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -3786,7 +4565,7 @@
       <c r="J19" s="13"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="10"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -3794,45 +4573,45 @@
       <c r="J20" s="13"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="10"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="10"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
       <c r="H22" s="10"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="B23" s="10"/>
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
       <c r="H23" s="10"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="B24" s="10"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="H24" s="10"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="B25" s="10"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="H25" s="10"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="J27" s="13"/>
     </row>
   </sheetData>

--- a/ГРАФИК.xlsx
+++ b/ГРАФИК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksorz\OneDrive\Документы\Poly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB611EB5-2E2D-4E6D-9DFF-8955E5DB22DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF04DA-952A-4838-9317-607C39DBAE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
   <si>
     <t>резерв</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>https://lms.spbstu.ru/course/view.php?id=12265</t>
+  </si>
+  <si>
+    <t>https://dl.spbstu.ru/course/view.php?id=2831</t>
+  </si>
+  <si>
+    <t>https://dl.spbstu.ru/course/view.php?id=2637</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1184,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,25 +1447,64 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,62 +1525,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4"/>
@@ -1908,94 +1908,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="101" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="101" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="101" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="101" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="101" t="s">
+      <c r="N2" s="101"/>
+      <c r="O2" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="101" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="102"/>
+      <c r="R2" s="101"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="116" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="116" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116" t="s">
+      <c r="L3" s="95"/>
+      <c r="M3" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="116" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="104"/>
       <c r="S3" s="38" t="s">
         <v>60</v>
       </c>
@@ -2425,16 +2429,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -2444,6 +2438,16 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" xr:uid="{A5C60F29-FE17-49F1-BDCD-82355C182377}"/>
@@ -2451,9 +2455,11 @@
     <hyperlink ref="I3" r:id="rId3" xr:uid="{9C3937EF-C227-42C2-B43E-01DEC5D75AAF}"/>
     <hyperlink ref="K3" r:id="rId4" xr:uid="{CC67B161-64F1-4D16-8FBF-060ADB7D72A9}"/>
     <hyperlink ref="O3" r:id="rId5" xr:uid="{E8233C86-7A1E-45FA-970D-315D4B0C8112}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{78A70F80-C2B3-4E0E-B818-587B29D38ED1}"/>
+    <hyperlink ref="Q3" r:id="rId7" xr:uid="{61DF691B-0BB9-4691-80D6-5CB7A4E93020}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2490,61 +2496,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="88" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="88" t="s">
+      <c r="J2" s="107"/>
+      <c r="K2" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="88" t="s">
+      <c r="L2" s="107"/>
+      <c r="M2" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="107"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
@@ -2554,10 +2560,10 @@
       <c r="B3" s="79">
         <v>44165</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="89" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3">
@@ -2608,7 +2614,7 @@
       <c r="C4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3">
@@ -2659,7 +2665,7 @@
       <c r="C5" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="91" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3">
@@ -2791,7 +2797,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="94" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="85">
@@ -2888,7 +2894,7 @@
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="94" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="85">
@@ -2916,10 +2922,10 @@
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="93">
         <v>44216</v>
       </c>
       <c r="C12" s="27"/>
@@ -3284,71 +3290,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="101" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="101" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="101" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="101" t="s">
+      <c r="N2" s="101"/>
+      <c r="O2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="101" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="102"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -3391,10 +3397,10 @@
       <c r="P3" s="4">
         <v>43891</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="98" t="s">
+      <c r="R3" s="111" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -3450,8 +3456,8 @@
       <c r="P4" s="4">
         <v>43898</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="99"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="112"/>
       <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
@@ -3505,17 +3511,17 @@
       <c r="P5" s="4">
         <v>43911</v>
       </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="99"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="112"/>
       <c r="S5" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3558,8 +3564,8 @@
       <c r="P6" s="4">
         <v>43919</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="99"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="112"/>
       <c r="S6" s="57" t="s">
         <v>94</v>
       </c>
@@ -3607,14 +3613,14 @@
       <c r="P7" s="4">
         <v>43921</v>
       </c>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="99"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="49">
         <v>7</v>
       </c>
@@ -3641,8 +3647,8 @@
       <c r="P8" s="8">
         <v>43940</v>
       </c>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="99"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="112"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="30" t="s">
@@ -3671,8 +3677,8 @@
       <c r="P9" s="48">
         <v>43951</v>
       </c>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="99"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="112"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1">
       <c r="A10" s="30" t="s">
@@ -3696,8 +3702,8 @@
         <v>43920</v>
       </c>
       <c r="P10" s="43"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="99"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="112"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="32" t="s">
@@ -3721,14 +3727,14 @@
         <v>43927</v>
       </c>
       <c r="P11" s="43"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="99"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="112"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="117"/>
       <c r="D12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="3">
@@ -3745,8 +3751,8 @@
         <v>43934</v>
       </c>
       <c r="P12" s="43"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="99"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="112"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
@@ -3771,8 +3777,8 @@
         <v>43941</v>
       </c>
       <c r="P13" s="43"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="99"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
       <c r="A14" s="30" t="s">
@@ -3797,8 +3803,8 @@
         <v>43948</v>
       </c>
       <c r="P14" s="43"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="99"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="112"/>
     </row>
     <row r="15" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="58" t="s">
@@ -3819,8 +3825,8 @@
         <v>5</v>
       </c>
       <c r="P15" s="43"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="100"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1">
       <c r="A16" s="32" t="s">
@@ -3843,10 +3849,10 @@
       <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="117"/>
       <c r="D17" s="43"/>
       <c r="F17" s="43"/>
       <c r="H17" s="43"/>
@@ -3910,10 +3916,10 @@
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="94"/>
+      <c r="B21" s="117"/>
       <c r="D21" s="43"/>
       <c r="F21" s="43"/>
       <c r="H21" s="43"/>
@@ -3944,10 +3950,10 @@
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="94"/>
+      <c r="B24" s="117"/>
       <c r="D24" s="43"/>
       <c r="F24" s="43"/>
       <c r="H24" s="43"/>
@@ -3966,10 +3972,10 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="92"/>
+      <c r="B26" s="115"/>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:17">
@@ -3990,10 +3996,10 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="92"/>
+      <c r="B29" s="115"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="30" t="s">
@@ -4012,10 +4018,10 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="115"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
@@ -4034,10 +4040,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="115"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
@@ -4048,10 +4054,10 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="92"/>
+      <c r="B37" s="115"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="62" t="s">
@@ -4062,10 +4068,10 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="92"/>
+      <c r="B39" s="115"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="62" t="s">
@@ -4076,10 +4082,10 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="92"/>
+      <c r="B41" s="115"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
@@ -4091,10 +4097,10 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="92"/>
+      <c r="B43" s="115"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="66" t="s">
@@ -4118,17 +4124,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q3:Q15"/>
-    <mergeCell ref="R3:R15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A35:B35"/>
@@ -4145,6 +4140,17 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q3:Q15"/>
+    <mergeCell ref="R3:R15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4185,47 +4191,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="102"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">
